--- a/Code/Results/Cases/Case_0_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.031799448500356</v>
+        <v>5.031799448500494</v>
       </c>
       <c r="D2">
-        <v>10.05786433345951</v>
+        <v>10.0578643334595</v>
       </c>
       <c r="E2">
-        <v>32.72293297910954</v>
+        <v>32.72293297910959</v>
       </c>
       <c r="F2">
-        <v>57.56430793195359</v>
+        <v>57.56430793195416</v>
       </c>
       <c r="G2">
-        <v>47.77792197636516</v>
+        <v>47.77792197636562</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.43183047785286</v>
+        <v>23.43183047785292</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>26.35884978542088</v>
+        <v>26.35884978542092</v>
       </c>
       <c r="L2">
-        <v>110.7103508432304</v>
+        <v>110.7103508432306</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.940283519610398</v>
+        <v>3.940283519610514</v>
       </c>
       <c r="D3">
-        <v>8.513824879437927</v>
+        <v>8.513824879438001</v>
       </c>
       <c r="E3">
-        <v>29.0755900962501</v>
+        <v>29.07559009625018</v>
       </c>
       <c r="F3">
-        <v>46.92004356634522</v>
+        <v>46.92004356634551</v>
       </c>
       <c r="G3">
-        <v>39.10633963865506</v>
+        <v>39.10633963865527</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.45618094570184</v>
+        <v>20.45618094570191</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>23.57860395370071</v>
+        <v>23.57860395370075</v>
       </c>
       <c r="L3">
-        <v>98.88556265591477</v>
+        <v>98.88556265591491</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.408677026279456</v>
+        <v>3.408677026279825</v>
       </c>
       <c r="D4">
-        <v>7.734108774169604</v>
+        <v>7.734108774169584</v>
       </c>
       <c r="E4">
-        <v>27.11793136622645</v>
+        <v>27.11793136622652</v>
       </c>
       <c r="F4">
-        <v>41.7483951121482</v>
+        <v>41.74839511214793</v>
       </c>
       <c r="G4">
-        <v>34.86310372707522</v>
+        <v>34.86310372707494</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.92191446126782</v>
+        <v>18.92191446126791</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.06264540315788</v>
+        <v>22.06264540315791</v>
       </c>
       <c r="L4">
-        <v>92.43125647603222</v>
+        <v>92.43125647603233</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.210002161667987</v>
+        <v>3.210002161667981</v>
       </c>
       <c r="D5">
-        <v>7.437160658568617</v>
+        <v>7.437160658568816</v>
       </c>
       <c r="E5">
-        <v>26.34964590101074</v>
+        <v>26.34964590101073</v>
       </c>
       <c r="F5">
-        <v>39.82537719064526</v>
+        <v>39.82537719064542</v>
       </c>
       <c r="G5">
-        <v>33.27773573179637</v>
+        <v>33.27773573179657</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.33022837813005</v>
+        <v>18.33022837813007</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.4639113772005</v>
+        <v>21.46391137720047</v>
       </c>
       <c r="L5">
-        <v>89.88201354090917</v>
+        <v>89.88201354090918</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.177836900573826</v>
+        <v>3.177836900573706</v>
       </c>
       <c r="D6">
-        <v>7.388774487183445</v>
+        <v>7.388774487183392</v>
       </c>
       <c r="E6">
-        <v>26.22321425283214</v>
+        <v>26.22321425283207</v>
       </c>
       <c r="F6">
-        <v>39.51478976443324</v>
+        <v>39.51478976443372</v>
       </c>
       <c r="G6">
-        <v>33.02121210878901</v>
+        <v>33.02121210878936</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.23338792028649</v>
+        <v>18.23338792028637</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.36519239578495</v>
+        <v>21.36519239578491</v>
       </c>
       <c r="L6">
-        <v>89.46170915119342</v>
+        <v>89.46170915119336</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.405937570970965</v>
+        <v>3.40593757097098</v>
       </c>
       <c r="D7">
-        <v>7.730036075113325</v>
+        <v>7.73003607511318</v>
       </c>
       <c r="E7">
-        <v>27.10748171257433</v>
+        <v>27.10748171257445</v>
       </c>
       <c r="F7">
-        <v>41.72183139418631</v>
+        <v>41.72183139418658</v>
       </c>
       <c r="G7">
-        <v>34.84123616742345</v>
+        <v>34.84123616742358</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.91382899534806</v>
+        <v>18.91382899534815</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.05451544300465</v>
+        <v>22.05451544300474</v>
       </c>
       <c r="L7">
-        <v>92.39664076145148</v>
+        <v>92.39664076145185</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -646,31 +646,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D8">
-        <v>9.468922162504983</v>
+        <v>9.468922162504803</v>
       </c>
       <c r="E8">
-        <v>31.36513051632068</v>
+        <v>31.36513051632071</v>
       </c>
       <c r="F8">
-        <v>53.45079195834529</v>
+        <v>53.4507919583444</v>
       </c>
       <c r="G8">
-        <v>44.43428509664868</v>
+        <v>44.4342850966479</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.30461812757362</v>
+        <v>22.30461812757366</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>25.33134828063586</v>
+        <v>25.3313482806359</v>
       </c>
       <c r="L8">
-        <v>106.3436897049285</v>
+        <v>106.3436897049284</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -684,31 +684,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D9">
-        <v>9.468922162504983</v>
+        <v>9.468922162504803</v>
       </c>
       <c r="E9">
-        <v>31.36513051632068</v>
+        <v>31.36513051632071</v>
       </c>
       <c r="F9">
-        <v>53.45079195834529</v>
+        <v>53.4507919583444</v>
       </c>
       <c r="G9">
-        <v>44.43428509664868</v>
+        <v>44.4342850966479</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.30461812757362</v>
+        <v>22.30461812757366</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>25.33134828063586</v>
+        <v>25.3313482806359</v>
       </c>
       <c r="L9">
-        <v>106.3436897049285</v>
+        <v>106.3436897049284</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -722,31 +722,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D10">
-        <v>9.468922162504983</v>
+        <v>9.468922162504803</v>
       </c>
       <c r="E10">
-        <v>31.36513051632068</v>
+        <v>31.36513051632071</v>
       </c>
       <c r="F10">
-        <v>53.45079195834529</v>
+        <v>53.4507919583444</v>
       </c>
       <c r="G10">
-        <v>44.43428509664868</v>
+        <v>44.4342850966479</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.30461812757362</v>
+        <v>22.30461812757366</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.33134828063586</v>
+        <v>25.3313482806359</v>
       </c>
       <c r="L10">
-        <v>106.3436897049285</v>
+        <v>106.3436897049284</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -760,31 +760,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D11">
-        <v>9.468922162504983</v>
+        <v>9.468922162504803</v>
       </c>
       <c r="E11">
-        <v>31.36513051632068</v>
+        <v>31.36513051632071</v>
       </c>
       <c r="F11">
-        <v>53.45079195834529</v>
+        <v>53.4507919583444</v>
       </c>
       <c r="G11">
-        <v>44.43428509664868</v>
+        <v>44.4342850966479</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.30461812757362</v>
+        <v>22.30461812757366</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.33134828063586</v>
+        <v>25.3313482806359</v>
       </c>
       <c r="L11">
-        <v>106.3436897049285</v>
+        <v>106.3436897049284</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -798,31 +798,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D12">
-        <v>9.468922162504983</v>
+        <v>9.468922162504803</v>
       </c>
       <c r="E12">
-        <v>31.36513051632068</v>
+        <v>31.36513051632071</v>
       </c>
       <c r="F12">
-        <v>53.45079195834529</v>
+        <v>53.4507919583444</v>
       </c>
       <c r="G12">
-        <v>44.43428509664868</v>
+        <v>44.4342850966479</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.30461812757362</v>
+        <v>22.30461812757366</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.33134828063586</v>
+        <v>25.3313482806359</v>
       </c>
       <c r="L12">
-        <v>106.3436897049285</v>
+        <v>106.3436897049284</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -836,31 +836,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D13">
-        <v>9.468922162504983</v>
+        <v>9.468922162504803</v>
       </c>
       <c r="E13">
-        <v>31.36513051632068</v>
+        <v>31.36513051632071</v>
       </c>
       <c r="F13">
-        <v>53.45079195834529</v>
+        <v>53.4507919583444</v>
       </c>
       <c r="G13">
-        <v>44.43428509664868</v>
+        <v>44.4342850966479</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.30461812757362</v>
+        <v>22.30461812757366</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.33134828063586</v>
+        <v>25.3313482806359</v>
       </c>
       <c r="L13">
-        <v>106.3436897049285</v>
+        <v>106.3436897049284</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -874,31 +874,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D14">
-        <v>9.468922162504983</v>
+        <v>9.468922162504803</v>
       </c>
       <c r="E14">
-        <v>31.36513051632068</v>
+        <v>31.36513051632071</v>
       </c>
       <c r="F14">
-        <v>53.45079195834529</v>
+        <v>53.4507919583444</v>
       </c>
       <c r="G14">
-        <v>44.43428509664868</v>
+        <v>44.4342850966479</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.30461812757362</v>
+        <v>22.30461812757366</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.33134828063586</v>
+        <v>25.3313482806359</v>
       </c>
       <c r="L14">
-        <v>106.3436897049285</v>
+        <v>106.3436897049284</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -912,31 +912,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D15">
-        <v>9.468922162504983</v>
+        <v>9.468922162504803</v>
       </c>
       <c r="E15">
-        <v>31.36513051632068</v>
+        <v>31.36513051632071</v>
       </c>
       <c r="F15">
-        <v>53.45079195834529</v>
+        <v>53.4507919583444</v>
       </c>
       <c r="G15">
-        <v>44.43428509664868</v>
+        <v>44.4342850966479</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22.30461812757362</v>
+        <v>22.30461812757366</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.33134828063586</v>
+        <v>25.3313482806359</v>
       </c>
       <c r="L15">
-        <v>106.3436897049285</v>
+        <v>106.3436897049284</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -950,31 +950,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D16">
-        <v>9.468922162504983</v>
+        <v>9.468922162504803</v>
       </c>
       <c r="E16">
-        <v>31.36513051632068</v>
+        <v>31.36513051632071</v>
       </c>
       <c r="F16">
-        <v>53.45079195834529</v>
+        <v>53.4507919583444</v>
       </c>
       <c r="G16">
-        <v>44.43428509664868</v>
+        <v>44.4342850966479</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.30461812757362</v>
+        <v>22.30461812757366</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.33134828063586</v>
+        <v>25.3313482806359</v>
       </c>
       <c r="L16">
-        <v>106.3436897049285</v>
+        <v>106.3436897049284</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -988,31 +988,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D17">
-        <v>9.468922162504983</v>
+        <v>9.468922162504803</v>
       </c>
       <c r="E17">
-        <v>31.36513051632068</v>
+        <v>31.36513051632071</v>
       </c>
       <c r="F17">
-        <v>53.45079195834529</v>
+        <v>53.4507919583444</v>
       </c>
       <c r="G17">
-        <v>44.43428509664868</v>
+        <v>44.4342850966479</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22.30461812757362</v>
+        <v>22.30461812757366</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.33134828063586</v>
+        <v>25.3313482806359</v>
       </c>
       <c r="L17">
-        <v>106.3436897049285</v>
+        <v>106.3436897049284</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1026,31 +1026,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D18">
-        <v>9.468922162504983</v>
+        <v>9.468922162504803</v>
       </c>
       <c r="E18">
-        <v>31.36513051632068</v>
+        <v>31.36513051632071</v>
       </c>
       <c r="F18">
-        <v>53.45079195834529</v>
+        <v>53.4507919583444</v>
       </c>
       <c r="G18">
-        <v>44.43428509664868</v>
+        <v>44.4342850966479</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.30461812757362</v>
+        <v>22.30461812757366</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>25.33134828063586</v>
+        <v>25.3313482806359</v>
       </c>
       <c r="L18">
-        <v>106.3436897049285</v>
+        <v>106.3436897049284</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,31 +1064,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D19">
-        <v>9.468922162504983</v>
+        <v>9.468922162504803</v>
       </c>
       <c r="E19">
-        <v>31.36513051632068</v>
+        <v>31.36513051632071</v>
       </c>
       <c r="F19">
-        <v>53.45079195834529</v>
+        <v>53.4507919583444</v>
       </c>
       <c r="G19">
-        <v>44.43428509664868</v>
+        <v>44.4342850966479</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.30461812757362</v>
+        <v>22.30461812757366</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>25.33134828063586</v>
+        <v>25.3313482806359</v>
       </c>
       <c r="L19">
-        <v>106.3436897049285</v>
+        <v>106.3436897049284</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1102,31 +1102,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D20">
-        <v>9.468922162504983</v>
+        <v>9.468922162504803</v>
       </c>
       <c r="E20">
-        <v>31.36513051632068</v>
+        <v>31.36513051632071</v>
       </c>
       <c r="F20">
-        <v>53.45079195834529</v>
+        <v>53.4507919583444</v>
       </c>
       <c r="G20">
-        <v>44.43428509664868</v>
+        <v>44.4342850966479</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>22.30461812757362</v>
+        <v>22.30461812757366</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.33134828063586</v>
+        <v>25.3313482806359</v>
       </c>
       <c r="L20">
-        <v>106.3436897049285</v>
+        <v>106.3436897049284</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1140,31 +1140,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D21">
-        <v>9.468922162504983</v>
+        <v>9.468922162504803</v>
       </c>
       <c r="E21">
-        <v>31.36513051632068</v>
+        <v>31.36513051632071</v>
       </c>
       <c r="F21">
-        <v>53.45079195834529</v>
+        <v>53.4507919583444</v>
       </c>
       <c r="G21">
-        <v>44.43428509664868</v>
+        <v>44.4342850966479</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.30461812757362</v>
+        <v>22.30461812757366</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.33134828063586</v>
+        <v>25.3313482806359</v>
       </c>
       <c r="L21">
-        <v>106.3436897049285</v>
+        <v>106.3436897049284</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1178,31 +1178,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D22">
-        <v>9.468922162504983</v>
+        <v>9.468922162504803</v>
       </c>
       <c r="E22">
-        <v>31.36513051632068</v>
+        <v>31.36513051632071</v>
       </c>
       <c r="F22">
-        <v>53.45079195834529</v>
+        <v>53.4507919583444</v>
       </c>
       <c r="G22">
-        <v>44.43428509664868</v>
+        <v>44.4342850966479</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.30461812757362</v>
+        <v>22.30461812757366</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.33134828063586</v>
+        <v>25.3313482806359</v>
       </c>
       <c r="L22">
-        <v>106.3436897049285</v>
+        <v>106.3436897049284</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1216,31 +1216,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D23">
-        <v>9.468922162504983</v>
+        <v>9.468922162504803</v>
       </c>
       <c r="E23">
-        <v>31.36513051632068</v>
+        <v>31.36513051632071</v>
       </c>
       <c r="F23">
-        <v>53.45079195834529</v>
+        <v>53.4507919583444</v>
       </c>
       <c r="G23">
-        <v>44.43428509664868</v>
+        <v>44.4342850966479</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.30461812757362</v>
+        <v>22.30461812757366</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.33134828063586</v>
+        <v>25.3313482806359</v>
       </c>
       <c r="L23">
-        <v>106.3436897049285</v>
+        <v>106.3436897049284</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1254,31 +1254,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D24">
-        <v>9.468922162504983</v>
+        <v>9.468922162504803</v>
       </c>
       <c r="E24">
-        <v>31.36513051632068</v>
+        <v>31.36513051632071</v>
       </c>
       <c r="F24">
-        <v>53.45079195834529</v>
+        <v>53.4507919583444</v>
       </c>
       <c r="G24">
-        <v>44.43428509664868</v>
+        <v>44.4342850966479</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22.30461812757362</v>
+        <v>22.30461812757366</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.33134828063586</v>
+        <v>25.3313482806359</v>
       </c>
       <c r="L24">
-        <v>106.3436897049285</v>
+        <v>106.3436897049284</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1292,31 +1292,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D25">
-        <v>9.468922162504983</v>
+        <v>9.468922162504803</v>
       </c>
       <c r="E25">
-        <v>31.36513051632068</v>
+        <v>31.36513051632071</v>
       </c>
       <c r="F25">
-        <v>53.45079195834529</v>
+        <v>53.4507919583444</v>
       </c>
       <c r="G25">
-        <v>44.43428509664868</v>
+        <v>44.4342850966479</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.30461812757362</v>
+        <v>22.30461812757366</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>25.33134828063586</v>
+        <v>25.3313482806359</v>
       </c>
       <c r="L25">
-        <v>106.3436897049285</v>
+        <v>106.3436897049284</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.031799448500494</v>
+        <v>5.031799448500356</v>
       </c>
       <c r="D2">
-        <v>10.0578643334595</v>
+        <v>10.05786433345951</v>
       </c>
       <c r="E2">
-        <v>32.72293297910959</v>
+        <v>32.72293297910954</v>
       </c>
       <c r="F2">
-        <v>57.56430793195416</v>
+        <v>57.56430793195359</v>
       </c>
       <c r="G2">
-        <v>47.77792197636562</v>
+        <v>47.77792197636516</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.43183047785292</v>
+        <v>23.43183047785286</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>26.35884978542092</v>
+        <v>26.35884978542088</v>
       </c>
       <c r="L2">
-        <v>110.7103508432306</v>
+        <v>110.7103508432304</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.940283519610514</v>
+        <v>3.940283519610398</v>
       </c>
       <c r="D3">
-        <v>8.513824879438001</v>
+        <v>8.513824879437927</v>
       </c>
       <c r="E3">
-        <v>29.07559009625018</v>
+        <v>29.0755900962501</v>
       </c>
       <c r="F3">
-        <v>46.92004356634551</v>
+        <v>46.92004356634522</v>
       </c>
       <c r="G3">
-        <v>39.10633963865527</v>
+        <v>39.10633963865506</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.45618094570191</v>
+        <v>20.45618094570184</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>23.57860395370075</v>
+        <v>23.57860395370071</v>
       </c>
       <c r="L3">
-        <v>98.88556265591491</v>
+        <v>98.88556265591477</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.408677026279825</v>
+        <v>3.408677026279456</v>
       </c>
       <c r="D4">
-        <v>7.734108774169584</v>
+        <v>7.734108774169604</v>
       </c>
       <c r="E4">
-        <v>27.11793136622652</v>
+        <v>27.11793136622645</v>
       </c>
       <c r="F4">
-        <v>41.74839511214793</v>
+        <v>41.7483951121482</v>
       </c>
       <c r="G4">
-        <v>34.86310372707494</v>
+        <v>34.86310372707522</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.92191446126791</v>
+        <v>18.92191446126782</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.06264540315791</v>
+        <v>22.06264540315788</v>
       </c>
       <c r="L4">
-        <v>92.43125647603233</v>
+        <v>92.43125647603222</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.210002161667981</v>
+        <v>3.210002161667987</v>
       </c>
       <c r="D5">
-        <v>7.437160658568816</v>
+        <v>7.437160658568617</v>
       </c>
       <c r="E5">
-        <v>26.34964590101073</v>
+        <v>26.34964590101074</v>
       </c>
       <c r="F5">
-        <v>39.82537719064542</v>
+        <v>39.82537719064526</v>
       </c>
       <c r="G5">
-        <v>33.27773573179657</v>
+        <v>33.27773573179637</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.33022837813007</v>
+        <v>18.33022837813005</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.46391137720047</v>
+        <v>21.4639113772005</v>
       </c>
       <c r="L5">
-        <v>89.88201354090918</v>
+        <v>89.88201354090917</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.177836900573706</v>
+        <v>3.177836900573826</v>
       </c>
       <c r="D6">
-        <v>7.388774487183392</v>
+        <v>7.388774487183445</v>
       </c>
       <c r="E6">
-        <v>26.22321425283207</v>
+        <v>26.22321425283214</v>
       </c>
       <c r="F6">
-        <v>39.51478976443372</v>
+        <v>39.51478976443324</v>
       </c>
       <c r="G6">
-        <v>33.02121210878936</v>
+        <v>33.02121210878901</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.23338792028637</v>
+        <v>18.23338792028649</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.36519239578491</v>
+        <v>21.36519239578495</v>
       </c>
       <c r="L6">
-        <v>89.46170915119336</v>
+        <v>89.46170915119342</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.40593757097098</v>
+        <v>3.405937570970965</v>
       </c>
       <c r="D7">
-        <v>7.73003607511318</v>
+        <v>7.730036075113325</v>
       </c>
       <c r="E7">
-        <v>27.10748171257445</v>
+        <v>27.10748171257433</v>
       </c>
       <c r="F7">
-        <v>41.72183139418658</v>
+        <v>41.72183139418631</v>
       </c>
       <c r="G7">
-        <v>34.84123616742358</v>
+        <v>34.84123616742345</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.91382899534815</v>
+        <v>18.91382899534806</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.05451544300474</v>
+        <v>22.05451544300465</v>
       </c>
       <c r="L7">
-        <v>92.39664076145185</v>
+        <v>92.39664076145148</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -646,31 +646,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D8">
-        <v>9.468922162504803</v>
+        <v>9.468922162504983</v>
       </c>
       <c r="E8">
-        <v>31.36513051632071</v>
+        <v>31.36513051632068</v>
       </c>
       <c r="F8">
-        <v>53.4507919583444</v>
+        <v>53.45079195834529</v>
       </c>
       <c r="G8">
-        <v>44.4342850966479</v>
+        <v>44.43428509664868</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.30461812757366</v>
+        <v>22.30461812757362</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>25.3313482806359</v>
+        <v>25.33134828063586</v>
       </c>
       <c r="L8">
-        <v>106.3436897049284</v>
+        <v>106.3436897049285</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -684,31 +684,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D9">
-        <v>9.468922162504803</v>
+        <v>9.468922162504983</v>
       </c>
       <c r="E9">
-        <v>31.36513051632071</v>
+        <v>31.36513051632068</v>
       </c>
       <c r="F9">
-        <v>53.4507919583444</v>
+        <v>53.45079195834529</v>
       </c>
       <c r="G9">
-        <v>44.4342850966479</v>
+        <v>44.43428509664868</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.30461812757366</v>
+        <v>22.30461812757362</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>25.3313482806359</v>
+        <v>25.33134828063586</v>
       </c>
       <c r="L9">
-        <v>106.3436897049284</v>
+        <v>106.3436897049285</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -722,31 +722,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D10">
-        <v>9.468922162504803</v>
+        <v>9.468922162504983</v>
       </c>
       <c r="E10">
-        <v>31.36513051632071</v>
+        <v>31.36513051632068</v>
       </c>
       <c r="F10">
-        <v>53.4507919583444</v>
+        <v>53.45079195834529</v>
       </c>
       <c r="G10">
-        <v>44.4342850966479</v>
+        <v>44.43428509664868</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.30461812757366</v>
+        <v>22.30461812757362</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.3313482806359</v>
+        <v>25.33134828063586</v>
       </c>
       <c r="L10">
-        <v>106.3436897049284</v>
+        <v>106.3436897049285</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -760,31 +760,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D11">
-        <v>9.468922162504803</v>
+        <v>9.468922162504983</v>
       </c>
       <c r="E11">
-        <v>31.36513051632071</v>
+        <v>31.36513051632068</v>
       </c>
       <c r="F11">
-        <v>53.4507919583444</v>
+        <v>53.45079195834529</v>
       </c>
       <c r="G11">
-        <v>44.4342850966479</v>
+        <v>44.43428509664868</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.30461812757366</v>
+        <v>22.30461812757362</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.3313482806359</v>
+        <v>25.33134828063586</v>
       </c>
       <c r="L11">
-        <v>106.3436897049284</v>
+        <v>106.3436897049285</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -798,31 +798,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D12">
-        <v>9.468922162504803</v>
+        <v>9.468922162504983</v>
       </c>
       <c r="E12">
-        <v>31.36513051632071</v>
+        <v>31.36513051632068</v>
       </c>
       <c r="F12">
-        <v>53.4507919583444</v>
+        <v>53.45079195834529</v>
       </c>
       <c r="G12">
-        <v>44.4342850966479</v>
+        <v>44.43428509664868</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.30461812757366</v>
+        <v>22.30461812757362</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.3313482806359</v>
+        <v>25.33134828063586</v>
       </c>
       <c r="L12">
-        <v>106.3436897049284</v>
+        <v>106.3436897049285</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -836,31 +836,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D13">
-        <v>9.468922162504803</v>
+        <v>9.468922162504983</v>
       </c>
       <c r="E13">
-        <v>31.36513051632071</v>
+        <v>31.36513051632068</v>
       </c>
       <c r="F13">
-        <v>53.4507919583444</v>
+        <v>53.45079195834529</v>
       </c>
       <c r="G13">
-        <v>44.4342850966479</v>
+        <v>44.43428509664868</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.30461812757366</v>
+        <v>22.30461812757362</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.3313482806359</v>
+        <v>25.33134828063586</v>
       </c>
       <c r="L13">
-        <v>106.3436897049284</v>
+        <v>106.3436897049285</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -874,31 +874,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D14">
-        <v>9.468922162504803</v>
+        <v>9.468922162504983</v>
       </c>
       <c r="E14">
-        <v>31.36513051632071</v>
+        <v>31.36513051632068</v>
       </c>
       <c r="F14">
-        <v>53.4507919583444</v>
+        <v>53.45079195834529</v>
       </c>
       <c r="G14">
-        <v>44.4342850966479</v>
+        <v>44.43428509664868</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.30461812757366</v>
+        <v>22.30461812757362</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.3313482806359</v>
+        <v>25.33134828063586</v>
       </c>
       <c r="L14">
-        <v>106.3436897049284</v>
+        <v>106.3436897049285</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -912,31 +912,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D15">
-        <v>9.468922162504803</v>
+        <v>9.468922162504983</v>
       </c>
       <c r="E15">
-        <v>31.36513051632071</v>
+        <v>31.36513051632068</v>
       </c>
       <c r="F15">
-        <v>53.4507919583444</v>
+        <v>53.45079195834529</v>
       </c>
       <c r="G15">
-        <v>44.4342850966479</v>
+        <v>44.43428509664868</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22.30461812757366</v>
+        <v>22.30461812757362</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.3313482806359</v>
+        <v>25.33134828063586</v>
       </c>
       <c r="L15">
-        <v>106.3436897049284</v>
+        <v>106.3436897049285</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -950,31 +950,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D16">
-        <v>9.468922162504803</v>
+        <v>9.468922162504983</v>
       </c>
       <c r="E16">
-        <v>31.36513051632071</v>
+        <v>31.36513051632068</v>
       </c>
       <c r="F16">
-        <v>53.4507919583444</v>
+        <v>53.45079195834529</v>
       </c>
       <c r="G16">
-        <v>44.4342850966479</v>
+        <v>44.43428509664868</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.30461812757366</v>
+        <v>22.30461812757362</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.3313482806359</v>
+        <v>25.33134828063586</v>
       </c>
       <c r="L16">
-        <v>106.3436897049284</v>
+        <v>106.3436897049285</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -988,31 +988,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D17">
-        <v>9.468922162504803</v>
+        <v>9.468922162504983</v>
       </c>
       <c r="E17">
-        <v>31.36513051632071</v>
+        <v>31.36513051632068</v>
       </c>
       <c r="F17">
-        <v>53.4507919583444</v>
+        <v>53.45079195834529</v>
       </c>
       <c r="G17">
-        <v>44.4342850966479</v>
+        <v>44.43428509664868</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22.30461812757366</v>
+        <v>22.30461812757362</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.3313482806359</v>
+        <v>25.33134828063586</v>
       </c>
       <c r="L17">
-        <v>106.3436897049284</v>
+        <v>106.3436897049285</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1026,31 +1026,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D18">
-        <v>9.468922162504803</v>
+        <v>9.468922162504983</v>
       </c>
       <c r="E18">
-        <v>31.36513051632071</v>
+        <v>31.36513051632068</v>
       </c>
       <c r="F18">
-        <v>53.4507919583444</v>
+        <v>53.45079195834529</v>
       </c>
       <c r="G18">
-        <v>44.4342850966479</v>
+        <v>44.43428509664868</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.30461812757366</v>
+        <v>22.30461812757362</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>25.3313482806359</v>
+        <v>25.33134828063586</v>
       </c>
       <c r="L18">
-        <v>106.3436897049284</v>
+        <v>106.3436897049285</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,31 +1064,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D19">
-        <v>9.468922162504803</v>
+        <v>9.468922162504983</v>
       </c>
       <c r="E19">
-        <v>31.36513051632071</v>
+        <v>31.36513051632068</v>
       </c>
       <c r="F19">
-        <v>53.4507919583444</v>
+        <v>53.45079195834529</v>
       </c>
       <c r="G19">
-        <v>44.4342850966479</v>
+        <v>44.43428509664868</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.30461812757366</v>
+        <v>22.30461812757362</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>25.3313482806359</v>
+        <v>25.33134828063586</v>
       </c>
       <c r="L19">
-        <v>106.3436897049284</v>
+        <v>106.3436897049285</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1102,31 +1102,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D20">
-        <v>9.468922162504803</v>
+        <v>9.468922162504983</v>
       </c>
       <c r="E20">
-        <v>31.36513051632071</v>
+        <v>31.36513051632068</v>
       </c>
       <c r="F20">
-        <v>53.4507919583444</v>
+        <v>53.45079195834529</v>
       </c>
       <c r="G20">
-        <v>44.4342850966479</v>
+        <v>44.43428509664868</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>22.30461812757366</v>
+        <v>22.30461812757362</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.3313482806359</v>
+        <v>25.33134828063586</v>
       </c>
       <c r="L20">
-        <v>106.3436897049284</v>
+        <v>106.3436897049285</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1140,31 +1140,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D21">
-        <v>9.468922162504803</v>
+        <v>9.468922162504983</v>
       </c>
       <c r="E21">
-        <v>31.36513051632071</v>
+        <v>31.36513051632068</v>
       </c>
       <c r="F21">
-        <v>53.4507919583444</v>
+        <v>53.45079195834529</v>
       </c>
       <c r="G21">
-        <v>44.4342850966479</v>
+        <v>44.43428509664868</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.30461812757366</v>
+        <v>22.30461812757362</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.3313482806359</v>
+        <v>25.33134828063586</v>
       </c>
       <c r="L21">
-        <v>106.3436897049284</v>
+        <v>106.3436897049285</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1178,31 +1178,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D22">
-        <v>9.468922162504803</v>
+        <v>9.468922162504983</v>
       </c>
       <c r="E22">
-        <v>31.36513051632071</v>
+        <v>31.36513051632068</v>
       </c>
       <c r="F22">
-        <v>53.4507919583444</v>
+        <v>53.45079195834529</v>
       </c>
       <c r="G22">
-        <v>44.4342850966479</v>
+        <v>44.43428509664868</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.30461812757366</v>
+        <v>22.30461812757362</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.3313482806359</v>
+        <v>25.33134828063586</v>
       </c>
       <c r="L22">
-        <v>106.3436897049284</v>
+        <v>106.3436897049285</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1216,31 +1216,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D23">
-        <v>9.468922162504803</v>
+        <v>9.468922162504983</v>
       </c>
       <c r="E23">
-        <v>31.36513051632071</v>
+        <v>31.36513051632068</v>
       </c>
       <c r="F23">
-        <v>53.4507919583444</v>
+        <v>53.45079195834529</v>
       </c>
       <c r="G23">
-        <v>44.4342850966479</v>
+        <v>44.43428509664868</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.30461812757366</v>
+        <v>22.30461812757362</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.3313482806359</v>
+        <v>25.33134828063586</v>
       </c>
       <c r="L23">
-        <v>106.3436897049284</v>
+        <v>106.3436897049285</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1254,31 +1254,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D24">
-        <v>9.468922162504803</v>
+        <v>9.468922162504983</v>
       </c>
       <c r="E24">
-        <v>31.36513051632071</v>
+        <v>31.36513051632068</v>
       </c>
       <c r="F24">
-        <v>53.4507919583444</v>
+        <v>53.45079195834529</v>
       </c>
       <c r="G24">
-        <v>44.4342850966479</v>
+        <v>44.43428509664868</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22.30461812757366</v>
+        <v>22.30461812757362</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.3313482806359</v>
+        <v>25.33134828063586</v>
       </c>
       <c r="L24">
-        <v>106.3436897049284</v>
+        <v>106.3436897049285</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1292,31 +1292,31 @@
         <v>4.609669885063057</v>
       </c>
       <c r="D25">
-        <v>9.468922162504803</v>
+        <v>9.468922162504983</v>
       </c>
       <c r="E25">
-        <v>31.36513051632071</v>
+        <v>31.36513051632068</v>
       </c>
       <c r="F25">
-        <v>53.4507919583444</v>
+        <v>53.45079195834529</v>
       </c>
       <c r="G25">
-        <v>44.4342850966479</v>
+        <v>44.43428509664868</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.30461812757366</v>
+        <v>22.30461812757362</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>25.3313482806359</v>
+        <v>25.33134828063586</v>
       </c>
       <c r="L25">
-        <v>106.3436897049284</v>
+        <v>106.3436897049285</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.031799448500356</v>
+        <v>5.029470582932763</v>
       </c>
       <c r="D2">
-        <v>10.05786433345951</v>
+        <v>10.03812899070179</v>
       </c>
       <c r="E2">
-        <v>32.72293297910954</v>
+        <v>32.7145823375553</v>
       </c>
       <c r="F2">
-        <v>57.56430793195359</v>
+        <v>57.46750656586978</v>
       </c>
       <c r="G2">
-        <v>47.77792197636516</v>
+        <v>47.81152057534639</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>46.72895717372121</v>
       </c>
       <c r="I2">
-        <v>23.43183047785286</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>23.42648038605929</v>
       </c>
       <c r="K2">
-        <v>26.35884978542088</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>110.7103508432304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>26.35238068117646</v>
+      </c>
+      <c r="M2">
+        <v>110.6788200543449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.940283519610398</v>
+        <v>3.939770262203222</v>
       </c>
       <c r="D3">
-        <v>8.513824879437927</v>
+        <v>8.499618439568788</v>
       </c>
       <c r="E3">
-        <v>29.0755900962501</v>
+        <v>29.07154324230524</v>
       </c>
       <c r="F3">
-        <v>46.92004356634522</v>
+        <v>46.85493884220283</v>
       </c>
       <c r="G3">
-        <v>39.10633963865506</v>
+        <v>39.14510756820466</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>38.17238715673457</v>
       </c>
       <c r="I3">
-        <v>20.45618094570184</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>20.45531305001161</v>
       </c>
       <c r="K3">
-        <v>23.57860395370071</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>98.88556265591477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>23.57542791926825</v>
+      </c>
+      <c r="M3">
+        <v>98.87045074956161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.408677026279456</v>
+        <v>3.408574228748362</v>
       </c>
       <c r="D4">
-        <v>7.734108774169604</v>
+        <v>7.721983819703198</v>
       </c>
       <c r="E4">
-        <v>27.11793136622645</v>
+        <v>27.11496099142621</v>
       </c>
       <c r="F4">
-        <v>41.7483951121482</v>
+        <v>41.69416497507155</v>
       </c>
       <c r="G4">
-        <v>34.86310372707522</v>
+        <v>34.90072178497312</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>34.0139896525807</v>
       </c>
       <c r="I4">
-        <v>18.92191446126782</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>18.92214858304485</v>
       </c>
       <c r="K4">
-        <v>22.06264540315788</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>92.43125647603222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>22.06034185808347</v>
+      </c>
+      <c r="M4">
+        <v>92.42084869115365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.210002161667987</v>
+        <v>3.210004101700938</v>
       </c>
       <c r="D5">
-        <v>7.437160658568617</v>
+        <v>7.425750486768089</v>
       </c>
       <c r="E5">
-        <v>26.34964590101074</v>
+        <v>26.34698136747388</v>
       </c>
       <c r="F5">
-        <v>39.82537719064526</v>
+        <v>39.77473069358696</v>
       </c>
       <c r="G5">
-        <v>33.27773573179637</v>
+        <v>33.3145534955757</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>32.46804786937366</v>
       </c>
       <c r="I5">
-        <v>18.33022837813005</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>18.33076554757371</v>
       </c>
       <c r="K5">
-        <v>21.4639113772005</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>89.88201354090917</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>21.46186237848174</v>
+      </c>
+      <c r="M5">
+        <v>89.87302691642883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.177836900573826</v>
+        <v>3.177853708800554</v>
       </c>
       <c r="D6">
-        <v>7.388774487183445</v>
+        <v>7.377477326768298</v>
       </c>
       <c r="E6">
-        <v>26.22321425283214</v>
+        <v>26.22059525542338</v>
       </c>
       <c r="F6">
-        <v>39.51478976443324</v>
+        <v>39.46470246805878</v>
       </c>
       <c r="G6">
-        <v>33.02121210878901</v>
+        <v>33.05788471917371</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>32.2183887424583</v>
       </c>
       <c r="I6">
-        <v>18.23338792028649</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>18.23396950797732</v>
       </c>
       <c r="K6">
-        <v>21.36519239578495</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>89.46170915119342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>21.36318159525295</v>
+      </c>
+      <c r="M6">
+        <v>89.45293813783731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.405937570970965</v>
+        <v>3.405836376274042</v>
       </c>
       <c r="D7">
-        <v>7.730036075113325</v>
+        <v>7.71792118244305</v>
       </c>
       <c r="E7">
-        <v>27.10748171257433</v>
+        <v>27.10451586073798</v>
       </c>
       <c r="F7">
-        <v>41.72183139418631</v>
+        <v>41.66765225530622</v>
       </c>
       <c r="G7">
-        <v>34.84123616742345</v>
+        <v>34.87884438314676</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>33.99263301330358</v>
       </c>
       <c r="I7">
-        <v>18.91382899534806</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>18.91406764894926</v>
       </c>
       <c r="K7">
-        <v>22.05451544300465</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>92.39664076145148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>22.05221563777234</v>
+      </c>
+      <c r="M7">
+        <v>92.38625367114619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.609669885063057</v>
+        <v>4.608255318273052</v>
       </c>
       <c r="D8">
-        <v>9.468922162504983</v>
+        <v>9.451597743954133</v>
       </c>
       <c r="E8">
-        <v>31.36513051632068</v>
+        <v>31.35891699143255</v>
       </c>
       <c r="F8">
-        <v>53.45079195834529</v>
+        <v>53.36827482141726</v>
       </c>
       <c r="G8">
-        <v>44.43428509664868</v>
+        <v>44.47152684917545</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>43.42328314290842</v>
       </c>
       <c r="I8">
-        <v>22.30461812757362</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>22.30149081175282</v>
       </c>
       <c r="K8">
-        <v>25.33134828063586</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>106.3436897049285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>25.32648794849789</v>
+      </c>
+      <c r="M8">
+        <v>106.3199874750173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.609669885063057</v>
+        <v>4.608255318273052</v>
       </c>
       <c r="D9">
-        <v>9.468922162504983</v>
+        <v>9.451597743954133</v>
       </c>
       <c r="E9">
-        <v>31.36513051632068</v>
+        <v>31.35891699143255</v>
       </c>
       <c r="F9">
-        <v>53.45079195834529</v>
+        <v>53.36827482141726</v>
       </c>
       <c r="G9">
-        <v>44.43428509664868</v>
+        <v>44.47152684917545</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>43.42328314290842</v>
       </c>
       <c r="I9">
-        <v>22.30461812757362</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>22.30149081175282</v>
       </c>
       <c r="K9">
-        <v>25.33134828063586</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>106.3436897049285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>25.32648794849789</v>
+      </c>
+      <c r="M9">
+        <v>106.3199874750173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.609669885063057</v>
+        <v>4.608255318273052</v>
       </c>
       <c r="D10">
-        <v>9.468922162504983</v>
+        <v>9.451597743954133</v>
       </c>
       <c r="E10">
-        <v>31.36513051632068</v>
+        <v>31.35891699143255</v>
       </c>
       <c r="F10">
-        <v>53.45079195834529</v>
+        <v>53.36827482141726</v>
       </c>
       <c r="G10">
-        <v>44.43428509664868</v>
+        <v>44.47152684917545</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>43.42328314290842</v>
       </c>
       <c r="I10">
-        <v>22.30461812757362</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>22.30149081175282</v>
       </c>
       <c r="K10">
-        <v>25.33134828063586</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>106.3436897049285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>25.32648794849789</v>
+      </c>
+      <c r="M10">
+        <v>106.3199874750173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.609669885063057</v>
+        <v>4.608255318273052</v>
       </c>
       <c r="D11">
-        <v>9.468922162504983</v>
+        <v>9.451597743954133</v>
       </c>
       <c r="E11">
-        <v>31.36513051632068</v>
+        <v>31.35891699143255</v>
       </c>
       <c r="F11">
-        <v>53.45079195834529</v>
+        <v>53.36827482141726</v>
       </c>
       <c r="G11">
-        <v>44.43428509664868</v>
+        <v>44.47152684917545</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>43.42328314290842</v>
       </c>
       <c r="I11">
-        <v>22.30461812757362</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>22.30149081175282</v>
       </c>
       <c r="K11">
-        <v>25.33134828063586</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>106.3436897049285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>25.32648794849789</v>
+      </c>
+      <c r="M11">
+        <v>106.3199874750173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.609669885063057</v>
+        <v>4.608255318273052</v>
       </c>
       <c r="D12">
-        <v>9.468922162504983</v>
+        <v>9.451597743954133</v>
       </c>
       <c r="E12">
-        <v>31.36513051632068</v>
+        <v>31.35891699143255</v>
       </c>
       <c r="F12">
-        <v>53.45079195834529</v>
+        <v>53.36827482141726</v>
       </c>
       <c r="G12">
-        <v>44.43428509664868</v>
+        <v>44.47152684917545</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>43.42328314290842</v>
       </c>
       <c r="I12">
-        <v>22.30461812757362</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>22.30149081175282</v>
       </c>
       <c r="K12">
-        <v>25.33134828063586</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>106.3436897049285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>25.32648794849789</v>
+      </c>
+      <c r="M12">
+        <v>106.3199874750173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.609669885063057</v>
+        <v>4.608255318273052</v>
       </c>
       <c r="D13">
-        <v>9.468922162504983</v>
+        <v>9.451597743954133</v>
       </c>
       <c r="E13">
-        <v>31.36513051632068</v>
+        <v>31.35891699143255</v>
       </c>
       <c r="F13">
-        <v>53.45079195834529</v>
+        <v>53.36827482141726</v>
       </c>
       <c r="G13">
-        <v>44.43428509664868</v>
+        <v>44.47152684917545</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>43.42328314290842</v>
       </c>
       <c r="I13">
-        <v>22.30461812757362</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>22.30149081175282</v>
       </c>
       <c r="K13">
-        <v>25.33134828063586</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>106.3436897049285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>25.32648794849789</v>
+      </c>
+      <c r="M13">
+        <v>106.3199874750173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.609669885063057</v>
+        <v>4.608255318273052</v>
       </c>
       <c r="D14">
-        <v>9.468922162504983</v>
+        <v>9.451597743954133</v>
       </c>
       <c r="E14">
-        <v>31.36513051632068</v>
+        <v>31.35891699143255</v>
       </c>
       <c r="F14">
-        <v>53.45079195834529</v>
+        <v>53.36827482141726</v>
       </c>
       <c r="G14">
-        <v>44.43428509664868</v>
+        <v>44.47152684917545</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>43.42328314290842</v>
       </c>
       <c r="I14">
-        <v>22.30461812757362</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>22.30149081175282</v>
       </c>
       <c r="K14">
-        <v>25.33134828063586</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>106.3436897049285</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>25.32648794849789</v>
+      </c>
+      <c r="M14">
+        <v>106.3199874750173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.609669885063057</v>
+        <v>4.608255318273052</v>
       </c>
       <c r="D15">
-        <v>9.468922162504983</v>
+        <v>9.451597743954133</v>
       </c>
       <c r="E15">
-        <v>31.36513051632068</v>
+        <v>31.35891699143255</v>
       </c>
       <c r="F15">
-        <v>53.45079195834529</v>
+        <v>53.36827482141726</v>
       </c>
       <c r="G15">
-        <v>44.43428509664868</v>
+        <v>44.47152684917545</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>43.42328314290842</v>
       </c>
       <c r="I15">
-        <v>22.30461812757362</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>22.30149081175282</v>
       </c>
       <c r="K15">
-        <v>25.33134828063586</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>106.3436897049285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>25.32648794849789</v>
+      </c>
+      <c r="M15">
+        <v>106.3199874750173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.609669885063057</v>
+        <v>4.608255318273052</v>
       </c>
       <c r="D16">
-        <v>9.468922162504983</v>
+        <v>9.451597743954133</v>
       </c>
       <c r="E16">
-        <v>31.36513051632068</v>
+        <v>31.35891699143255</v>
       </c>
       <c r="F16">
-        <v>53.45079195834529</v>
+        <v>53.36827482141726</v>
       </c>
       <c r="G16">
-        <v>44.43428509664868</v>
+        <v>44.47152684917545</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>43.42328314290842</v>
       </c>
       <c r="I16">
-        <v>22.30461812757362</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>22.30149081175282</v>
       </c>
       <c r="K16">
-        <v>25.33134828063586</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>106.3436897049285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>25.32648794849789</v>
+      </c>
+      <c r="M16">
+        <v>106.3199874750173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.609669885063057</v>
+        <v>4.608255318273052</v>
       </c>
       <c r="D17">
-        <v>9.468922162504983</v>
+        <v>9.451597743954133</v>
       </c>
       <c r="E17">
-        <v>31.36513051632068</v>
+        <v>31.35891699143255</v>
       </c>
       <c r="F17">
-        <v>53.45079195834529</v>
+        <v>53.36827482141726</v>
       </c>
       <c r="G17">
-        <v>44.43428509664868</v>
+        <v>44.47152684917545</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>43.42328314290842</v>
       </c>
       <c r="I17">
-        <v>22.30461812757362</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>22.30149081175282</v>
       </c>
       <c r="K17">
-        <v>25.33134828063586</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>106.3436897049285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>25.32648794849789</v>
+      </c>
+      <c r="M17">
+        <v>106.3199874750173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.609669885063057</v>
+        <v>4.608255318273052</v>
       </c>
       <c r="D18">
-        <v>9.468922162504983</v>
+        <v>9.451597743954133</v>
       </c>
       <c r="E18">
-        <v>31.36513051632068</v>
+        <v>31.35891699143255</v>
       </c>
       <c r="F18">
-        <v>53.45079195834529</v>
+        <v>53.36827482141726</v>
       </c>
       <c r="G18">
-        <v>44.43428509664868</v>
+        <v>44.47152684917545</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>43.42328314290842</v>
       </c>
       <c r="I18">
-        <v>22.30461812757362</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>22.30149081175282</v>
       </c>
       <c r="K18">
-        <v>25.33134828063586</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>106.3436897049285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>25.32648794849789</v>
+      </c>
+      <c r="M18">
+        <v>106.3199874750173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.609669885063057</v>
+        <v>4.608255318273052</v>
       </c>
       <c r="D19">
-        <v>9.468922162504983</v>
+        <v>9.451597743954133</v>
       </c>
       <c r="E19">
-        <v>31.36513051632068</v>
+        <v>31.35891699143255</v>
       </c>
       <c r="F19">
-        <v>53.45079195834529</v>
+        <v>53.36827482141726</v>
       </c>
       <c r="G19">
-        <v>44.43428509664868</v>
+        <v>44.47152684917545</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>43.42328314290842</v>
       </c>
       <c r="I19">
-        <v>22.30461812757362</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>22.30149081175282</v>
       </c>
       <c r="K19">
-        <v>25.33134828063586</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>106.3436897049285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>25.32648794849789</v>
+      </c>
+      <c r="M19">
+        <v>106.3199874750173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.609669885063057</v>
+        <v>4.608255318273052</v>
       </c>
       <c r="D20">
-        <v>9.468922162504983</v>
+        <v>9.451597743954133</v>
       </c>
       <c r="E20">
-        <v>31.36513051632068</v>
+        <v>31.35891699143255</v>
       </c>
       <c r="F20">
-        <v>53.45079195834529</v>
+        <v>53.36827482141726</v>
       </c>
       <c r="G20">
-        <v>44.43428509664868</v>
+        <v>44.47152684917545</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>43.42328314290842</v>
       </c>
       <c r="I20">
-        <v>22.30461812757362</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>22.30149081175282</v>
       </c>
       <c r="K20">
-        <v>25.33134828063586</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>106.3436897049285</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>25.32648794849789</v>
+      </c>
+      <c r="M20">
+        <v>106.3199874750173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.609669885063057</v>
+        <v>4.608255318273052</v>
       </c>
       <c r="D21">
-        <v>9.468922162504983</v>
+        <v>9.451597743954133</v>
       </c>
       <c r="E21">
-        <v>31.36513051632068</v>
+        <v>31.35891699143255</v>
       </c>
       <c r="F21">
-        <v>53.45079195834529</v>
+        <v>53.36827482141726</v>
       </c>
       <c r="G21">
-        <v>44.43428509664868</v>
+        <v>44.47152684917545</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>43.42328314290842</v>
       </c>
       <c r="I21">
-        <v>22.30461812757362</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>22.30149081175282</v>
       </c>
       <c r="K21">
-        <v>25.33134828063586</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>106.3436897049285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>25.32648794849789</v>
+      </c>
+      <c r="M21">
+        <v>106.3199874750173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.609669885063057</v>
+        <v>4.608255318273052</v>
       </c>
       <c r="D22">
-        <v>9.468922162504983</v>
+        <v>9.451597743954133</v>
       </c>
       <c r="E22">
-        <v>31.36513051632068</v>
+        <v>31.35891699143255</v>
       </c>
       <c r="F22">
-        <v>53.45079195834529</v>
+        <v>53.36827482141726</v>
       </c>
       <c r="G22">
-        <v>44.43428509664868</v>
+        <v>44.47152684917545</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>43.42328314290842</v>
       </c>
       <c r="I22">
-        <v>22.30461812757362</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>22.30149081175282</v>
       </c>
       <c r="K22">
-        <v>25.33134828063586</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>106.3436897049285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>25.32648794849789</v>
+      </c>
+      <c r="M22">
+        <v>106.3199874750173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.609669885063057</v>
+        <v>4.608255318273052</v>
       </c>
       <c r="D23">
-        <v>9.468922162504983</v>
+        <v>9.451597743954133</v>
       </c>
       <c r="E23">
-        <v>31.36513051632068</v>
+        <v>31.35891699143255</v>
       </c>
       <c r="F23">
-        <v>53.45079195834529</v>
+        <v>53.36827482141726</v>
       </c>
       <c r="G23">
-        <v>44.43428509664868</v>
+        <v>44.47152684917545</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>43.42328314290842</v>
       </c>
       <c r="I23">
-        <v>22.30461812757362</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>22.30149081175282</v>
       </c>
       <c r="K23">
-        <v>25.33134828063586</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>106.3436897049285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>25.32648794849789</v>
+      </c>
+      <c r="M23">
+        <v>106.3199874750173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.609669885063057</v>
+        <v>4.608255318273052</v>
       </c>
       <c r="D24">
-        <v>9.468922162504983</v>
+        <v>9.451597743954133</v>
       </c>
       <c r="E24">
-        <v>31.36513051632068</v>
+        <v>31.35891699143255</v>
       </c>
       <c r="F24">
-        <v>53.45079195834529</v>
+        <v>53.36827482141726</v>
       </c>
       <c r="G24">
-        <v>44.43428509664868</v>
+        <v>44.47152684917545</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>43.42328314290842</v>
       </c>
       <c r="I24">
-        <v>22.30461812757362</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>22.30149081175282</v>
       </c>
       <c r="K24">
-        <v>25.33134828063586</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>106.3436897049285</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>25.32648794849789</v>
+      </c>
+      <c r="M24">
+        <v>106.3199874750173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.609669885063057</v>
+        <v>4.608255318273052</v>
       </c>
       <c r="D25">
-        <v>9.468922162504983</v>
+        <v>9.451597743954133</v>
       </c>
       <c r="E25">
-        <v>31.36513051632068</v>
+        <v>31.35891699143255</v>
       </c>
       <c r="F25">
-        <v>53.45079195834529</v>
+        <v>53.36827482141726</v>
       </c>
       <c r="G25">
-        <v>44.43428509664868</v>
+        <v>44.47152684917545</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>43.42328314290842</v>
       </c>
       <c r="I25">
-        <v>22.30461812757362</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>22.30149081175282</v>
       </c>
       <c r="K25">
-        <v>25.33134828063586</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>106.3436897049285</v>
+        <v>25.32648794849789</v>
+      </c>
+      <c r="M25">
+        <v>106.3199874750173</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.029470582932763</v>
+        <v>8.529233222788037</v>
       </c>
       <c r="D2">
-        <v>10.03812899070179</v>
+        <v>9.682634292914718</v>
       </c>
       <c r="E2">
-        <v>32.7145823375553</v>
+        <v>6.252361289257475</v>
       </c>
       <c r="F2">
-        <v>57.46750656586978</v>
+        <v>95.21173529345387</v>
       </c>
       <c r="G2">
-        <v>47.81152057534639</v>
+        <v>1.936706405502547</v>
       </c>
       <c r="H2">
-        <v>46.72895717372121</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>23.42648038605929</v>
+        <v>8.461996183386885</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>26.35238068117646</v>
+        <v>4.396077455053153</v>
       </c>
       <c r="M2">
-        <v>110.6788200543449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>25.60720851682376</v>
+      </c>
+      <c r="O2">
+        <v>74.87650877538027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.939770262203222</v>
+        <v>8.194172523149817</v>
       </c>
       <c r="D3">
-        <v>8.499618439568788</v>
+        <v>8.740679837919101</v>
       </c>
       <c r="E3">
-        <v>29.07154324230524</v>
+        <v>6.355528406787359</v>
       </c>
       <c r="F3">
-        <v>46.85493884220283</v>
+        <v>87.9903661548514</v>
       </c>
       <c r="G3">
-        <v>39.14510756820466</v>
+        <v>1.994128561045218</v>
       </c>
       <c r="H3">
-        <v>38.17238715673457</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>20.45531305001161</v>
+        <v>8.279384682042457</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>23.57542791926825</v>
+        <v>4.505454202348489</v>
       </c>
       <c r="M3">
-        <v>98.87045074956161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>24.2256181799734</v>
+      </c>
+      <c r="O3">
+        <v>69.20332626034279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.408574228748362</v>
+        <v>8.016110515868666</v>
       </c>
       <c r="D4">
-        <v>7.721983819703198</v>
+        <v>8.180512336043186</v>
       </c>
       <c r="E4">
-        <v>27.11496099142621</v>
+        <v>6.421340226176318</v>
       </c>
       <c r="F4">
-        <v>41.69416497507155</v>
+        <v>83.84706082519071</v>
       </c>
       <c r="G4">
-        <v>34.90072178497312</v>
+        <v>2.026866572903782</v>
       </c>
       <c r="H4">
-        <v>34.0139896525807</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>18.92214858304485</v>
+        <v>8.191489754695883</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>22.06034185808347</v>
+        <v>4.568627133223678</v>
       </c>
       <c r="M4">
-        <v>92.42084869115365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>23.33595077662922</v>
+      </c>
+      <c r="O4">
+        <v>65.95022404996774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.210004101700938</v>
+        <v>7.948959912134347</v>
       </c>
       <c r="D5">
-        <v>7.425750486768089</v>
+        <v>7.953976853822782</v>
       </c>
       <c r="E5">
-        <v>26.34698136747388</v>
+        <v>6.448839314431579</v>
       </c>
       <c r="F5">
-        <v>39.77473069358696</v>
+        <v>82.20948876098551</v>
       </c>
       <c r="G5">
-        <v>33.3145534955757</v>
+        <v>2.039808930669722</v>
       </c>
       <c r="H5">
-        <v>32.46804786937366</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>18.33076554757371</v>
+        <v>8.160461201856284</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>21.46186237848174</v>
+        <v>4.593761467717378</v>
       </c>
       <c r="M5">
-        <v>89.87302691642883</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>22.96331756195408</v>
+      </c>
+      <c r="O5">
+        <v>64.66490961041882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.177853708800554</v>
+        <v>7.938102599127072</v>
       </c>
       <c r="D6">
-        <v>7.377477326768298</v>
+        <v>7.916404149445097</v>
       </c>
       <c r="E6">
-        <v>26.22059525542338</v>
+        <v>6.453447910901827</v>
       </c>
       <c r="F6">
-        <v>39.46470246805878</v>
+        <v>81.94017813980041</v>
       </c>
       <c r="G6">
-        <v>33.05788471917371</v>
+        <v>2.041939028362214</v>
       </c>
       <c r="H6">
-        <v>32.2183887424583</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>18.23396950797732</v>
+        <v>8.155569353028673</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>21.36318159525295</v>
+        <v>4.597906811569062</v>
       </c>
       <c r="M6">
-        <v>89.45293813783731</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>22.90084339962178</v>
+      </c>
+      <c r="O6">
+        <v>64.45355426200436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.405836376274042</v>
+        <v>8.015184580344842</v>
       </c>
       <c r="D7">
-        <v>7.71792118244305</v>
+        <v>8.17745306516613</v>
       </c>
       <c r="E7">
-        <v>27.10451586073798</v>
+        <v>6.421708272665034</v>
       </c>
       <c r="F7">
-        <v>41.66765225530622</v>
+        <v>83.82479205108294</v>
       </c>
       <c r="G7">
-        <v>34.87884438314676</v>
+        <v>2.027042491799876</v>
       </c>
       <c r="H7">
-        <v>33.99263301330358</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>18.91406764894926</v>
+        <v>8.191053254999503</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>22.05221563777234</v>
+        <v>4.568968165689117</v>
       </c>
       <c r="M7">
-        <v>92.38625367114619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>23.33096569062624</v>
+      </c>
+      <c r="O7">
+        <v>65.93274385609635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.608255318273052</v>
+        <v>8.406784335829993</v>
       </c>
       <c r="D8">
-        <v>9.451597743954133</v>
+        <v>9.351898664843254</v>
       </c>
       <c r="E8">
-        <v>31.35891699143255</v>
+        <v>6.287467183030978</v>
       </c>
       <c r="F8">
-        <v>53.36827482141726</v>
+        <v>92.64411227520716</v>
       </c>
       <c r="G8">
-        <v>44.47152684917545</v>
+        <v>1.957208059233436</v>
       </c>
       <c r="H8">
-        <v>43.42328314290842</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>22.30149081175282</v>
+        <v>8.393017824399729</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>25.32648794849789</v>
+        <v>4.434916560035521</v>
       </c>
       <c r="M8">
-        <v>106.3199874750173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O8">
+        <v>72.85889092023409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.608255318273052</v>
+        <v>9.548835968549945</v>
       </c>
       <c r="D9">
-        <v>9.451597743954133</v>
+        <v>12.08764121985944</v>
       </c>
       <c r="E9">
-        <v>31.35891699143255</v>
+        <v>6.037585256162905</v>
       </c>
       <c r="F9">
-        <v>53.36827482141726</v>
+        <v>115.3663547039353</v>
       </c>
       <c r="G9">
-        <v>44.47152684917545</v>
+        <v>1.776545419200939</v>
       </c>
       <c r="H9">
-        <v>43.42328314290842</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>22.30149081175282</v>
+        <v>9.108745936599782</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>25.32648794849789</v>
+        <v>4.101437047420404</v>
       </c>
       <c r="M9">
-        <v>106.3199874750173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O9">
+        <v>91.16249863377104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.608255318273052</v>
+        <v>9.548835968549945</v>
       </c>
       <c r="D10">
-        <v>9.451597743954133</v>
+        <v>12.08764121985944</v>
       </c>
       <c r="E10">
-        <v>31.35891699143255</v>
+        <v>6.037585256162905</v>
       </c>
       <c r="F10">
-        <v>53.36827482141726</v>
+        <v>115.3663547039353</v>
       </c>
       <c r="G10">
-        <v>44.47152684917545</v>
+        <v>1.776545419200939</v>
       </c>
       <c r="H10">
-        <v>43.42328314290842</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22.30149081175282</v>
+        <v>9.108745936599782</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>25.32648794849789</v>
+        <v>4.101437047420404</v>
       </c>
       <c r="M10">
-        <v>106.3199874750173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O10">
+        <v>91.16249863377104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.608255318273052</v>
+        <v>9.548835968549945</v>
       </c>
       <c r="D11">
-        <v>9.451597743954133</v>
+        <v>12.08764121985944</v>
       </c>
       <c r="E11">
-        <v>31.35891699143255</v>
+        <v>6.037585256162905</v>
       </c>
       <c r="F11">
-        <v>53.36827482141726</v>
+        <v>115.3663547039353</v>
       </c>
       <c r="G11">
-        <v>44.47152684917545</v>
+        <v>1.776545419200939</v>
       </c>
       <c r="H11">
-        <v>43.42328314290842</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22.30149081175282</v>
+        <v>9.108745936599782</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>25.32648794849789</v>
+        <v>4.101437047420404</v>
       </c>
       <c r="M11">
-        <v>106.3199874750173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O11">
+        <v>91.16249863377104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.608255318273052</v>
+        <v>9.548835968549945</v>
       </c>
       <c r="D12">
-        <v>9.451597743954133</v>
+        <v>12.08764121985944</v>
       </c>
       <c r="E12">
-        <v>31.35891699143255</v>
+        <v>6.037585256162905</v>
       </c>
       <c r="F12">
-        <v>53.36827482141726</v>
+        <v>115.3663547039353</v>
       </c>
       <c r="G12">
-        <v>44.47152684917545</v>
+        <v>1.776545419200939</v>
       </c>
       <c r="H12">
-        <v>43.42328314290842</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>22.30149081175282</v>
+        <v>9.108745936599782</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>25.32648794849789</v>
+        <v>4.101437047420404</v>
       </c>
       <c r="M12">
-        <v>106.3199874750173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O12">
+        <v>91.16249863377104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.608255318273052</v>
+        <v>9.548835968549945</v>
       </c>
       <c r="D13">
-        <v>9.451597743954133</v>
+        <v>12.08764121985944</v>
       </c>
       <c r="E13">
-        <v>31.35891699143255</v>
+        <v>6.037585256162905</v>
       </c>
       <c r="F13">
-        <v>53.36827482141726</v>
+        <v>115.3663547039353</v>
       </c>
       <c r="G13">
-        <v>44.47152684917545</v>
+        <v>1.776545419200939</v>
       </c>
       <c r="H13">
-        <v>43.42328314290842</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>22.30149081175282</v>
+        <v>9.108745936599782</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25.32648794849789</v>
+        <v>4.101437047420404</v>
       </c>
       <c r="M13">
-        <v>106.3199874750173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O13">
+        <v>91.16249863377104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.608255318273052</v>
+        <v>9.548835968549945</v>
       </c>
       <c r="D14">
-        <v>9.451597743954133</v>
+        <v>12.08764121985944</v>
       </c>
       <c r="E14">
-        <v>31.35891699143255</v>
+        <v>6.037585256162905</v>
       </c>
       <c r="F14">
-        <v>53.36827482141726</v>
+        <v>115.3663547039353</v>
       </c>
       <c r="G14">
-        <v>44.47152684917545</v>
+        <v>1.776545419200939</v>
       </c>
       <c r="H14">
-        <v>43.42328314290842</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>22.30149081175282</v>
+        <v>9.108745936599782</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>25.32648794849789</v>
+        <v>4.101437047420404</v>
       </c>
       <c r="M14">
-        <v>106.3199874750173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O14">
+        <v>91.16249863377104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.608255318273052</v>
+        <v>9.548835968549945</v>
       </c>
       <c r="D15">
-        <v>9.451597743954133</v>
+        <v>12.08764121985944</v>
       </c>
       <c r="E15">
-        <v>31.35891699143255</v>
+        <v>6.037585256162905</v>
       </c>
       <c r="F15">
-        <v>53.36827482141726</v>
+        <v>115.3663547039353</v>
       </c>
       <c r="G15">
-        <v>44.47152684917545</v>
+        <v>1.776545419200939</v>
       </c>
       <c r="H15">
-        <v>43.42328314290842</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>22.30149081175282</v>
+        <v>9.108745936599782</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>25.32648794849789</v>
+        <v>4.101437047420404</v>
       </c>
       <c r="M15">
-        <v>106.3199874750173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O15">
+        <v>91.16249863377104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.608255318273052</v>
+        <v>9.548835968549945</v>
       </c>
       <c r="D16">
-        <v>9.451597743954133</v>
+        <v>12.08764121985944</v>
       </c>
       <c r="E16">
-        <v>31.35891699143255</v>
+        <v>6.037585256162905</v>
       </c>
       <c r="F16">
-        <v>53.36827482141726</v>
+        <v>115.3663547039353</v>
       </c>
       <c r="G16">
-        <v>44.47152684917545</v>
+        <v>1.776545419200939</v>
       </c>
       <c r="H16">
-        <v>43.42328314290842</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>22.30149081175282</v>
+        <v>9.108745936599782</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>25.32648794849789</v>
+        <v>4.101437047420404</v>
       </c>
       <c r="M16">
-        <v>106.3199874750173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O16">
+        <v>91.16249863377104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.608255318273052</v>
+        <v>9.548835968549945</v>
       </c>
       <c r="D17">
-        <v>9.451597743954133</v>
+        <v>12.08764121985944</v>
       </c>
       <c r="E17">
-        <v>31.35891699143255</v>
+        <v>6.037585256162905</v>
       </c>
       <c r="F17">
-        <v>53.36827482141726</v>
+        <v>115.3663547039353</v>
       </c>
       <c r="G17">
-        <v>44.47152684917545</v>
+        <v>1.776545419200939</v>
       </c>
       <c r="H17">
-        <v>43.42328314290842</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>22.30149081175282</v>
+        <v>9.108745936599782</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>25.32648794849789</v>
+        <v>4.101437047420404</v>
       </c>
       <c r="M17">
-        <v>106.3199874750173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O17">
+        <v>91.16249863377104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.608255318273052</v>
+        <v>9.548835968549945</v>
       </c>
       <c r="D18">
-        <v>9.451597743954133</v>
+        <v>12.08764121985944</v>
       </c>
       <c r="E18">
-        <v>31.35891699143255</v>
+        <v>6.037585256162905</v>
       </c>
       <c r="F18">
-        <v>53.36827482141726</v>
+        <v>115.3663547039353</v>
       </c>
       <c r="G18">
-        <v>44.47152684917545</v>
+        <v>1.776545419200939</v>
       </c>
       <c r="H18">
-        <v>43.42328314290842</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>22.30149081175282</v>
+        <v>9.108745936599782</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>25.32648794849789</v>
+        <v>4.101437047420404</v>
       </c>
       <c r="M18">
-        <v>106.3199874750173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O18">
+        <v>91.16249863377104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.608255318273052</v>
+        <v>9.548835968549945</v>
       </c>
       <c r="D19">
-        <v>9.451597743954133</v>
+        <v>12.08764121985944</v>
       </c>
       <c r="E19">
-        <v>31.35891699143255</v>
+        <v>6.037585256162905</v>
       </c>
       <c r="F19">
-        <v>53.36827482141726</v>
+        <v>115.3663547039353</v>
       </c>
       <c r="G19">
-        <v>44.47152684917545</v>
+        <v>1.776545419200939</v>
       </c>
       <c r="H19">
-        <v>43.42328314290842</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>22.30149081175282</v>
+        <v>9.108745936599782</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>25.32648794849789</v>
+        <v>4.101437047420404</v>
       </c>
       <c r="M19">
-        <v>106.3199874750173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O19">
+        <v>91.16249863377104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.608255318273052</v>
+        <v>9.548835968549945</v>
       </c>
       <c r="D20">
-        <v>9.451597743954133</v>
+        <v>12.08764121985944</v>
       </c>
       <c r="E20">
-        <v>31.35891699143255</v>
+        <v>6.037585256162905</v>
       </c>
       <c r="F20">
-        <v>53.36827482141726</v>
+        <v>115.3663547039353</v>
       </c>
       <c r="G20">
-        <v>44.47152684917545</v>
+        <v>1.776545419200939</v>
       </c>
       <c r="H20">
-        <v>43.42328314290842</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>22.30149081175282</v>
+        <v>9.108745936599782</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>25.32648794849789</v>
+        <v>4.101437047420404</v>
       </c>
       <c r="M20">
-        <v>106.3199874750173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O20">
+        <v>91.16249863377104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.608255318273052</v>
+        <v>9.548835968549945</v>
       </c>
       <c r="D21">
-        <v>9.451597743954133</v>
+        <v>12.08764121985944</v>
       </c>
       <c r="E21">
-        <v>31.35891699143255</v>
+        <v>6.037585256162905</v>
       </c>
       <c r="F21">
-        <v>53.36827482141726</v>
+        <v>115.3663547039353</v>
       </c>
       <c r="G21">
-        <v>44.47152684917545</v>
+        <v>1.776545419200939</v>
       </c>
       <c r="H21">
-        <v>43.42328314290842</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.30149081175282</v>
+        <v>9.108745936599782</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>25.32648794849789</v>
+        <v>4.101437047420404</v>
       </c>
       <c r="M21">
-        <v>106.3199874750173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O21">
+        <v>91.16249863377104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.608255318273052</v>
+        <v>9.548835968549945</v>
       </c>
       <c r="D22">
-        <v>9.451597743954133</v>
+        <v>12.08764121985944</v>
       </c>
       <c r="E22">
-        <v>31.35891699143255</v>
+        <v>6.037585256162905</v>
       </c>
       <c r="F22">
-        <v>53.36827482141726</v>
+        <v>115.3663547039353</v>
       </c>
       <c r="G22">
-        <v>44.47152684917545</v>
+        <v>1.776545419200939</v>
       </c>
       <c r="H22">
-        <v>43.42328314290842</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>22.30149081175282</v>
+        <v>9.108745936599782</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>25.32648794849789</v>
+        <v>4.101437047420404</v>
       </c>
       <c r="M22">
-        <v>106.3199874750173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O22">
+        <v>91.16249863377104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.608255318273052</v>
+        <v>9.548835968549945</v>
       </c>
       <c r="D23">
-        <v>9.451597743954133</v>
+        <v>12.08764121985944</v>
       </c>
       <c r="E23">
-        <v>31.35891699143255</v>
+        <v>6.037585256162905</v>
       </c>
       <c r="F23">
-        <v>53.36827482141726</v>
+        <v>115.3663547039353</v>
       </c>
       <c r="G23">
-        <v>44.47152684917545</v>
+        <v>1.776545419200939</v>
       </c>
       <c r="H23">
-        <v>43.42328314290842</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22.30149081175282</v>
+        <v>9.108745936599782</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>25.32648794849789</v>
+        <v>4.101437047420404</v>
       </c>
       <c r="M23">
-        <v>106.3199874750173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O23">
+        <v>91.16249863377104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.608255318273052</v>
+        <v>9.548835968549945</v>
       </c>
       <c r="D24">
-        <v>9.451597743954133</v>
+        <v>12.08764121985944</v>
       </c>
       <c r="E24">
-        <v>31.35891699143255</v>
+        <v>6.037585256162905</v>
       </c>
       <c r="F24">
-        <v>53.36827482141726</v>
+        <v>115.3663547039353</v>
       </c>
       <c r="G24">
-        <v>44.47152684917545</v>
+        <v>1.776545419200939</v>
       </c>
       <c r="H24">
-        <v>43.42328314290842</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>22.30149081175282</v>
+        <v>9.108745936599782</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>25.32648794849789</v>
+        <v>4.101437047420404</v>
       </c>
       <c r="M24">
-        <v>106.3199874750173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O24">
+        <v>91.16249863377104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.608255318273052</v>
+        <v>9.548835968549945</v>
       </c>
       <c r="D25">
-        <v>9.451597743954133</v>
+        <v>12.08764121985944</v>
       </c>
       <c r="E25">
-        <v>31.35891699143255</v>
+        <v>6.037585256162905</v>
       </c>
       <c r="F25">
-        <v>53.36827482141726</v>
+        <v>115.3663547039353</v>
       </c>
       <c r="G25">
-        <v>44.47152684917545</v>
+        <v>1.776545419200939</v>
       </c>
       <c r="H25">
-        <v>43.42328314290842</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>22.30149081175282</v>
+        <v>9.108745936599782</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>25.32648794849789</v>
+        <v>4.101437047420404</v>
       </c>
       <c r="M25">
-        <v>106.3199874750173</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>28.34722074380646</v>
+      </c>
+      <c r="O25">
+        <v>91.16249863377104</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_line/loading_percent.xlsx
@@ -420,1128 +420,840 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>8.529233222788037</v>
+        <v>6.85199512268614</v>
       </c>
       <c r="D2">
-        <v>9.682634292914718</v>
+        <v>5.437668795208191</v>
       </c>
       <c r="E2">
-        <v>6.252361289257475</v>
+        <v>8.497137618921338</v>
       </c>
       <c r="F2">
-        <v>95.21173529345387</v>
+        <v>28.98123653454444</v>
       </c>
       <c r="G2">
-        <v>1.936706405502547</v>
+        <v>38.561605717523</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.26218891491037</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>21.16180069236911</v>
       </c>
       <c r="J2">
-        <v>8.461996183386885</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+        <v>5.799915979230016</v>
       </c>
       <c r="L2">
-        <v>4.396077455053153</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>25.60720851682376</v>
+        <v>5.889223222166881</v>
       </c>
       <c r="O2">
-        <v>74.87650877538027</v>
+        <v>21.03242594599092</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>8.194172523149817</v>
+        <v>6.686441129062636</v>
       </c>
       <c r="D3">
-        <v>8.740679837919101</v>
+        <v>5.376237754732606</v>
       </c>
       <c r="E3">
-        <v>6.355528406787359</v>
+        <v>8.36908068060734</v>
       </c>
       <c r="F3">
-        <v>87.9903661548514</v>
+        <v>27.66449737184846</v>
       </c>
       <c r="G3">
-        <v>1.994128561045218</v>
+        <v>36.39181408201688</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.93175383611806</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>20.2946785710098</v>
       </c>
       <c r="J3">
-        <v>8.279384682042457</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
+        <v>5.785288492834327</v>
       </c>
       <c r="L3">
-        <v>4.505454202348489</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>24.2256181799734</v>
+        <v>5.876022990610252</v>
       </c>
       <c r="O3">
-        <v>69.20332626034279</v>
+        <v>20.13232674586713</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
-        <v>8.016110515868666</v>
+        <v>6.586584202473242</v>
       </c>
       <c r="D4">
-        <v>8.180512336043186</v>
+        <v>5.340627551919926</v>
       </c>
       <c r="E4">
-        <v>6.421340226176318</v>
+        <v>8.293956715519242</v>
       </c>
       <c r="F4">
-        <v>83.84706082519071</v>
+        <v>26.84401977959814</v>
       </c>
       <c r="G4">
-        <v>2.026866572903782</v>
+        <v>35.01980718745943</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10.73104033158799</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>19.75787183310129</v>
       </c>
       <c r="J4">
-        <v>8.191489754695883</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
+        <v>5.778642981698813</v>
       </c>
       <c r="L4">
-        <v>4.568627133223678</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>23.33595077662922</v>
+        <v>5.870225320143067</v>
       </c>
       <c r="O4">
-        <v>65.95022404996774</v>
+        <v>19.57368069894927</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
-        <v>7.948959912134347</v>
+        <v>6.546386617446608</v>
       </c>
       <c r="D5">
-        <v>7.953976853822782</v>
+        <v>5.326648942662218</v>
       </c>
       <c r="E5">
-        <v>6.448839314431579</v>
+        <v>8.264236548381634</v>
       </c>
       <c r="F5">
-        <v>82.20948876098551</v>
+        <v>26.50711437799653</v>
       </c>
       <c r="G5">
-        <v>2.039808930669722</v>
+        <v>34.45130040911727</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.64989050529976</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>19.53832160824272</v>
       </c>
       <c r="J5">
-        <v>8.160461201856284</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
+        <v>5.77651169436313</v>
       </c>
       <c r="L5">
-        <v>4.593761467717378</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>22.96331756195408</v>
+        <v>5.868432850547888</v>
       </c>
       <c r="O5">
-        <v>64.66490961041882</v>
+        <v>19.3448399826881</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
-        <v>7.938102599127072</v>
+        <v>6.539743017308261</v>
       </c>
       <c r="D6">
-        <v>7.916404149445097</v>
+        <v>5.324360044478009</v>
       </c>
       <c r="E6">
-        <v>6.453447910901827</v>
+        <v>8.259355830297956</v>
       </c>
       <c r="F6">
-        <v>81.94017813980041</v>
+        <v>26.45103198784035</v>
       </c>
       <c r="G6">
-        <v>2.041939028362214</v>
+        <v>34.35635223643555</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.63645731802636</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>19.50182695176557</v>
       </c>
       <c r="J6">
-        <v>8.155569353028673</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
+        <v>5.776192323184711</v>
       </c>
       <c r="L6">
-        <v>4.597906811569062</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>22.90084339962178</v>
+        <v>5.868169350292758</v>
       </c>
       <c r="O6">
-        <v>64.45355426200436</v>
+        <v>19.30677941099296</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
-        <v>8.015184580344842</v>
+        <v>6.586040021695758</v>
       </c>
       <c r="D7">
-        <v>8.17745306516613</v>
+        <v>5.340436871326622</v>
       </c>
       <c r="E7">
-        <v>6.421708272665034</v>
+        <v>8.293552266139061</v>
       </c>
       <c r="F7">
-        <v>83.82479205108294</v>
+        <v>26.83948583930136</v>
       </c>
       <c r="G7">
-        <v>2.027042491799876</v>
+        <v>35.01217730060508</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.72994318562706</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>19.75491369876788</v>
       </c>
       <c r="J7">
-        <v>8.191053254999503</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
+        <v>5.778611916927137</v>
       </c>
       <c r="L7">
-        <v>4.568968165689117</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>23.33096569062624</v>
+        <v>5.870198851209003</v>
       </c>
       <c r="O7">
-        <v>65.93274385609635</v>
+        <v>19.57059883627994</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8">
-        <v>8.406784335829993</v>
+        <v>6.79456588880328</v>
       </c>
       <c r="D8">
-        <v>9.351898664843254</v>
+        <v>5.416051517388667</v>
       </c>
       <c r="E8">
-        <v>6.287467183030978</v>
+        <v>8.452264370787104</v>
       </c>
       <c r="F8">
-        <v>92.64411227520716</v>
+        <v>28.52997137882321</v>
       </c>
       <c r="G8">
-        <v>1.957208059233436</v>
+        <v>37.82202641776623</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>11.14785941926579</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>20.86390134569499</v>
       </c>
       <c r="J8">
-        <v>8.393017824399729</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
+        <v>5.794381295393476</v>
       </c>
       <c r="L8">
-        <v>4.434916560035521</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>25.1395913014106</v>
+        <v>5.884186860029824</v>
       </c>
       <c r="O8">
-        <v>72.85889092023409</v>
+        <v>20.72349054557655</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
-        <v>9.548835968549945</v>
+        <v>7.215850781742544</v>
       </c>
       <c r="D9">
-        <v>12.08764121985944</v>
+        <v>5.58091808646534</v>
       </c>
       <c r="E9">
-        <v>6.037585256162905</v>
+        <v>8.790696935012166</v>
       </c>
       <c r="F9">
-        <v>115.3663547039353</v>
+        <v>31.73290744012541</v>
       </c>
       <c r="G9">
-        <v>1.776545419200939</v>
+        <v>42.99708649360161</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.9807437481212</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>22.99218785521262</v>
       </c>
       <c r="J9">
-        <v>9.108745936599782</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
+        <v>5.84431165547935</v>
       </c>
       <c r="L9">
-        <v>4.101437047420404</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>28.34722074380646</v>
+        <v>5.930376209785462</v>
       </c>
       <c r="O9">
-        <v>91.16249863377104</v>
+        <v>22.92505832189507</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
-        <v>9.548835968549945</v>
+        <v>7.530565717737835</v>
       </c>
       <c r="D10">
-        <v>12.08764121985944</v>
+        <v>5.711937900384281</v>
       </c>
       <c r="E10">
-        <v>6.037585256162905</v>
+        <v>9.055100715487233</v>
       </c>
       <c r="F10">
-        <v>115.3663547039353</v>
+        <v>33.99975281600007</v>
       </c>
       <c r="G10">
-        <v>1.776545419200939</v>
+        <v>46.57647283915159</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.59614812492762</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>24.51475952322961</v>
       </c>
       <c r="J10">
-        <v>9.108745936599782</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
+        <v>5.893238623308634</v>
       </c>
       <c r="L10">
-        <v>4.101437047420404</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>28.34722074380646</v>
+        <v>5.976373315820759</v>
       </c>
       <c r="O10">
-        <v>91.16249863377104</v>
+        <v>24.4936580970552</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
-        <v>9.548835968549945</v>
+        <v>7.674431874022285</v>
       </c>
       <c r="D11">
-        <v>12.08764121985944</v>
+        <v>5.773639467686278</v>
       </c>
       <c r="E11">
-        <v>6.037585256162905</v>
+        <v>9.178636675745349</v>
       </c>
       <c r="F11">
-        <v>115.3663547039353</v>
+        <v>35.00969773253775</v>
       </c>
       <c r="G11">
-        <v>1.776545419200939</v>
+        <v>48.15450775651137</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.87607627383681</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>25.19657532757124</v>
       </c>
       <c r="J11">
-        <v>9.108745936599782</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
+        <v>5.918299058517281</v>
       </c>
       <c r="L11">
-        <v>4.101437047420404</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>28.34722074380646</v>
+        <v>6.000054636715035</v>
       </c>
       <c r="O11">
-        <v>91.16249863377104</v>
+        <v>25.19477334421621</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
       <c r="C12">
-        <v>9.548835968549945</v>
+        <v>7.728979864700642</v>
       </c>
       <c r="D12">
-        <v>12.08764121985944</v>
+        <v>5.797301852529579</v>
       </c>
       <c r="E12">
-        <v>6.037585256162905</v>
+        <v>9.22587177077337</v>
       </c>
       <c r="F12">
-        <v>115.3663547039353</v>
+        <v>35.38894381546417</v>
       </c>
       <c r="G12">
-        <v>1.776545419200939</v>
+        <v>48.7447850203446</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.98202290269743</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>25.45309575138552</v>
       </c>
       <c r="J12">
-        <v>9.108745936599782</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
+        <v>5.928203949173165</v>
       </c>
       <c r="L12">
-        <v>4.101437047420404</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>28.34722074380646</v>
+        <v>6.009430030759255</v>
       </c>
       <c r="O12">
-        <v>91.16249863377104</v>
+        <v>25.45837345932066</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
-        <v>9.548835968549945</v>
+        <v>7.717229366331567</v>
       </c>
       <c r="D13">
-        <v>12.08764121985944</v>
+        <v>5.792192578796699</v>
       </c>
       <c r="E13">
-        <v>6.037585256162905</v>
+        <v>9.215678821752817</v>
       </c>
       <c r="F13">
-        <v>115.3663547039353</v>
+        <v>35.30741030946879</v>
       </c>
       <c r="G13">
-        <v>1.776545419200939</v>
+        <v>48.61798275520521</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.95920860742582</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>25.39792512206721</v>
       </c>
       <c r="J13">
-        <v>9.108745936599782</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
+        <v>5.926052099537926</v>
       </c>
       <c r="L13">
-        <v>4.101437047420404</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>28.34722074380646</v>
+        <v>6.007392550423386</v>
       </c>
       <c r="O13">
-        <v>91.16249863377104</v>
+        <v>25.40168813043708</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
       <c r="C14">
-        <v>9.548835968549945</v>
+        <v>7.678918352638235</v>
       </c>
       <c r="D14">
-        <v>12.08764121985944</v>
+        <v>5.775580252008982</v>
       </c>
       <c r="E14">
-        <v>6.037585256162905</v>
+        <v>9.182513693954187</v>
       </c>
       <c r="F14">
-        <v>115.3663547039353</v>
+        <v>35.04096325215526</v>
       </c>
       <c r="G14">
-        <v>1.776545419200939</v>
+        <v>48.20321644585739</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.88479395051927</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>25.21771337914353</v>
       </c>
       <c r="J14">
-        <v>9.108745936599782</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
+        <v>5.919105551710709</v>
       </c>
       <c r="L14">
-        <v>4.101437047420404</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>28.34722074380646</v>
+        <v>6.000817716912584</v>
       </c>
       <c r="O14">
-        <v>91.16249863377104</v>
+        <v>25.21649838183609</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15">
-        <v>9.548835968549945</v>
+        <v>7.655459872378952</v>
       </c>
       <c r="D15">
-        <v>12.08764121985944</v>
+        <v>5.76544331514243</v>
       </c>
       <c r="E15">
-        <v>6.037585256162905</v>
+        <v>9.162257938127004</v>
       </c>
       <c r="F15">
-        <v>115.3663547039353</v>
+        <v>34.8773369568953</v>
       </c>
       <c r="G15">
-        <v>1.776545419200939</v>
+        <v>47.94821000187654</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.83920415782121</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>25.107108440399</v>
       </c>
       <c r="J15">
-        <v>9.108745936599782</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
+        <v>5.914905003768751</v>
       </c>
       <c r="L15">
-        <v>4.101437047420404</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>28.34722074380646</v>
+        <v>5.996843891258965</v>
       </c>
       <c r="O15">
-        <v>91.16249863377104</v>
+        <v>25.10281473685159</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
-        <v>9.548835968549945</v>
+        <v>7.521175007462342</v>
       </c>
       <c r="D16">
-        <v>12.08764121985944</v>
+        <v>5.707947408907689</v>
       </c>
       <c r="E16">
-        <v>6.037585256162905</v>
+        <v>9.047091683923707</v>
       </c>
       <c r="F16">
-        <v>115.3663547039353</v>
+        <v>33.93330948924898</v>
       </c>
       <c r="G16">
-        <v>1.776545419200939</v>
+        <v>46.47232623757553</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.57784891900109</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>24.4699731631676</v>
       </c>
       <c r="J16">
-        <v>9.108745936599782</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
+        <v>5.891658285419632</v>
       </c>
       <c r="L16">
-        <v>4.101437047420404</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>28.34722074380646</v>
+        <v>5.974882124471857</v>
       </c>
       <c r="O16">
-        <v>91.16249863377104</v>
+        <v>24.44757806533538</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17">
-        <v>9.548835968549945</v>
+        <v>7.438951043114566</v>
       </c>
       <c r="D17">
-        <v>12.08764121985944</v>
+        <v>5.673209966514371</v>
       </c>
       <c r="E17">
-        <v>6.037585256162905</v>
+        <v>8.977264906055485</v>
       </c>
       <c r="F17">
-        <v>115.3663547039353</v>
+        <v>33.3486172728676</v>
       </c>
       <c r="G17">
-        <v>1.776545419200939</v>
+        <v>45.55398042516966</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>12.41746882728339</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>24.07625001197342</v>
       </c>
       <c r="J17">
-        <v>9.108745936599782</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
+        <v>5.878123536734205</v>
       </c>
       <c r="L17">
-        <v>4.101437047420404</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>28.34722074380646</v>
+        <v>5.962123380663449</v>
       </c>
       <c r="O17">
-        <v>91.16249863377104</v>
+        <v>24.04233508049079</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
       <c r="C18">
-        <v>9.548835968549945</v>
+        <v>7.391725583294193</v>
       </c>
       <c r="D18">
-        <v>12.08764121985944</v>
+        <v>5.653427831549326</v>
       </c>
       <c r="E18">
-        <v>6.037585256162905</v>
+        <v>8.93740971824697</v>
       </c>
       <c r="F18">
-        <v>115.3663547039353</v>
+        <v>33.01032214436409</v>
       </c>
       <c r="G18">
-        <v>1.776545419200939</v>
+        <v>45.02104181424418</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>12.32522276781026</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>23.84877788917715</v>
       </c>
       <c r="J18">
-        <v>9.108745936599782</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
+        <v>5.870601834036866</v>
       </c>
       <c r="L18">
-        <v>4.101437047420404</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>28.34722074380646</v>
+        <v>5.955043694944006</v>
       </c>
       <c r="O18">
-        <v>91.16249863377104</v>
+        <v>23.80808225396519</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
       <c r="C19">
-        <v>9.548835968549945</v>
+        <v>7.375748504646309</v>
       </c>
       <c r="D19">
-        <v>12.08764121985944</v>
+        <v>5.646764082079718</v>
       </c>
       <c r="E19">
-        <v>6.037585256162905</v>
+        <v>8.923968666719549</v>
       </c>
       <c r="F19">
-        <v>115.3663547039353</v>
+        <v>32.89544368541198</v>
       </c>
       <c r="G19">
-        <v>1.776545419200939</v>
+        <v>44.83978869580499</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>12.2939916993919</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>23.77158982617891</v>
       </c>
       <c r="J19">
-        <v>9.108745936599782</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
+        <v>5.868099950020204</v>
       </c>
       <c r="L19">
-        <v>4.101437047420404</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>28.34722074380646</v>
+        <v>5.952690745715934</v>
       </c>
       <c r="O19">
-        <v>91.16249863377104</v>
+        <v>23.72857158244956</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
       <c r="C20">
-        <v>9.548835968549945</v>
+        <v>7.447697173875212</v>
       </c>
       <c r="D20">
-        <v>12.08764121985944</v>
+        <v>5.676887377273032</v>
       </c>
       <c r="E20">
-        <v>6.037585256162905</v>
+        <v>8.984666383579103</v>
       </c>
       <c r="F20">
-        <v>115.3663547039353</v>
+        <v>33.4110664963998</v>
       </c>
       <c r="G20">
-        <v>1.776545419200939</v>
+        <v>45.65223018460425</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12.43454194907556</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>24.11826829423537</v>
       </c>
       <c r="J20">
-        <v>9.108745936599782</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
+        <v>5.879537016113569</v>
       </c>
       <c r="L20">
-        <v>4.101437047420404</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>28.34722074380646</v>
+        <v>5.963454704337834</v>
       </c>
       <c r="O20">
-        <v>91.16249863377104</v>
+        <v>24.08559564316542</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
       <c r="C21">
-        <v>9.548835968549945</v>
+        <v>7.690169583547597</v>
       </c>
       <c r="D21">
-        <v>12.08764121985944</v>
+        <v>5.780451659879666</v>
       </c>
       <c r="E21">
-        <v>6.037585256162905</v>
+        <v>9.192242854794864</v>
       </c>
       <c r="F21">
-        <v>115.3663547039353</v>
+        <v>35.11931287114002</v>
       </c>
       <c r="G21">
-        <v>1.776545419200939</v>
+        <v>48.32524138091585</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.90665322246239</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>25.27069194592343</v>
       </c>
       <c r="J21">
-        <v>9.108745936599782</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
+        <v>5.921134559594188</v>
       </c>
       <c r="L21">
-        <v>4.101437047420404</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>28.34722074380646</v>
+        <v>6.002737745209508</v>
       </c>
       <c r="O21">
-        <v>91.16249863377104</v>
+        <v>25.27094524981679</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
       <c r="C22">
-        <v>9.548835968549945</v>
+        <v>7.849030155524418</v>
       </c>
       <c r="D22">
-        <v>12.08764121985944</v>
+        <v>5.849868292467115</v>
       </c>
       <c r="E22">
-        <v>6.037585256162905</v>
+        <v>9.330551633609108</v>
       </c>
       <c r="F22">
-        <v>115.3663547039353</v>
+        <v>36.21708121926374</v>
       </c>
       <c r="G22">
-        <v>1.776545419200939</v>
+        <v>50.02973512837093</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>13.21486253441547</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>26.01411512328272</v>
       </c>
       <c r="J22">
-        <v>9.108745936599782</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
+        <v>5.950746063015414</v>
       </c>
       <c r="L22">
-        <v>4.101437047420404</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>28.34722074380646</v>
+        <v>6.030793980265731</v>
       </c>
       <c r="O22">
-        <v>91.16249863377104</v>
+        <v>26.03455927857583</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
       <c r="C23">
-        <v>9.548835968549945</v>
+        <v>7.764216787625133</v>
       </c>
       <c r="D23">
-        <v>12.08764121985944</v>
+        <v>5.812662298309576</v>
       </c>
       <c r="E23">
-        <v>6.037585256162905</v>
+        <v>9.256495556003506</v>
       </c>
       <c r="F23">
-        <v>115.3663547039353</v>
+        <v>35.63292286311625</v>
       </c>
       <c r="G23">
-        <v>1.776545419200939</v>
+        <v>49.12390405097513</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>13.05041107402221</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>25.61825684777262</v>
       </c>
       <c r="J23">
-        <v>9.108745936599782</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
+        <v>5.934715882657084</v>
       </c>
       <c r="L23">
-        <v>4.101437047420404</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>28.34722074380646</v>
+        <v>6.015597984765921</v>
       </c>
       <c r="O23">
-        <v>91.16249863377104</v>
+        <v>25.62804359617285</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
       <c r="C24">
-        <v>9.548835968549945</v>
+        <v>7.443742901809376</v>
       </c>
       <c r="D24">
-        <v>12.08764121985944</v>
+        <v>5.675224231178804</v>
       </c>
       <c r="E24">
-        <v>6.037585256162905</v>
+        <v>8.981319273862731</v>
       </c>
       <c r="F24">
-        <v>115.3663547039353</v>
+        <v>33.38283988092801</v>
       </c>
       <c r="G24">
-        <v>1.776545419200939</v>
+        <v>45.60782694107741</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12.42682331552857</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>24.09927529408968</v>
       </c>
       <c r="J24">
-        <v>9.108745936599782</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
+        <v>5.878897174372564</v>
       </c>
       <c r="L24">
-        <v>4.101437047420404</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>28.34722074380646</v>
+        <v>5.962852017974869</v>
       </c>
       <c r="O24">
-        <v>91.16249863377104</v>
+        <v>24.06604150007369</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
       <c r="C25">
-        <v>9.548835968549945</v>
+        <v>7.10080978265206</v>
       </c>
       <c r="D25">
-        <v>12.08764121985944</v>
+        <v>5.534562670390799</v>
       </c>
       <c r="E25">
-        <v>6.037585256162905</v>
+        <v>8.69631428651423</v>
       </c>
       <c r="F25">
-        <v>115.3663547039353</v>
+        <v>30.88052884237466</v>
       </c>
       <c r="G25">
-        <v>1.776545419200939</v>
+        <v>41.63525532385555</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.75451061283814</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>22.42286548055405</v>
       </c>
       <c r="J25">
-        <v>9.108745936599782</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
+        <v>5.82870185625364</v>
       </c>
       <c r="L25">
-        <v>4.101437047420404</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>28.34722074380646</v>
+        <v>5.915808064060448</v>
       </c>
       <c r="O25">
-        <v>91.16249863377104</v>
+        <v>22.33729487974839</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.85199512268614</v>
+        <v>10.25574820157856</v>
       </c>
       <c r="D2">
-        <v>5.437668795208191</v>
+        <v>8.975944711274391</v>
       </c>
       <c r="E2">
-        <v>8.497137618921338</v>
+        <v>13.70060417621827</v>
       </c>
       <c r="F2">
-        <v>28.98123653454444</v>
+        <v>34.4933259223417</v>
       </c>
       <c r="G2">
-        <v>38.561605717523</v>
+        <v>38.12757742536402</v>
       </c>
       <c r="H2">
-        <v>11.26218891491037</v>
+        <v>16.14600372607444</v>
       </c>
       <c r="I2">
-        <v>21.16180069236911</v>
+        <v>26.73130812648908</v>
       </c>
       <c r="J2">
-        <v>5.799915979230016</v>
+        <v>10.16132451069928</v>
       </c>
       <c r="L2">
-        <v>5.889223222166881</v>
+        <v>10.32893753701926</v>
       </c>
       <c r="O2">
-        <v>21.03242594599092</v>
+        <v>25.95845761623582</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6.686441129062636</v>
+        <v>10.25419415395164</v>
       </c>
       <c r="D3">
-        <v>5.376237754732606</v>
+        <v>8.98551772318287</v>
       </c>
       <c r="E3">
-        <v>8.36908068060734</v>
+        <v>13.71301761476361</v>
       </c>
       <c r="F3">
-        <v>27.66449737184846</v>
+        <v>34.32215378162802</v>
       </c>
       <c r="G3">
-        <v>36.39181408201688</v>
+        <v>37.69371076815759</v>
       </c>
       <c r="H3">
-        <v>10.93175383611806</v>
+        <v>16.13245442039494</v>
       </c>
       <c r="I3">
-        <v>20.2946785710098</v>
+        <v>26.63979269713989</v>
       </c>
       <c r="J3">
-        <v>5.785288492834327</v>
+        <v>10.17838943921144</v>
       </c>
       <c r="L3">
-        <v>5.876022990610252</v>
+        <v>10.34618474666638</v>
       </c>
       <c r="O3">
-        <v>20.13232674586713</v>
+        <v>25.85418634298545</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6.586584202473242</v>
+        <v>10.25496736024086</v>
       </c>
       <c r="D4">
-        <v>5.340627551919926</v>
+        <v>8.992546182110372</v>
       </c>
       <c r="E4">
-        <v>8.293956715519242</v>
+        <v>13.72265027229662</v>
       </c>
       <c r="F4">
-        <v>26.84401977959814</v>
+        <v>34.22483470244256</v>
       </c>
       <c r="G4">
-        <v>35.01980718745943</v>
+        <v>37.43552600402915</v>
       </c>
       <c r="H4">
-        <v>10.73104033158799</v>
+        <v>16.12714361120178</v>
       </c>
       <c r="I4">
-        <v>19.75787183310129</v>
+        <v>26.58940240184983</v>
       </c>
       <c r="J4">
-        <v>5.778642981698813</v>
+        <v>10.18997233868108</v>
       </c>
       <c r="L4">
-        <v>5.870225320143067</v>
+        <v>10.35787407113777</v>
       </c>
       <c r="O4">
-        <v>19.57368069894927</v>
+        <v>25.79586358366984</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.546386617446608</v>
+        <v>10.25571774317546</v>
       </c>
       <c r="D5">
-        <v>5.326648942662218</v>
+        <v>8.995699989109648</v>
       </c>
       <c r="E5">
-        <v>8.264236548381634</v>
+        <v>13.72708169799857</v>
       </c>
       <c r="F5">
-        <v>26.50711437799653</v>
+        <v>34.18716484512647</v>
       </c>
       <c r="G5">
-        <v>34.45130040911727</v>
+        <v>37.33250096491635</v>
       </c>
       <c r="H5">
-        <v>10.64989050529976</v>
+        <v>16.12573820316198</v>
       </c>
       <c r="I5">
-        <v>19.53832160824272</v>
+        <v>26.57034141363606</v>
       </c>
       <c r="J5">
-        <v>5.77651169436313</v>
+        <v>10.19497065615731</v>
       </c>
       <c r="L5">
-        <v>5.868432850547888</v>
+        <v>10.36291439552206</v>
       </c>
       <c r="O5">
-        <v>19.3448399826881</v>
+        <v>25.77354764553505</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.539743017308261</v>
+        <v>10.2558686579161</v>
       </c>
       <c r="D6">
-        <v>5.324360044478009</v>
+        <v>8.996241179479803</v>
       </c>
       <c r="E6">
-        <v>8.259355830297956</v>
+        <v>13.72784810662954</v>
       </c>
       <c r="F6">
-        <v>26.45103198784035</v>
+        <v>34.18103076345412</v>
       </c>
       <c r="G6">
-        <v>34.35635223643555</v>
+        <v>37.31552933438708</v>
       </c>
       <c r="H6">
-        <v>10.63645731802636</v>
+        <v>16.12555072288737</v>
       </c>
       <c r="I6">
-        <v>19.50182695176557</v>
+        <v>26.56726574579979</v>
       </c>
       <c r="J6">
-        <v>5.776192323184711</v>
+        <v>10.19581743484617</v>
       </c>
       <c r="L6">
-        <v>5.868169350292758</v>
+        <v>10.36376806775679</v>
       </c>
       <c r="O6">
-        <v>19.30677941099296</v>
+        <v>25.76993022197648</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>6.586040021695758</v>
+        <v>10.25497571658052</v>
       </c>
       <c r="D7">
-        <v>5.340436871326622</v>
+        <v>8.992587542252114</v>
       </c>
       <c r="E7">
-        <v>8.293552266139061</v>
+        <v>13.72270798663793</v>
       </c>
       <c r="F7">
-        <v>26.83948583930136</v>
+        <v>34.2243185826257</v>
       </c>
       <c r="G7">
-        <v>35.01217730060508</v>
+        <v>37.43412755747855</v>
       </c>
       <c r="H7">
-        <v>10.72994318562706</v>
+        <v>16.12712158243222</v>
       </c>
       <c r="I7">
-        <v>19.75491369876788</v>
+        <v>26.58913935436005</v>
       </c>
       <c r="J7">
-        <v>5.778611916927137</v>
+        <v>10.1900386209079</v>
       </c>
       <c r="L7">
-        <v>5.870198851209003</v>
+        <v>10.35794092537174</v>
       </c>
       <c r="O7">
-        <v>19.57059883627994</v>
+        <v>25.79555672589973</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>6.79456588880328</v>
+        <v>10.25485445262201</v>
       </c>
       <c r="D8">
-        <v>5.416051517388667</v>
+        <v>8.979006887707557</v>
       </c>
       <c r="E8">
-        <v>8.452264370787104</v>
+        <v>13.7044672763149</v>
       </c>
       <c r="F8">
-        <v>28.52997137882321</v>
+        <v>34.43271069899574</v>
       </c>
       <c r="G8">
-        <v>37.82202641776623</v>
+        <v>37.97635093970705</v>
       </c>
       <c r="H8">
-        <v>11.14785941926579</v>
+        <v>16.14070899972143</v>
       </c>
       <c r="I8">
-        <v>20.86390134569499</v>
+        <v>26.69855913196371</v>
       </c>
       <c r="J8">
-        <v>5.794381295393476</v>
+        <v>10.16697936907392</v>
       </c>
       <c r="L8">
-        <v>5.884186860029824</v>
+        <v>10.33465639849387</v>
       </c>
       <c r="O8">
-        <v>20.72349054557655</v>
+        <v>25.92133296682629</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>7.215850781742544</v>
+        <v>10.26827549925821</v>
       </c>
       <c r="D9">
-        <v>5.58091808646534</v>
+        <v>8.961489428108825</v>
       </c>
       <c r="E9">
-        <v>8.790696935012166</v>
+        <v>13.68463057890936</v>
       </c>
       <c r="F9">
-        <v>31.73290744012541</v>
+        <v>34.90157944826323</v>
       </c>
       <c r="G9">
-        <v>42.99708649360161</v>
+        <v>39.09920595849613</v>
       </c>
       <c r="H9">
-        <v>11.9807437481212</v>
+        <v>16.19110787293874</v>
       </c>
       <c r="I9">
-        <v>22.99218785521262</v>
+        <v>26.95842681131263</v>
       </c>
       <c r="J9">
-        <v>5.84431165547935</v>
+        <v>10.13051262704167</v>
       </c>
       <c r="L9">
-        <v>5.930376209785462</v>
+        <v>10.29770340712711</v>
       </c>
       <c r="O9">
-        <v>22.92505832189507</v>
+        <v>26.21234824143723</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>7.530565717737835</v>
+        <v>10.28638961953528</v>
       </c>
       <c r="D10">
-        <v>5.711937900384281</v>
+        <v>8.954153750359788</v>
       </c>
       <c r="E10">
-        <v>9.055100715487233</v>
+        <v>13.67973727800888</v>
       </c>
       <c r="F10">
-        <v>33.99975281600007</v>
+        <v>35.28053749958851</v>
       </c>
       <c r="G10">
-        <v>46.57647283915159</v>
+        <v>39.95276507461053</v>
       </c>
       <c r="H10">
-        <v>12.59614812492762</v>
+        <v>16.24243436187499</v>
       </c>
       <c r="I10">
-        <v>24.51475952322961</v>
+        <v>27.17588296160218</v>
       </c>
       <c r="J10">
-        <v>5.893238623308634</v>
+        <v>10.10903585112754</v>
       </c>
       <c r="L10">
-        <v>5.976373315820759</v>
+        <v>10.27584109295462</v>
       </c>
       <c r="O10">
-        <v>24.4936580970552</v>
+        <v>26.45193824389055</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>7.674431874022285</v>
+        <v>10.29640291300809</v>
       </c>
       <c r="D11">
-        <v>5.773639467686278</v>
+        <v>8.952012810803087</v>
       </c>
       <c r="E11">
-        <v>9.178636675745349</v>
+        <v>13.67960411940153</v>
       </c>
       <c r="F11">
-        <v>35.00969773253775</v>
+        <v>35.45989777936907</v>
       </c>
       <c r="G11">
-        <v>48.15450775651137</v>
+        <v>40.34560918664414</v>
       </c>
       <c r="H11">
-        <v>12.87607627383681</v>
+        <v>16.26884059538297</v>
       </c>
       <c r="I11">
-        <v>25.19657532757124</v>
+        <v>27.28030770749336</v>
       </c>
       <c r="J11">
-        <v>5.918299058517281</v>
+        <v>10.10041518649371</v>
       </c>
       <c r="L11">
-        <v>6.000054636715035</v>
+        <v>10.26703866062764</v>
       </c>
       <c r="O11">
-        <v>25.19477334421621</v>
+        <v>26.56622826055489</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>7.728979864700642</v>
+        <v>10.30044764780768</v>
       </c>
       <c r="D12">
-        <v>5.797301852529579</v>
+        <v>8.951373534015241</v>
       </c>
       <c r="E12">
-        <v>9.22587177077337</v>
+        <v>13.67985363855853</v>
       </c>
       <c r="F12">
-        <v>35.38894381546417</v>
+        <v>35.52877180817477</v>
       </c>
       <c r="G12">
-        <v>48.7447850203446</v>
+        <v>40.49488415481667</v>
       </c>
       <c r="H12">
-        <v>12.98202290269743</v>
+        <v>16.2792747404914</v>
       </c>
       <c r="I12">
-        <v>25.45309575138552</v>
+        <v>27.32061752924849</v>
       </c>
       <c r="J12">
-        <v>5.928203949173165</v>
+        <v>10.09731563409763</v>
       </c>
       <c r="L12">
-        <v>6.009430030759255</v>
+        <v>10.26386934274443</v>
       </c>
       <c r="O12">
-        <v>25.45837345932066</v>
+        <v>26.61024105061272</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>7.717229366331567</v>
+        <v>10.29956532796505</v>
       </c>
       <c r="D13">
-        <v>5.792192578796699</v>
+        <v>8.951503597632751</v>
       </c>
       <c r="E13">
-        <v>9.215678821752817</v>
+        <v>13.67978657735517</v>
       </c>
       <c r="F13">
-        <v>35.30741030946879</v>
+        <v>35.51389690145573</v>
       </c>
       <c r="G13">
-        <v>48.61798275520521</v>
+        <v>40.46271452596221</v>
       </c>
       <c r="H13">
-        <v>12.95920860742582</v>
+        <v>16.27700831258685</v>
       </c>
       <c r="I13">
-        <v>25.39792512206721</v>
+        <v>27.31190241010126</v>
       </c>
       <c r="J13">
-        <v>5.926052099537926</v>
+        <v>10.0979758496479</v>
       </c>
       <c r="L13">
-        <v>6.007392550423386</v>
+        <v>10.26454462532401</v>
       </c>
       <c r="O13">
-        <v>25.40168813043708</v>
+        <v>26.60072994580705</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>7.678918352638235</v>
+        <v>10.29673061937078</v>
       </c>
       <c r="D14">
-        <v>5.775580252008982</v>
+        <v>8.951956784298828</v>
       </c>
       <c r="E14">
-        <v>9.182513693954187</v>
+        <v>13.67961864235948</v>
       </c>
       <c r="F14">
-        <v>35.04096325215526</v>
+        <v>35.46554524596029</v>
       </c>
       <c r="G14">
-        <v>48.20321644585739</v>
+        <v>40.3578806450056</v>
       </c>
       <c r="H14">
-        <v>12.88479395051927</v>
+        <v>16.26969033741627</v>
       </c>
       <c r="I14">
-        <v>25.21771337914353</v>
+        <v>27.28360880729905</v>
       </c>
       <c r="J14">
-        <v>5.919105551710709</v>
+        <v>10.10015688154467</v>
       </c>
       <c r="L14">
-        <v>6.000817716912584</v>
+        <v>10.26677463483671</v>
       </c>
       <c r="O14">
-        <v>25.21649838183609</v>
+        <v>26.56983468329441</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>7.655459872378952</v>
+        <v>10.29502715164686</v>
       </c>
       <c r="D15">
-        <v>5.76544331514243</v>
+        <v>8.952256685074699</v>
       </c>
       <c r="E15">
-        <v>9.162257938127004</v>
+        <v>13.67955480695902</v>
       </c>
       <c r="F15">
-        <v>34.8773369568953</v>
+        <v>35.43605126447486</v>
       </c>
       <c r="G15">
-        <v>47.94821000187654</v>
+        <v>40.29372954679285</v>
       </c>
       <c r="H15">
-        <v>12.83920415782121</v>
+        <v>16.26526431818752</v>
       </c>
       <c r="I15">
-        <v>25.107108440399</v>
+        <v>27.26637721108171</v>
       </c>
       <c r="J15">
-        <v>5.914905003768751</v>
+        <v>10.10151429156754</v>
       </c>
       <c r="L15">
-        <v>5.996843891258965</v>
+        <v>10.26816192297258</v>
       </c>
       <c r="O15">
-        <v>25.10281473685159</v>
+        <v>26.55100511959468</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>7.521175007462342</v>
+        <v>10.28577073563206</v>
       </c>
       <c r="D16">
-        <v>5.707947408907689</v>
+        <v>8.954317688712704</v>
       </c>
       <c r="E16">
-        <v>9.047091683923707</v>
+        <v>13.67978801038091</v>
       </c>
       <c r="F16">
-        <v>33.93330948924898</v>
+        <v>35.26895207073283</v>
       </c>
       <c r="G16">
-        <v>46.47232623757553</v>
+        <v>39.92717132315089</v>
       </c>
       <c r="H16">
-        <v>12.57784891900109</v>
+        <v>16.24076976162575</v>
       </c>
       <c r="I16">
-        <v>24.4699731631676</v>
+        <v>27.16916719476811</v>
       </c>
       <c r="J16">
-        <v>5.891658285419632</v>
+        <v>10.10962232749499</v>
       </c>
       <c r="L16">
-        <v>5.974882124471857</v>
+        <v>10.2764393184123</v>
       </c>
       <c r="O16">
-        <v>24.44757806533538</v>
+        <v>26.44457336149633</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>7.438951043114566</v>
+        <v>10.2805449594243</v>
       </c>
       <c r="D17">
-        <v>5.673209966514371</v>
+        <v>8.955888023426349</v>
       </c>
       <c r="E17">
-        <v>8.977264906055485</v>
+        <v>13.68046642217078</v>
       </c>
       <c r="F17">
-        <v>33.3486172728676</v>
+        <v>35.1681937341711</v>
       </c>
       <c r="G17">
-        <v>45.55398042516966</v>
+        <v>39.70336541921074</v>
       </c>
       <c r="H17">
-        <v>12.41746882728339</v>
+        <v>16.2265228486533</v>
       </c>
       <c r="I17">
-        <v>24.07625001197342</v>
+        <v>27.1109241412186</v>
       </c>
       <c r="J17">
-        <v>5.878123536734205</v>
+        <v>10.11489044382609</v>
       </c>
       <c r="L17">
-        <v>5.962123380663449</v>
+        <v>10.28180968445773</v>
       </c>
       <c r="O17">
-        <v>24.04233508049079</v>
+        <v>26.38061843306225</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>7.391725583294193</v>
+        <v>10.27770625809721</v>
       </c>
       <c r="D18">
-        <v>5.653427831549326</v>
+        <v>8.956903856558299</v>
       </c>
       <c r="E18">
-        <v>8.93740971824697</v>
+        <v>13.68105368136502</v>
       </c>
       <c r="F18">
-        <v>33.01032214436409</v>
+        <v>35.11089929227043</v>
       </c>
       <c r="G18">
-        <v>45.02104181424418</v>
+        <v>39.57507543001888</v>
       </c>
       <c r="H18">
-        <v>12.32522276781026</v>
+        <v>16.21861652075249</v>
       </c>
       <c r="I18">
-        <v>23.84877788917715</v>
+        <v>27.07794380719676</v>
       </c>
       <c r="J18">
-        <v>5.870601834036866</v>
+        <v>10.11802871762254</v>
       </c>
       <c r="L18">
-        <v>5.955043694944006</v>
+        <v>10.28500616954735</v>
       </c>
       <c r="O18">
-        <v>23.80808225396519</v>
+        <v>26.34433383519401</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>7.375748504646309</v>
+        <v>10.27677386884405</v>
       </c>
       <c r="D19">
-        <v>5.646764082079718</v>
+        <v>8.957267158325902</v>
       </c>
       <c r="E19">
-        <v>8.923968666719549</v>
+        <v>13.68128639011146</v>
       </c>
       <c r="F19">
-        <v>32.89544368541198</v>
+        <v>35.09161501483199</v>
       </c>
       <c r="G19">
-        <v>44.83978869580499</v>
+        <v>39.53171807743799</v>
       </c>
       <c r="H19">
-        <v>12.2939916993919</v>
+        <v>16.21598920358608</v>
       </c>
       <c r="I19">
-        <v>23.77158982617891</v>
+        <v>27.06686719854773</v>
       </c>
       <c r="J19">
-        <v>5.868099950020204</v>
+        <v>10.11910987589872</v>
       </c>
       <c r="L19">
-        <v>5.952690745715934</v>
+        <v>10.28610693461117</v>
       </c>
       <c r="O19">
-        <v>23.72857158244956</v>
+        <v>26.33213531316683</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>7.447697173875212</v>
+        <v>10.28108397978846</v>
       </c>
       <c r="D20">
-        <v>5.676887377273032</v>
+        <v>8.955709206869741</v>
       </c>
       <c r="E20">
-        <v>8.984666383579103</v>
+        <v>13.68037381653578</v>
       </c>
       <c r="F20">
-        <v>33.4110664963998</v>
+        <v>35.17885176091222</v>
       </c>
       <c r="G20">
-        <v>45.65223018460425</v>
+        <v>39.72714571647992</v>
       </c>
       <c r="H20">
-        <v>12.43454194907556</v>
+        <v>16.22800967227069</v>
       </c>
       <c r="I20">
-        <v>24.11826829423537</v>
+        <v>27.11707062021454</v>
       </c>
       <c r="J20">
-        <v>5.879537016113569</v>
+        <v>10.11431844882351</v>
       </c>
       <c r="L20">
-        <v>5.963454704337834</v>
+        <v>10.28122686701973</v>
       </c>
       <c r="O20">
-        <v>24.08559564316542</v>
+        <v>26.3873749370964</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>7.690169583547597</v>
+        <v>10.29755639520382</v>
       </c>
       <c r="D21">
-        <v>5.780451659879666</v>
+        <v>8.951819023872952</v>
       </c>
       <c r="E21">
-        <v>9.192242854794864</v>
+        <v>13.67965983716073</v>
       </c>
       <c r="F21">
-        <v>35.11931287114002</v>
+        <v>35.47972179541751</v>
       </c>
       <c r="G21">
-        <v>48.32524138091585</v>
+        <v>40.38866008521553</v>
       </c>
       <c r="H21">
-        <v>12.90665322246239</v>
+        <v>16.27182804914001</v>
       </c>
       <c r="I21">
-        <v>25.27069194592343</v>
+        <v>27.29189872801601</v>
       </c>
       <c r="J21">
-        <v>5.921134559594188</v>
+        <v>10.09951178696417</v>
       </c>
       <c r="L21">
-        <v>6.002737745209508</v>
+        <v>10.26611517981371</v>
       </c>
       <c r="O21">
-        <v>25.27094524981679</v>
+        <v>26.57888969274287</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>7.849030155524418</v>
+        <v>10.30979517933339</v>
       </c>
       <c r="D22">
-        <v>5.849868292467115</v>
+        <v>8.950275620908531</v>
       </c>
       <c r="E22">
-        <v>9.330551633609108</v>
+        <v>13.68094095816672</v>
       </c>
       <c r="F22">
-        <v>36.21708121926374</v>
+        <v>35.68189594445141</v>
       </c>
       <c r="G22">
-        <v>50.02973512837093</v>
+        <v>40.82392603959587</v>
       </c>
       <c r="H22">
-        <v>13.21486253441547</v>
+        <v>16.30299689102792</v>
       </c>
       <c r="I22">
-        <v>26.01411512328272</v>
+        <v>27.41061395752961</v>
       </c>
       <c r="J22">
-        <v>5.950746063015414</v>
+        <v>10.09079580500553</v>
       </c>
       <c r="L22">
-        <v>6.030793980265731</v>
+        <v>10.25719439537708</v>
       </c>
       <c r="O22">
-        <v>26.03455927857583</v>
+        <v>26.70831781823669</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>7.764216787625133</v>
+        <v>10.30312904882639</v>
       </c>
       <c r="D23">
-        <v>5.812662298309576</v>
+        <v>8.951008143761168</v>
       </c>
       <c r="E23">
-        <v>9.256495556003506</v>
+        <v>13.68009764378383</v>
       </c>
       <c r="F23">
-        <v>35.63292286311625</v>
+        <v>35.57350140083865</v>
       </c>
       <c r="G23">
-        <v>49.12390405097513</v>
+        <v>40.59139490750044</v>
       </c>
       <c r="H23">
-        <v>13.05041107402221</v>
+        <v>16.28613167351546</v>
       </c>
       <c r="I23">
-        <v>25.61825684777262</v>
+        <v>27.34685432140864</v>
       </c>
       <c r="J23">
-        <v>5.934715882657084</v>
+        <v>10.09535987393026</v>
       </c>
       <c r="L23">
-        <v>6.015597984765921</v>
+        <v>10.26186827498663</v>
       </c>
       <c r="O23">
-        <v>25.62804359617285</v>
+        <v>26.63885931430912</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>7.443742901809376</v>
+        <v>10.28083977250414</v>
       </c>
       <c r="D24">
-        <v>5.675224231178804</v>
+        <v>8.955789697735735</v>
       </c>
       <c r="E24">
-        <v>8.981319273862731</v>
+        <v>13.68041506911912</v>
       </c>
       <c r="F24">
-        <v>33.38283988092801</v>
+        <v>35.17403129195975</v>
       </c>
       <c r="G24">
-        <v>45.60782694107741</v>
+        <v>39.71639345259933</v>
       </c>
       <c r="H24">
-        <v>12.42682331552857</v>
+        <v>16.22733659296019</v>
       </c>
       <c r="I24">
-        <v>24.09927529408968</v>
+        <v>27.11429022403656</v>
       </c>
       <c r="J24">
-        <v>5.878897174372564</v>
+        <v>10.11457670645479</v>
       </c>
       <c r="L24">
-        <v>5.962852017974869</v>
+        <v>10.28149001926072</v>
       </c>
       <c r="O24">
-        <v>24.06604150007369</v>
+        <v>26.38431881195839</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>7.10080978265206</v>
+        <v>10.26318924705696</v>
       </c>
       <c r="D25">
-        <v>5.534562670390799</v>
+        <v>8.965254705995902</v>
       </c>
       <c r="E25">
-        <v>8.69631428651423</v>
+        <v>13.68829407869671</v>
       </c>
       <c r="F25">
-        <v>30.88052884237466</v>
+        <v>34.76851179398151</v>
       </c>
       <c r="G25">
-        <v>41.63525532385555</v>
+        <v>38.78985591801308</v>
       </c>
       <c r="H25">
-        <v>11.75451061283814</v>
+        <v>16.1749476266201</v>
       </c>
       <c r="I25">
-        <v>22.42286548055405</v>
+        <v>26.88338189682072</v>
       </c>
       <c r="J25">
-        <v>5.82870185625364</v>
+        <v>10.13944290318607</v>
       </c>
       <c r="L25">
-        <v>5.915808064060448</v>
+        <v>10.30677011373447</v>
       </c>
       <c r="O25">
-        <v>22.33729487974839</v>
+        <v>26.12899509237283</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.25574820157856</v>
+        <v>6.85199512268616</v>
       </c>
       <c r="D2">
-        <v>8.975944711274391</v>
+        <v>5.437668795208105</v>
       </c>
       <c r="E2">
-        <v>13.70060417621827</v>
+        <v>8.497137618921249</v>
       </c>
       <c r="F2">
-        <v>34.4933259223417</v>
+        <v>28.98123653454433</v>
       </c>
       <c r="G2">
-        <v>38.12757742536402</v>
+        <v>38.56160571752291</v>
       </c>
       <c r="H2">
-        <v>16.14600372607444</v>
+        <v>11.26218891491034</v>
       </c>
       <c r="I2">
-        <v>26.73130812648908</v>
+        <v>21.16180069236903</v>
       </c>
       <c r="J2">
-        <v>10.16132451069928</v>
+        <v>5.799915979229965</v>
       </c>
       <c r="L2">
-        <v>10.32893753701926</v>
+        <v>5.88922322216682</v>
       </c>
       <c r="O2">
-        <v>25.95845761623582</v>
+        <v>21.03242594599082</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,34 +456,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>10.25419415395164</v>
+        <v>6.686441129062537</v>
       </c>
       <c r="D3">
-        <v>8.98551772318287</v>
+        <v>5.376237754732426</v>
       </c>
       <c r="E3">
-        <v>13.71301761476361</v>
+        <v>8.369080680607228</v>
       </c>
       <c r="F3">
-        <v>34.32215378162802</v>
+        <v>27.66449737184828</v>
       </c>
       <c r="G3">
-        <v>37.69371076815759</v>
+        <v>36.39181408201674</v>
       </c>
       <c r="H3">
-        <v>16.13245442039494</v>
+        <v>10.93175383611791</v>
       </c>
       <c r="I3">
-        <v>26.63979269713989</v>
+        <v>20.29467857100967</v>
       </c>
       <c r="J3">
-        <v>10.17838943921144</v>
+        <v>5.785288492834358</v>
       </c>
       <c r="L3">
-        <v>10.34618474666638</v>
+        <v>5.876022990610276</v>
       </c>
       <c r="O3">
-        <v>25.85418634298545</v>
+        <v>20.132326745867</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>10.25496736024086</v>
+        <v>6.586584202473242</v>
       </c>
       <c r="D4">
-        <v>8.992546182110372</v>
+        <v>5.340627551919931</v>
       </c>
       <c r="E4">
-        <v>13.72265027229662</v>
+        <v>8.293956715519252</v>
       </c>
       <c r="F4">
-        <v>34.22483470244256</v>
+        <v>26.84401977959815</v>
       </c>
       <c r="G4">
-        <v>37.43552600402915</v>
+        <v>35.01980718745944</v>
       </c>
       <c r="H4">
-        <v>16.12714361120178</v>
+        <v>10.73104033158798</v>
       </c>
       <c r="I4">
-        <v>26.58940240184983</v>
+        <v>19.75787183310129</v>
       </c>
       <c r="J4">
-        <v>10.18997233868108</v>
+        <v>5.778642981698814</v>
       </c>
       <c r="L4">
-        <v>10.35787407113777</v>
+        <v>5.870225320143071</v>
       </c>
       <c r="O4">
-        <v>25.79586358366984</v>
+        <v>19.57368069894927</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>10.25571774317546</v>
+        <v>6.546386617446612</v>
       </c>
       <c r="D5">
-        <v>8.995699989109648</v>
+        <v>5.326648942662168</v>
       </c>
       <c r="E5">
-        <v>13.72708169799857</v>
+        <v>8.264236548381538</v>
       </c>
       <c r="F5">
-        <v>34.18716484512647</v>
+        <v>26.50711437799638</v>
       </c>
       <c r="G5">
-        <v>37.33250096491635</v>
+        <v>34.45130040911718</v>
       </c>
       <c r="H5">
-        <v>16.12573820316198</v>
+        <v>10.64989050529968</v>
       </c>
       <c r="I5">
-        <v>26.57034141363606</v>
+        <v>19.53832160824263</v>
       </c>
       <c r="J5">
-        <v>10.19497065615731</v>
+        <v>5.776511694362982</v>
       </c>
       <c r="L5">
-        <v>10.36291439552206</v>
+        <v>5.868432850547806</v>
       </c>
       <c r="O5">
-        <v>25.77354764553505</v>
+        <v>19.344839982688</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,34 +561,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>10.2558686579161</v>
+        <v>6.539743017308279</v>
       </c>
       <c r="D6">
-        <v>8.996241179479803</v>
+        <v>5.324360044477867</v>
       </c>
       <c r="E6">
-        <v>13.72784810662954</v>
+        <v>8.25935583029791</v>
       </c>
       <c r="F6">
-        <v>34.18103076345412</v>
+        <v>26.45103198784041</v>
       </c>
       <c r="G6">
-        <v>37.31552933438708</v>
+        <v>34.35635223643565</v>
       </c>
       <c r="H6">
-        <v>16.12555072288737</v>
+        <v>10.63645731802637</v>
       </c>
       <c r="I6">
-        <v>26.56726574579979</v>
+        <v>19.50182695176564</v>
       </c>
       <c r="J6">
-        <v>10.19581743484617</v>
+        <v>5.776192323184766</v>
       </c>
       <c r="L6">
-        <v>10.36376806775679</v>
+        <v>5.868169350292702</v>
       </c>
       <c r="O6">
-        <v>25.76993022197648</v>
+        <v>19.30677941099302</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,34 +596,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>10.25497571658052</v>
+        <v>6.586040021695696</v>
       </c>
       <c r="D7">
-        <v>8.992587542252114</v>
+        <v>5.340436871326502</v>
       </c>
       <c r="E7">
-        <v>13.72270798663793</v>
+        <v>8.293552266139207</v>
       </c>
       <c r="F7">
-        <v>34.2243185826257</v>
+        <v>26.83948583930149</v>
       </c>
       <c r="G7">
-        <v>37.43412755747855</v>
+        <v>35.01217730060527</v>
       </c>
       <c r="H7">
-        <v>16.12712158243222</v>
+        <v>10.72994318562706</v>
       </c>
       <c r="I7">
-        <v>26.58913935436005</v>
+        <v>19.75491369876798</v>
       </c>
       <c r="J7">
-        <v>10.1900386209079</v>
+        <v>5.778611916927225</v>
       </c>
       <c r="L7">
-        <v>10.35794092537174</v>
+        <v>5.87019885120917</v>
       </c>
       <c r="O7">
-        <v>25.79555672589973</v>
+        <v>19.57059883628008</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,34 +631,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>10.25485445262201</v>
+        <v>6.7945658888033</v>
       </c>
       <c r="D8">
-        <v>8.979006887707557</v>
+        <v>5.416051517388681</v>
       </c>
       <c r="E8">
-        <v>13.7044672763149</v>
+        <v>8.452264370787072</v>
       </c>
       <c r="F8">
-        <v>34.43271069899574</v>
+        <v>28.52997137882322</v>
       </c>
       <c r="G8">
-        <v>37.97635093970705</v>
+        <v>37.82202641776621</v>
       </c>
       <c r="H8">
-        <v>16.14070899972143</v>
+        <v>11.14785941926579</v>
       </c>
       <c r="I8">
-        <v>26.69855913196371</v>
+        <v>20.863901345695</v>
       </c>
       <c r="J8">
-        <v>10.16697936907392</v>
+        <v>5.794381295393423</v>
       </c>
       <c r="L8">
-        <v>10.33465639849387</v>
+        <v>5.884186860029802</v>
       </c>
       <c r="O8">
-        <v>25.92133296682629</v>
+        <v>20.72349054557654</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,34 +666,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>10.26827549925821</v>
+        <v>7.215850781742558</v>
       </c>
       <c r="D9">
-        <v>8.961489428108825</v>
+        <v>5.580918086465311</v>
       </c>
       <c r="E9">
-        <v>13.68463057890936</v>
+        <v>8.790696935012171</v>
       </c>
       <c r="F9">
-        <v>34.90157944826323</v>
+        <v>31.73290744012536</v>
       </c>
       <c r="G9">
-        <v>39.09920595849613</v>
+        <v>42.9970864936016</v>
       </c>
       <c r="H9">
-        <v>16.19110787293874</v>
+        <v>11.98074374812118</v>
       </c>
       <c r="I9">
-        <v>26.95842681131263</v>
+        <v>22.99218785521259</v>
       </c>
       <c r="J9">
-        <v>10.13051262704167</v>
+        <v>5.844311655479403</v>
       </c>
       <c r="L9">
-        <v>10.29770340712711</v>
+        <v>5.930376209785495</v>
       </c>
       <c r="O9">
-        <v>26.21234824143723</v>
+        <v>22.92505832189504</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,34 +701,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>10.28638961953528</v>
+        <v>7.530565717737724</v>
       </c>
       <c r="D10">
-        <v>8.954153750359788</v>
+        <v>5.711937900384143</v>
       </c>
       <c r="E10">
-        <v>13.67973727800888</v>
+        <v>9.055100715487125</v>
       </c>
       <c r="F10">
-        <v>35.28053749958851</v>
+        <v>33.999752816</v>
       </c>
       <c r="G10">
-        <v>39.95276507461053</v>
+        <v>46.57647283915159</v>
       </c>
       <c r="H10">
-        <v>16.24243436187499</v>
+        <v>12.59614812492762</v>
       </c>
       <c r="I10">
-        <v>27.17588296160218</v>
+        <v>24.51475952322956</v>
       </c>
       <c r="J10">
-        <v>10.10903585112754</v>
+        <v>5.893238623308589</v>
       </c>
       <c r="L10">
-        <v>10.27584109295462</v>
+        <v>5.976373315820633</v>
       </c>
       <c r="O10">
-        <v>26.45193824389055</v>
+        <v>24.49365809705515</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,34 +736,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>10.29640291300809</v>
+        <v>7.674431874022209</v>
       </c>
       <c r="D11">
-        <v>8.952012810803087</v>
+        <v>5.77363946768632</v>
       </c>
       <c r="E11">
-        <v>13.67960411940153</v>
+        <v>9.178636675745336</v>
       </c>
       <c r="F11">
-        <v>35.45989777936907</v>
+        <v>35.00969773253775</v>
       </c>
       <c r="G11">
-        <v>40.34560918664414</v>
+        <v>48.15450775651134</v>
       </c>
       <c r="H11">
-        <v>16.26884059538297</v>
+        <v>12.87607627383681</v>
       </c>
       <c r="I11">
-        <v>27.28030770749336</v>
+        <v>25.19657532757126</v>
       </c>
       <c r="J11">
-        <v>10.10041518649371</v>
+        <v>5.9182990585173</v>
       </c>
       <c r="L11">
-        <v>10.26703866062764</v>
+        <v>6.000054636715007</v>
       </c>
       <c r="O11">
-        <v>26.56622826055489</v>
+        <v>25.1947733442162</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,34 +771,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>10.30044764780768</v>
+        <v>7.728979864700551</v>
       </c>
       <c r="D12">
-        <v>8.951373534015241</v>
+        <v>5.797301852529507</v>
       </c>
       <c r="E12">
-        <v>13.67985363855853</v>
+        <v>9.225871770773294</v>
       </c>
       <c r="F12">
-        <v>35.52877180817477</v>
+        <v>35.38894381546415</v>
       </c>
       <c r="G12">
-        <v>40.49488415481667</v>
+        <v>48.74478502034458</v>
       </c>
       <c r="H12">
-        <v>16.2792747404914</v>
+        <v>12.98202290269738</v>
       </c>
       <c r="I12">
-        <v>27.32061752924849</v>
+        <v>25.45309575138546</v>
       </c>
       <c r="J12">
-        <v>10.09731563409763</v>
+        <v>5.928203949173156</v>
       </c>
       <c r="L12">
-        <v>10.26386934274443</v>
+        <v>6.009430030759309</v>
       </c>
       <c r="O12">
-        <v>26.61024105061272</v>
+        <v>25.45837345932063</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,34 +806,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>10.29956532796505</v>
+        <v>7.717229366331653</v>
       </c>
       <c r="D13">
-        <v>8.951503597632751</v>
+        <v>5.792192578796655</v>
       </c>
       <c r="E13">
-        <v>13.67978657735517</v>
+        <v>9.215678821752835</v>
       </c>
       <c r="F13">
-        <v>35.51389690145573</v>
+        <v>35.30741030946879</v>
       </c>
       <c r="G13">
-        <v>40.46271452596221</v>
+        <v>48.61798275520521</v>
       </c>
       <c r="H13">
-        <v>16.27700831258685</v>
+        <v>12.95920860742584</v>
       </c>
       <c r="I13">
-        <v>27.31190241010126</v>
+        <v>25.39792512206722</v>
       </c>
       <c r="J13">
-        <v>10.0979758496479</v>
+        <v>5.926052099538018</v>
       </c>
       <c r="L13">
-        <v>10.26454462532401</v>
+        <v>6.007392550423388</v>
       </c>
       <c r="O13">
-        <v>26.60072994580705</v>
+        <v>25.40168813043708</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,34 +841,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>10.29673061937078</v>
+        <v>7.678918352638281</v>
       </c>
       <c r="D14">
-        <v>8.951956784298828</v>
+        <v>5.77558025200897</v>
       </c>
       <c r="E14">
-        <v>13.67961864235948</v>
+        <v>9.182513693954215</v>
       </c>
       <c r="F14">
-        <v>35.46554524596029</v>
+        <v>35.04096325215525</v>
       </c>
       <c r="G14">
-        <v>40.3578806450056</v>
+        <v>48.20321644585737</v>
       </c>
       <c r="H14">
-        <v>16.26969033741627</v>
+        <v>12.88479395051924</v>
       </c>
       <c r="I14">
-        <v>27.28360880729905</v>
+        <v>25.21771337914352</v>
       </c>
       <c r="J14">
-        <v>10.10015688154467</v>
+        <v>5.919105551710754</v>
       </c>
       <c r="L14">
-        <v>10.26677463483671</v>
+        <v>6.000817716912588</v>
       </c>
       <c r="O14">
-        <v>26.56983468329441</v>
+        <v>25.21649838183608</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,34 +876,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>10.29502715164686</v>
+        <v>7.655459872379011</v>
       </c>
       <c r="D15">
-        <v>8.952256685074699</v>
+        <v>5.765443315142385</v>
       </c>
       <c r="E15">
-        <v>13.67955480695902</v>
+        <v>9.162257938126963</v>
       </c>
       <c r="F15">
-        <v>35.43605126447486</v>
+        <v>34.8773369568953</v>
       </c>
       <c r="G15">
-        <v>40.29372954679285</v>
+        <v>47.9482100018766</v>
       </c>
       <c r="H15">
-        <v>16.26526431818752</v>
+        <v>12.83920415782121</v>
       </c>
       <c r="I15">
-        <v>27.26637721108171</v>
+        <v>25.10710844039901</v>
       </c>
       <c r="J15">
-        <v>10.10151429156754</v>
+        <v>5.914905003768749</v>
       </c>
       <c r="L15">
-        <v>10.26816192297258</v>
+        <v>5.996843891258922</v>
       </c>
       <c r="O15">
-        <v>26.55100511959468</v>
+        <v>25.1028147368516</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,34 +911,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>10.28577073563206</v>
+        <v>7.52117500746242</v>
       </c>
       <c r="D16">
-        <v>8.954317688712704</v>
+        <v>5.707947408907725</v>
       </c>
       <c r="E16">
-        <v>13.67978801038091</v>
+        <v>9.04709168392367</v>
       </c>
       <c r="F16">
-        <v>35.26895207073283</v>
+        <v>33.93330948924898</v>
       </c>
       <c r="G16">
-        <v>39.92717132315089</v>
+        <v>46.47232623757554</v>
       </c>
       <c r="H16">
-        <v>16.24076976162575</v>
+        <v>12.57784891900108</v>
       </c>
       <c r="I16">
-        <v>27.16916719476811</v>
+        <v>24.4699731631676</v>
       </c>
       <c r="J16">
-        <v>10.10962232749499</v>
+        <v>5.891658285419605</v>
       </c>
       <c r="L16">
-        <v>10.2764393184123</v>
+        <v>5.974882124471754</v>
       </c>
       <c r="O16">
-        <v>26.44457336149633</v>
+        <v>24.44757806533538</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,34 +946,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>10.2805449594243</v>
+        <v>7.438951043114551</v>
       </c>
       <c r="D17">
-        <v>8.955888023426349</v>
+        <v>5.673209966514369</v>
       </c>
       <c r="E17">
-        <v>13.68046642217078</v>
+        <v>8.977264906055373</v>
       </c>
       <c r="F17">
-        <v>35.1681937341711</v>
+        <v>33.3486172728676</v>
       </c>
       <c r="G17">
-        <v>39.70336541921074</v>
+        <v>45.55398042516968</v>
       </c>
       <c r="H17">
-        <v>16.2265228486533</v>
+        <v>12.41746882728338</v>
       </c>
       <c r="I17">
-        <v>27.1109241412186</v>
+        <v>24.07625001197341</v>
       </c>
       <c r="J17">
-        <v>10.11489044382609</v>
+        <v>5.878123536734135</v>
       </c>
       <c r="L17">
-        <v>10.28180968445773</v>
+        <v>5.962123380663384</v>
       </c>
       <c r="O17">
-        <v>26.38061843306225</v>
+        <v>24.04233508049078</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,34 +981,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>10.27770625809721</v>
+        <v>7.391725583294252</v>
       </c>
       <c r="D18">
-        <v>8.956903856558299</v>
+        <v>5.653427831549228</v>
       </c>
       <c r="E18">
-        <v>13.68105368136502</v>
+        <v>8.937409718246926</v>
       </c>
       <c r="F18">
-        <v>35.11089929227043</v>
+        <v>33.01032214436405</v>
       </c>
       <c r="G18">
-        <v>39.57507543001888</v>
+        <v>45.02104181424416</v>
       </c>
       <c r="H18">
-        <v>16.21861652075249</v>
+        <v>12.32522276781025</v>
       </c>
       <c r="I18">
-        <v>27.07794380719676</v>
+        <v>23.84877788917713</v>
       </c>
       <c r="J18">
-        <v>10.11802871762254</v>
+        <v>5.870601834036864</v>
       </c>
       <c r="L18">
-        <v>10.28500616954735</v>
+        <v>5.955043694943927</v>
       </c>
       <c r="O18">
-        <v>26.34433383519401</v>
+        <v>23.80808225396516</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,34 +1016,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>10.27677386884405</v>
+        <v>7.375748504646405</v>
       </c>
       <c r="D19">
-        <v>8.957267158325902</v>
+        <v>5.646764082079718</v>
       </c>
       <c r="E19">
-        <v>13.68128639011146</v>
+        <v>8.923968666719569</v>
       </c>
       <c r="F19">
-        <v>35.09161501483199</v>
+        <v>32.89544368541198</v>
       </c>
       <c r="G19">
-        <v>39.53171807743799</v>
+        <v>44.83978869580496</v>
       </c>
       <c r="H19">
-        <v>16.21598920358608</v>
+        <v>12.29399169939189</v>
       </c>
       <c r="I19">
-        <v>27.06686719854773</v>
+        <v>23.77158982617891</v>
       </c>
       <c r="J19">
-        <v>10.11910987589872</v>
+        <v>5.868099950020184</v>
       </c>
       <c r="L19">
-        <v>10.28610693461117</v>
+        <v>5.952690745715912</v>
       </c>
       <c r="O19">
-        <v>26.33213531316683</v>
+        <v>23.72857158244956</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,34 +1051,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>10.28108397978846</v>
+        <v>7.447697173875147</v>
       </c>
       <c r="D20">
-        <v>8.955709206869741</v>
+        <v>5.676887377273102</v>
       </c>
       <c r="E20">
-        <v>13.68037381653578</v>
+        <v>8.984666383579073</v>
       </c>
       <c r="F20">
-        <v>35.17885176091222</v>
+        <v>33.41106649639975</v>
       </c>
       <c r="G20">
-        <v>39.72714571647992</v>
+        <v>45.65223018460416</v>
       </c>
       <c r="H20">
-        <v>16.22800967227069</v>
+        <v>12.43454194907556</v>
       </c>
       <c r="I20">
-        <v>27.11707062021454</v>
+        <v>24.11826829423532</v>
       </c>
       <c r="J20">
-        <v>10.11431844882351</v>
+        <v>5.879537016113494</v>
       </c>
       <c r="L20">
-        <v>10.28122686701973</v>
+        <v>5.963454704337783</v>
       </c>
       <c r="O20">
-        <v>26.3873749370964</v>
+        <v>24.08559564316536</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,34 +1086,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>10.29755639520382</v>
+        <v>7.690169583547648</v>
       </c>
       <c r="D21">
-        <v>8.951819023872952</v>
+        <v>5.780451659879668</v>
       </c>
       <c r="E21">
-        <v>13.67965983716073</v>
+        <v>9.192242854794815</v>
       </c>
       <c r="F21">
-        <v>35.47972179541751</v>
+        <v>35.11931287114006</v>
       </c>
       <c r="G21">
-        <v>40.38866008521553</v>
+        <v>48.32524138091593</v>
       </c>
       <c r="H21">
-        <v>16.27182804914001</v>
+        <v>12.90665322246241</v>
       </c>
       <c r="I21">
-        <v>27.29189872801601</v>
+        <v>25.27069194592347</v>
       </c>
       <c r="J21">
-        <v>10.09951178696417</v>
+        <v>5.921134559594225</v>
       </c>
       <c r="L21">
-        <v>10.26611517981371</v>
+        <v>6.002737745209491</v>
       </c>
       <c r="O21">
-        <v>26.57888969274287</v>
+        <v>25.27094524981682</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,34 +1121,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>10.30979517933339</v>
+        <v>7.849030155524482</v>
       </c>
       <c r="D22">
-        <v>8.950275620908531</v>
+        <v>5.84986829246711</v>
       </c>
       <c r="E22">
-        <v>13.68094095816672</v>
+        <v>9.330551633609101</v>
       </c>
       <c r="F22">
-        <v>35.68189594445141</v>
+        <v>36.21708121926375</v>
       </c>
       <c r="G22">
-        <v>40.82392603959587</v>
+        <v>50.0297351283709</v>
       </c>
       <c r="H22">
-        <v>16.30299689102792</v>
+        <v>13.21486253441551</v>
       </c>
       <c r="I22">
-        <v>27.41061395752961</v>
+        <v>26.01411512328275</v>
       </c>
       <c r="J22">
-        <v>10.09079580500553</v>
+        <v>5.95074606301538</v>
       </c>
       <c r="L22">
-        <v>10.25719439537708</v>
+        <v>6.030793980265731</v>
       </c>
       <c r="O22">
-        <v>26.70831781823669</v>
+        <v>26.03455927857585</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,34 +1156,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>10.30312904882639</v>
+        <v>7.764216787625141</v>
       </c>
       <c r="D23">
-        <v>8.951008143761168</v>
+        <v>5.812662298309611</v>
       </c>
       <c r="E23">
-        <v>13.68009764378383</v>
+        <v>9.256495556003498</v>
       </c>
       <c r="F23">
-        <v>35.57350140083865</v>
+        <v>35.63292286311624</v>
       </c>
       <c r="G23">
-        <v>40.59139490750044</v>
+        <v>49.12390405097515</v>
       </c>
       <c r="H23">
-        <v>16.28613167351546</v>
+        <v>13.05041107402218</v>
       </c>
       <c r="I23">
-        <v>27.34685432140864</v>
+        <v>25.6182568477726</v>
       </c>
       <c r="J23">
-        <v>10.09535987393026</v>
+        <v>5.934715882657006</v>
       </c>
       <c r="L23">
-        <v>10.26186827498663</v>
+        <v>6.015597984765893</v>
       </c>
       <c r="O23">
-        <v>26.63885931430912</v>
+        <v>25.62804359617284</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,34 +1191,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>10.28083977250414</v>
+        <v>7.443742901809376</v>
       </c>
       <c r="D24">
-        <v>8.955789697735735</v>
+        <v>5.675224231178881</v>
       </c>
       <c r="E24">
-        <v>13.68041506911912</v>
+        <v>8.981319273862807</v>
       </c>
       <c r="F24">
-        <v>35.17403129195975</v>
+        <v>33.38283988092807</v>
       </c>
       <c r="G24">
-        <v>39.71639345259933</v>
+        <v>45.60782694107742</v>
       </c>
       <c r="H24">
-        <v>16.22733659296019</v>
+        <v>12.42682331552864</v>
       </c>
       <c r="I24">
-        <v>27.11429022403656</v>
+        <v>24.09927529408972</v>
       </c>
       <c r="J24">
-        <v>10.11457670645479</v>
+        <v>5.878897174372665</v>
       </c>
       <c r="L24">
-        <v>10.28149001926072</v>
+        <v>5.962852017974972</v>
       </c>
       <c r="O24">
-        <v>26.38431881195839</v>
+        <v>24.06604150007374</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,34 +1226,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>10.26318924705696</v>
+        <v>7.100809782652148</v>
       </c>
       <c r="D25">
-        <v>8.965254705995902</v>
+        <v>5.534562670390883</v>
       </c>
       <c r="E25">
-        <v>13.68829407869671</v>
+        <v>8.696314286514237</v>
       </c>
       <c r="F25">
-        <v>34.76851179398151</v>
+        <v>30.88052884237468</v>
       </c>
       <c r="G25">
-        <v>38.78985591801308</v>
+        <v>41.63525532385557</v>
       </c>
       <c r="H25">
-        <v>16.1749476266201</v>
+        <v>11.75451061283814</v>
       </c>
       <c r="I25">
-        <v>26.88338189682072</v>
+        <v>22.42286548055406</v>
       </c>
       <c r="J25">
-        <v>10.13944290318607</v>
+        <v>5.828701856253593</v>
       </c>
       <c r="L25">
-        <v>10.30677011373447</v>
+        <v>5.915808064060397</v>
       </c>
       <c r="O25">
-        <v>26.12899509237283</v>
+        <v>22.33729487974839</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,845 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>6.85199512268616</v>
+        <v>9.049269854077856</v>
       </c>
       <c r="D2">
-        <v>5.437668795208105</v>
+        <v>5.76653322838014</v>
       </c>
       <c r="E2">
-        <v>8.497137618921249</v>
+        <v>9.950776176678215</v>
       </c>
       <c r="F2">
-        <v>28.98123653454433</v>
+        <v>30.36357434896566</v>
       </c>
       <c r="G2">
-        <v>38.56160571752291</v>
+        <v>39.68065027255949</v>
       </c>
       <c r="H2">
-        <v>11.26218891491034</v>
+        <v>2.029500203052367</v>
       </c>
       <c r="I2">
-        <v>21.16180069236903</v>
+        <v>3.313759984402004</v>
       </c>
       <c r="J2">
-        <v>5.799915979229965</v>
+        <v>11.99164013192833</v>
+      </c>
+      <c r="K2">
+        <v>22.66630931129768</v>
       </c>
       <c r="L2">
-        <v>5.88922322216682</v>
+        <v>6.932060318581035</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>6.345012337184648</v>
       </c>
       <c r="O2">
-        <v>21.03242594599082</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>25.60720851682247</v>
+      </c>
+      <c r="Q2">
+        <v>22.11024987527289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>6.686441129062537</v>
+        <v>8.781458659537424</v>
       </c>
       <c r="D3">
-        <v>5.376237754732426</v>
+        <v>5.670228116934474</v>
       </c>
       <c r="E3">
-        <v>8.369080680607228</v>
+        <v>9.705410504600094</v>
       </c>
       <c r="F3">
-        <v>27.66449737184828</v>
+        <v>29.07435025765277</v>
       </c>
       <c r="G3">
-        <v>36.39181408201674</v>
+        <v>37.62055564405566</v>
       </c>
       <c r="H3">
-        <v>10.93175383611791</v>
+        <v>1.783728418466397</v>
       </c>
       <c r="I3">
-        <v>20.29467857100967</v>
+        <v>3.104605916914173</v>
       </c>
       <c r="J3">
-        <v>5.785288492834358</v>
+        <v>11.64706186018733</v>
+      </c>
+      <c r="K3">
+        <v>21.80447978680944</v>
       </c>
       <c r="L3">
-        <v>5.876022990610276</v>
+        <v>6.815876114745348</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>6.261216128172972</v>
       </c>
       <c r="O3">
-        <v>20.132326745867</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>24.22561817997339</v>
+      </c>
+      <c r="Q3">
+        <v>21.22759645601991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>6.586584202473242</v>
+        <v>8.60893086181059</v>
       </c>
       <c r="D4">
-        <v>5.340627551919931</v>
+        <v>5.611160623002604</v>
       </c>
       <c r="E4">
-        <v>8.293956715519252</v>
+        <v>9.550345763237058</v>
       </c>
       <c r="F4">
-        <v>26.84401977959815</v>
+        <v>28.25708389977818</v>
       </c>
       <c r="G4">
-        <v>35.01980718745944</v>
+        <v>36.30103060135642</v>
       </c>
       <c r="H4">
-        <v>10.73104033158798</v>
+        <v>1.627054508084163</v>
       </c>
       <c r="I4">
-        <v>19.75787183310129</v>
+        <v>2.971630386748684</v>
       </c>
       <c r="J4">
-        <v>5.778642981698814</v>
+        <v>11.43190580812899</v>
+      </c>
+      <c r="K4">
+        <v>21.25833714162484</v>
       </c>
       <c r="L4">
-        <v>5.870225320143071</v>
+        <v>6.742264182341179</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>6.209586307617119</v>
       </c>
       <c r="O4">
-        <v>19.57368069894927</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>23.33595077662917</v>
+      </c>
+      <c r="Q4">
+        <v>20.66945815451436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
-        <v>6.546386617446612</v>
+        <v>8.529468006325388</v>
       </c>
       <c r="D5">
-        <v>5.326648942662168</v>
+        <v>5.587369109857568</v>
       </c>
       <c r="E5">
-        <v>8.264236548381538</v>
+        <v>9.484526771298126</v>
       </c>
       <c r="F5">
-        <v>26.50711437799638</v>
+        <v>27.90869602630515</v>
       </c>
       <c r="G5">
-        <v>34.45130040911718</v>
+        <v>35.734282802148</v>
       </c>
       <c r="H5">
-        <v>10.64989050529968</v>
+        <v>1.561215421803267</v>
       </c>
       <c r="I5">
-        <v>19.53832160824263</v>
+        <v>2.916464597326986</v>
       </c>
       <c r="J5">
-        <v>5.776511694362982</v>
+        <v>11.34038371754311</v>
+      </c>
+      <c r="K5">
+        <v>21.02226768659125</v>
       </c>
       <c r="L5">
-        <v>5.868432850547806</v>
+        <v>6.710660003250641</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>6.189538799770752</v>
       </c>
       <c r="O5">
-        <v>19.344839982688</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>22.96331756195408</v>
+      </c>
+      <c r="Q5">
+        <v>20.43101808747653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>6.539743017308279</v>
+        <v>8.507407781458427</v>
       </c>
       <c r="D6">
-        <v>5.324360044477867</v>
+        <v>5.583723366678229</v>
       </c>
       <c r="E6">
-        <v>8.25935583029791</v>
+        <v>9.471625687277031</v>
       </c>
       <c r="F6">
-        <v>26.45103198784041</v>
+        <v>27.83911824912244</v>
       </c>
       <c r="G6">
-        <v>34.35635223643565</v>
+        <v>35.62004560310348</v>
       </c>
       <c r="H6">
-        <v>10.63645731802637</v>
+        <v>1.571842929210206</v>
       </c>
       <c r="I6">
-        <v>19.50182695176564</v>
+        <v>2.907646790194467</v>
       </c>
       <c r="J6">
-        <v>5.776192323184766</v>
+        <v>11.32140932660643</v>
+      </c>
+      <c r="K6">
+        <v>20.97119358264433</v>
       </c>
       <c r="L6">
-        <v>5.868169350292702</v>
+        <v>6.70410127335887</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>6.187473366492197</v>
       </c>
       <c r="O6">
-        <v>19.30677941099302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>22.90084339962192</v>
+      </c>
+      <c r="Q6">
+        <v>20.38238237520297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <v>6.586040021695696</v>
+        <v>8.584178517329665</v>
       </c>
       <c r="D7">
-        <v>5.340436871326502</v>
+        <v>5.611663985087993</v>
       </c>
       <c r="E7">
-        <v>8.293552266139207</v>
+        <v>9.544299730411691</v>
       </c>
       <c r="F7">
-        <v>26.83948583930149</v>
+        <v>28.22177758397271</v>
       </c>
       <c r="G7">
-        <v>35.01217730060527</v>
+        <v>36.2415411305435</v>
       </c>
       <c r="H7">
-        <v>10.72994318562706</v>
+        <v>1.624455166070242</v>
       </c>
       <c r="I7">
-        <v>19.75491369876798</v>
+        <v>2.971658471284235</v>
       </c>
       <c r="J7">
-        <v>5.778611916927225</v>
+        <v>11.42057202049408</v>
+      </c>
+      <c r="K7">
+        <v>21.22376250011543</v>
       </c>
       <c r="L7">
-        <v>5.87019885120917</v>
+        <v>6.738378559425319</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>6.212757925149434</v>
       </c>
       <c r="O7">
-        <v>19.57059883628008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>23.33096569062624</v>
+      </c>
+      <c r="Q7">
+        <v>20.64247362979765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
-        <v>6.7945658888033</v>
+        <v>8.928300287270751</v>
       </c>
       <c r="D8">
-        <v>5.416051517388681</v>
+        <v>5.734406317685951</v>
       </c>
       <c r="E8">
-        <v>8.452264370787072</v>
+        <v>9.860506668423263</v>
       </c>
       <c r="F8">
-        <v>28.52997137882322</v>
+        <v>29.88604466079271</v>
       </c>
       <c r="G8">
-        <v>37.82202641776621</v>
+        <v>38.91739647395331</v>
       </c>
       <c r="H8">
-        <v>11.14785941926579</v>
+        <v>1.943758257501599</v>
       </c>
       <c r="I8">
-        <v>20.863901345695</v>
+        <v>3.243022419132867</v>
       </c>
       <c r="J8">
-        <v>5.794381295393423</v>
+        <v>11.86069753834263</v>
+      </c>
+      <c r="K8">
+        <v>22.33305426512536</v>
       </c>
       <c r="L8">
-        <v>5.884186860029802</v>
+        <v>6.888017148264406</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>6.320655107484285</v>
       </c>
       <c r="O8">
-        <v>20.72349054557654</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="Q8">
+        <v>21.77938945451064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>7.215850781742558</v>
+        <v>9.577885959303519</v>
       </c>
       <c r="D9">
-        <v>5.580918086465311</v>
+        <v>5.973461006422453</v>
       </c>
       <c r="E9">
-        <v>8.790696935012171</v>
+        <v>10.45282926442377</v>
       </c>
       <c r="F9">
-        <v>31.73290744012536</v>
+        <v>32.98177719510733</v>
       </c>
       <c r="G9">
-        <v>42.9970864936016</v>
+        <v>43.79829253525509</v>
       </c>
       <c r="H9">
-        <v>11.98074374812118</v>
+        <v>2.528040946487636</v>
       </c>
       <c r="I9">
-        <v>22.99218785521259</v>
+        <v>3.739764847085413</v>
       </c>
       <c r="J9">
-        <v>5.844311655479403</v>
+        <v>12.70831397554914</v>
+      </c>
+      <c r="K9">
+        <v>24.4161432905519</v>
       </c>
       <c r="L9">
-        <v>5.930376209785495</v>
+        <v>7.169005447229629</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>6.524569478881226</v>
       </c>
       <c r="O9">
-        <v>22.92505832189504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>28.34722074380644</v>
+      </c>
+      <c r="Q9">
+        <v>23.90946926094056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
-        <v>7.530565717737724</v>
+        <v>9.9565858944936</v>
       </c>
       <c r="D10">
-        <v>5.711937900384143</v>
+        <v>6.116611944278397</v>
       </c>
       <c r="E10">
-        <v>9.055100715487125</v>
+        <v>10.76641234113109</v>
       </c>
       <c r="F10">
-        <v>33.999752816</v>
+        <v>34.94107474902825</v>
       </c>
       <c r="G10">
-        <v>46.57647283915159</v>
+        <v>46.87167093549756</v>
       </c>
       <c r="H10">
-        <v>12.59614812492762</v>
+        <v>2.918184022229643</v>
       </c>
       <c r="I10">
-        <v>24.51475952322956</v>
+        <v>4.076665134024768</v>
       </c>
       <c r="J10">
-        <v>5.893238623308589</v>
+        <v>13.25940986492551</v>
+      </c>
+      <c r="K10">
+        <v>25.72950359886905</v>
       </c>
       <c r="L10">
-        <v>5.976373315820633</v>
+        <v>7.31659115750825</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>6.622664366808008</v>
       </c>
       <c r="O10">
-        <v>24.49365809705515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>30.48602834203865</v>
+      </c>
+      <c r="Q10">
+        <v>25.27243738146052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>7.674431874022209</v>
+        <v>9.696544849417378</v>
       </c>
       <c r="D11">
-        <v>5.77363946768632</v>
+        <v>5.910021445944325</v>
       </c>
       <c r="E11">
-        <v>9.178636675745336</v>
+        <v>10.10939431457057</v>
       </c>
       <c r="F11">
-        <v>35.00969773253775</v>
+        <v>34.44894576559416</v>
       </c>
       <c r="G11">
-        <v>48.15450775651134</v>
+        <v>46.44158994639919</v>
       </c>
       <c r="H11">
-        <v>12.87607627383681</v>
+        <v>3.601128400342637</v>
       </c>
       <c r="I11">
-        <v>25.19657532757126</v>
+        <v>4.160782063501697</v>
       </c>
       <c r="J11">
-        <v>5.9182990585173</v>
+        <v>13.12562974919976</v>
+      </c>
+      <c r="K11">
+        <v>25.37025146200332</v>
       </c>
       <c r="L11">
-        <v>6.000054636715007</v>
+        <v>7.008120281618063</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>6.250027336201732</v>
       </c>
       <c r="O11">
-        <v>25.1947733442162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>31.41016321374476</v>
+      </c>
+      <c r="Q11">
+        <v>25.02088873914176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>7.728979864700551</v>
+        <v>9.436937252880156</v>
       </c>
       <c r="D12">
-        <v>5.797301852529507</v>
+        <v>5.706789804412934</v>
       </c>
       <c r="E12">
-        <v>9.225871770773294</v>
+        <v>9.542200381872052</v>
       </c>
       <c r="F12">
-        <v>35.38894381546415</v>
+        <v>33.64846539824913</v>
       </c>
       <c r="G12">
-        <v>48.74478502034458</v>
+        <v>45.48920209660962</v>
       </c>
       <c r="H12">
-        <v>12.98202290269738</v>
+        <v>4.673721344498668</v>
       </c>
       <c r="I12">
-        <v>25.45309575138546</v>
+        <v>4.164822454442589</v>
       </c>
       <c r="J12">
-        <v>5.928203949173156</v>
+        <v>12.90516504325366</v>
+      </c>
+      <c r="K12">
+        <v>24.82372249119592</v>
       </c>
       <c r="L12">
-        <v>6.009430030759309</v>
+        <v>6.757188620062543</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>5.953186418828118</v>
       </c>
       <c r="O12">
-        <v>25.45837345932063</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>31.75299711977163</v>
+      </c>
+      <c r="Q12">
+        <v>24.54482190602882</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
-        <v>7.717229366331653</v>
+        <v>9.127081411385074</v>
       </c>
       <c r="D13">
-        <v>5.792192578796655</v>
+        <v>5.494333542405863</v>
       </c>
       <c r="E13">
-        <v>9.215678821752835</v>
+        <v>9.006981276989476</v>
       </c>
       <c r="F13">
-        <v>35.30741030946879</v>
+        <v>32.50217168614575</v>
       </c>
       <c r="G13">
-        <v>48.61798275520521</v>
+        <v>43.98370478547171</v>
       </c>
       <c r="H13">
-        <v>12.95920860742584</v>
+        <v>5.869951645403634</v>
       </c>
       <c r="I13">
-        <v>25.39792512206722</v>
+        <v>4.108339311458837</v>
       </c>
       <c r="J13">
-        <v>5.926052099538018</v>
+        <v>12.5865694531664</v>
+      </c>
+      <c r="K13">
+        <v>24.04640002363744</v>
       </c>
       <c r="L13">
-        <v>6.007392550423388</v>
+        <v>6.53299542196831</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>5.70772968421211</v>
       </c>
       <c r="O13">
-        <v>25.40168813043708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>31.67947945617575</v>
+      </c>
+      <c r="Q13">
+        <v>23.82411306979341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
-        <v>7.678918352638281</v>
+        <v>8.882489572244078</v>
       </c>
       <c r="D14">
-        <v>5.77558025200897</v>
+        <v>5.34283992516654</v>
       </c>
       <c r="E14">
-        <v>9.182513693954215</v>
+        <v>8.659558604392794</v>
       </c>
       <c r="F14">
-        <v>35.04096325215525</v>
+        <v>31.5230518208093</v>
       </c>
       <c r="G14">
-        <v>48.20321644585737</v>
+        <v>42.64710072976343</v>
       </c>
       <c r="H14">
-        <v>12.88479395051924</v>
+        <v>6.752801254454581</v>
       </c>
       <c r="I14">
-        <v>25.21771337914352</v>
+        <v>4.041997920174011</v>
       </c>
       <c r="J14">
-        <v>5.919105551710754</v>
+        <v>12.31413605471484</v>
+      </c>
+      <c r="K14">
+        <v>23.38247947527714</v>
       </c>
       <c r="L14">
-        <v>6.000817716912588</v>
+        <v>6.395324174657638</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>5.570810100881737</v>
       </c>
       <c r="O14">
-        <v>25.21649838183608</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>31.43851144188476</v>
+      </c>
+      <c r="Q14">
+        <v>23.19535462794169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
-        <v>7.655459872379011</v>
+        <v>8.804581810360787</v>
       </c>
       <c r="D15">
-        <v>5.765443315142385</v>
+        <v>5.30401577406385</v>
       </c>
       <c r="E15">
-        <v>9.162257938126963</v>
+        <v>8.574855751018788</v>
       </c>
       <c r="F15">
-        <v>34.8773369568953</v>
+        <v>31.20024159773573</v>
       </c>
       <c r="G15">
-        <v>47.9482100018766</v>
+        <v>42.18426561973752</v>
       </c>
       <c r="H15">
-        <v>12.83920415782121</v>
+        <v>6.953165699126501</v>
       </c>
       <c r="I15">
-        <v>25.10710844039901</v>
+        <v>4.0128529101708</v>
       </c>
       <c r="J15">
-        <v>5.914905003768749</v>
+        <v>12.22379209130845</v>
+      </c>
+      <c r="K15">
+        <v>23.16106219005431</v>
       </c>
       <c r="L15">
-        <v>5.996843891258922</v>
+        <v>6.362233262039328</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>5.542972467322227</v>
       </c>
       <c r="O15">
-        <v>25.1028147368516</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>31.28998244549472</v>
+      </c>
+      <c r="Q15">
+        <v>22.98194510612839</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
-        <v>7.52117500746242</v>
+        <v>8.687448106239465</v>
       </c>
       <c r="D16">
-        <v>5.707947408907725</v>
+        <v>5.284100880539347</v>
       </c>
       <c r="E16">
-        <v>9.04709168392367</v>
+        <v>8.537962249702552</v>
       </c>
       <c r="F16">
-        <v>33.93330948924898</v>
+        <v>30.53172009844597</v>
       </c>
       <c r="G16">
-        <v>46.47232623757554</v>
+        <v>41.08091769516739</v>
       </c>
       <c r="H16">
-        <v>12.57784891900108</v>
+        <v>6.670745558284757</v>
       </c>
       <c r="I16">
-        <v>24.4699731631676</v>
+        <v>3.881981673980692</v>
       </c>
       <c r="J16">
-        <v>5.891658285419605</v>
+        <v>12.03786364736047</v>
+      </c>
+      <c r="K16">
+        <v>22.71264477471262</v>
       </c>
       <c r="L16">
-        <v>5.974882124471754</v>
+        <v>6.340899516865163</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>5.550666786367754</v>
       </c>
       <c r="O16">
-        <v>24.44757806533538</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>30.42464283346099</v>
+      </c>
+      <c r="Q16">
+        <v>22.50533968798553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
-        <v>7.438951043114551</v>
+        <v>8.727046461217402</v>
       </c>
       <c r="D17">
-        <v>5.673209966514369</v>
+        <v>5.349296327492193</v>
       </c>
       <c r="E17">
-        <v>8.977264906055373</v>
+        <v>8.687474142850773</v>
       </c>
       <c r="F17">
-        <v>33.3486172728676</v>
+        <v>30.55380652436293</v>
       </c>
       <c r="G17">
-        <v>45.55398042516968</v>
+        <v>40.96530580632871</v>
       </c>
       <c r="H17">
-        <v>12.41746882728338</v>
+        <v>5.933774372027757</v>
       </c>
       <c r="I17">
-        <v>24.07625001197341</v>
+        <v>3.816546749441677</v>
       </c>
       <c r="J17">
-        <v>5.878123536734135</v>
+        <v>12.04303429749379</v>
+      </c>
+      <c r="K17">
+        <v>22.7296712131757</v>
       </c>
       <c r="L17">
-        <v>5.962123380663384</v>
+        <v>6.393250161393642</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>5.623863979255089</v>
       </c>
       <c r="O17">
-        <v>24.04233508049078</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>29.88120505119274</v>
+      </c>
+      <c r="Q17">
+        <v>22.48235355318726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
-        <v>7.391725583294252</v>
+        <v>8.928106258662218</v>
       </c>
       <c r="D18">
-        <v>5.653427831549228</v>
+        <v>5.497989613688647</v>
       </c>
       <c r="E18">
-        <v>8.937409718246926</v>
+        <v>9.05660471521549</v>
       </c>
       <c r="F18">
-        <v>33.01032214436405</v>
+        <v>31.19557342334285</v>
       </c>
       <c r="G18">
-        <v>45.02104181424416</v>
+        <v>41.73092221959902</v>
       </c>
       <c r="H18">
-        <v>12.32522276781025</v>
+        <v>4.773202973015709</v>
       </c>
       <c r="I18">
-        <v>23.84877788917713</v>
+        <v>3.801063437470122</v>
       </c>
       <c r="J18">
-        <v>5.870601834036864</v>
+        <v>12.21965037936874</v>
+      </c>
+      <c r="K18">
+        <v>23.17257079822127</v>
       </c>
       <c r="L18">
-        <v>5.955043694943927</v>
+        <v>6.540583936742476</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>5.791410688289283</v>
       </c>
       <c r="O18">
-        <v>23.80808225396516</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>29.5640428768043</v>
+      </c>
+      <c r="Q18">
+        <v>22.86476720625153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
-        <v>7.375748504646405</v>
+        <v>9.217161948953196</v>
       </c>
       <c r="D19">
-        <v>5.646764082079718</v>
+        <v>5.70904888879277</v>
       </c>
       <c r="E19">
-        <v>8.923968666719569</v>
+        <v>9.618518842927823</v>
       </c>
       <c r="F19">
-        <v>32.89544368541198</v>
+        <v>32.22519033735747</v>
       </c>
       <c r="G19">
-        <v>44.83978869580496</v>
+        <v>43.04905948093809</v>
       </c>
       <c r="H19">
-        <v>12.29399169939189</v>
+        <v>3.541013458223444</v>
       </c>
       <c r="I19">
-        <v>23.77158982617891</v>
+        <v>3.833682111905538</v>
       </c>
       <c r="J19">
-        <v>5.868099950020184</v>
+        <v>12.50061905077919</v>
+      </c>
+      <c r="K19">
+        <v>23.86619829035063</v>
       </c>
       <c r="L19">
-        <v>5.952690745715912</v>
+        <v>6.782244794796398</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>6.0672430929506</v>
       </c>
       <c r="O19">
-        <v>23.72857158244956</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>29.45587200880252</v>
+      </c>
+      <c r="Q19">
+        <v>23.49775124790803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
-        <v>7.447697173875147</v>
+        <v>9.79276261588009</v>
       </c>
       <c r="D20">
-        <v>5.676887377273102</v>
+        <v>6.080122342163157</v>
       </c>
       <c r="E20">
-        <v>8.984666383579073</v>
+        <v>10.66695437713043</v>
       </c>
       <c r="F20">
-        <v>33.41106649639975</v>
+        <v>34.34937316684505</v>
       </c>
       <c r="G20">
-        <v>45.65223018460416</v>
+        <v>45.94343668472762</v>
       </c>
       <c r="H20">
-        <v>12.43454194907556</v>
+        <v>2.810985131400998</v>
       </c>
       <c r="I20">
-        <v>24.11826829423532</v>
+        <v>3.991860806770128</v>
       </c>
       <c r="J20">
-        <v>5.879537016113494</v>
+        <v>13.08667108358106</v>
+      </c>
+      <c r="K20">
+        <v>25.3029122790133</v>
       </c>
       <c r="L20">
-        <v>5.963454704337783</v>
+        <v>7.266751659379899</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>6.604731570378364</v>
       </c>
       <c r="O20">
-        <v>24.08559564316536</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>29.93953086719064</v>
+      </c>
+      <c r="Q20">
+        <v>24.85385152947428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
-        <v>7.690169583547648</v>
+        <v>10.15740906691378</v>
       </c>
       <c r="D21">
-        <v>5.780451659879668</v>
+        <v>6.238282256677333</v>
       </c>
       <c r="E21">
-        <v>9.192242854794815</v>
+        <v>11.05059710373353</v>
       </c>
       <c r="F21">
-        <v>35.11931287114006</v>
+        <v>36.05827296443949</v>
       </c>
       <c r="G21">
-        <v>48.32524138091593</v>
+        <v>48.54767283691888</v>
       </c>
       <c r="H21">
-        <v>12.90665322246241</v>
+        <v>3.124288545699035</v>
       </c>
       <c r="I21">
-        <v>25.27069194592347</v>
+        <v>4.256041353256059</v>
       </c>
       <c r="J21">
-        <v>5.921134559594225</v>
+        <v>13.57236510823833</v>
+      </c>
+      <c r="K21">
+        <v>26.45816599813738</v>
       </c>
       <c r="L21">
-        <v>6.002737745209491</v>
+        <v>7.449203007416869</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>6.758146618422378</v>
       </c>
       <c r="O21">
-        <v>25.27094524981682</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>31.50948335633596</v>
+      </c>
+      <c r="Q21">
+        <v>26.02958336396515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
-        <v>7.849030155524482</v>
+        <v>10.38983932985618</v>
       </c>
       <c r="D22">
-        <v>5.84986829246711</v>
+        <v>6.323904355139972</v>
       </c>
       <c r="E22">
-        <v>9.330551633609101</v>
+        <v>11.25337790970239</v>
       </c>
       <c r="F22">
-        <v>36.21708121926375</v>
+        <v>37.09715574950608</v>
       </c>
       <c r="G22">
-        <v>50.0297351283709</v>
+        <v>50.14110622681556</v>
       </c>
       <c r="H22">
-        <v>13.21486253441551</v>
+        <v>3.319556560938929</v>
       </c>
       <c r="I22">
-        <v>26.01411512328275</v>
+        <v>4.420372619203953</v>
       </c>
       <c r="J22">
-        <v>5.95074606301538</v>
+        <v>13.87341752086274</v>
+      </c>
+      <c r="K22">
+        <v>27.1717925465983</v>
       </c>
       <c r="L22">
-        <v>6.030793980265731</v>
+        <v>7.546840452736042</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>6.827193317536024</v>
       </c>
       <c r="O22">
-        <v>26.03455927857585</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>32.49403281050594</v>
+      </c>
+      <c r="Q22">
+        <v>26.7533867059163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
-        <v>7.764216787625141</v>
+        <v>10.29033582615573</v>
       </c>
       <c r="D23">
-        <v>5.812662298309611</v>
+        <v>6.277330065899228</v>
       </c>
       <c r="E23">
-        <v>9.256495556003498</v>
+        <v>11.15084091482401</v>
       </c>
       <c r="F23">
-        <v>35.63292286311624</v>
+        <v>36.57445633680505</v>
       </c>
       <c r="G23">
-        <v>49.12390405097515</v>
+        <v>49.34280680257238</v>
       </c>
       <c r="H23">
-        <v>13.05041107402218</v>
+        <v>3.21746319644111</v>
       </c>
       <c r="I23">
-        <v>25.6182568477726</v>
+        <v>4.331944674588449</v>
       </c>
       <c r="J23">
-        <v>5.934715882657006</v>
+        <v>13.72347407396831</v>
+      </c>
+      <c r="K23">
+        <v>26.82315229610906</v>
       </c>
       <c r="L23">
-        <v>6.015597984765893</v>
+        <v>7.498567515801119</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>6.786547094961437</v>
       </c>
       <c r="O23">
-        <v>25.62804359617284</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>31.97238356075506</v>
+      </c>
+      <c r="Q23">
+        <v>26.39167939108165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
-        <v>7.443742901809376</v>
+        <v>9.861227537732949</v>
       </c>
       <c r="D24">
-        <v>5.675224231178881</v>
+        <v>6.101503357946895</v>
       </c>
       <c r="E24">
-        <v>8.981319273862807</v>
+        <v>10.74480914783184</v>
       </c>
       <c r="F24">
-        <v>33.38283988092807</v>
+        <v>34.48926278586908</v>
       </c>
       <c r="G24">
-        <v>45.60782694107742</v>
+        <v>46.13494101183761</v>
       </c>
       <c r="H24">
-        <v>12.42682331552864</v>
+        <v>2.819648305703414</v>
       </c>
       <c r="I24">
-        <v>24.09927529408972</v>
+        <v>3.991686577311489</v>
       </c>
       <c r="J24">
-        <v>5.878897174372665</v>
+        <v>13.12841879655135</v>
+      </c>
+      <c r="K24">
+        <v>25.41509451104194</v>
       </c>
       <c r="L24">
-        <v>5.962852017974972</v>
+        <v>7.305717497147768</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>6.637890502522348</v>
       </c>
       <c r="O24">
-        <v>24.06604150007374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>29.91317649911916</v>
+      </c>
+      <c r="Q24">
+        <v>24.94676373832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
-        <v>7.100809782652148</v>
+        <v>9.369971014280994</v>
       </c>
       <c r="D25">
-        <v>5.534562670390883</v>
+        <v>5.910361574440071</v>
       </c>
       <c r="E25">
-        <v>8.696314286514237</v>
+        <v>10.28809426232255</v>
       </c>
       <c r="F25">
-        <v>30.88052884237468</v>
+        <v>32.12048943873295</v>
       </c>
       <c r="G25">
-        <v>41.63525532385557</v>
+        <v>42.44724375383343</v>
       </c>
       <c r="H25">
-        <v>11.75451061283814</v>
+        <v>2.371783624869618</v>
       </c>
       <c r="I25">
-        <v>22.42286548055406</v>
+        <v>3.610186700967295</v>
       </c>
       <c r="J25">
-        <v>5.828701856253593</v>
+        <v>12.46622927716403</v>
+      </c>
+      <c r="K25">
+        <v>23.81838927556597</v>
       </c>
       <c r="L25">
-        <v>5.915808064060397</v>
+        <v>7.089133832718618</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>6.4756487495558</v>
       </c>
       <c r="O25">
-        <v>22.33729487974839</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>27.51708508088413</v>
+      </c>
+      <c r="Q25">
+        <v>23.31105585443108</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.049269854077856</v>
+        <v>7.624988209405537</v>
       </c>
       <c r="D2">
-        <v>5.76653322838014</v>
+        <v>5.797494635178236</v>
       </c>
       <c r="E2">
-        <v>9.950776176678215</v>
+        <v>9.63516713610554</v>
       </c>
       <c r="F2">
-        <v>30.36357434896566</v>
+        <v>28.74980500975404</v>
       </c>
       <c r="G2">
-        <v>39.68065027255949</v>
+        <v>36.52697078678332</v>
       </c>
       <c r="H2">
-        <v>2.029500203052367</v>
+        <v>1.97894074400111</v>
       </c>
       <c r="I2">
-        <v>3.313759984402004</v>
+        <v>3.27495432094207</v>
       </c>
       <c r="J2">
-        <v>11.99164013192833</v>
+        <v>11.93512299167687</v>
       </c>
       <c r="K2">
-        <v>22.66630931129768</v>
+        <v>20.95474129335364</v>
       </c>
       <c r="L2">
-        <v>6.932060318581035</v>
+        <v>17.58952374626887</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.87043317829592</v>
       </c>
       <c r="N2">
-        <v>6.345012337184648</v>
+        <v>6.721077652191325</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>25.60720851682247</v>
+        <v>6.614780426879959</v>
       </c>
       <c r="Q2">
-        <v>22.11024987527289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>25.60720851682176</v>
+      </c>
+      <c r="S2">
+        <v>20.85711779295142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.781458659537424</v>
+        <v>7.461290081473916</v>
       </c>
       <c r="D3">
-        <v>5.670228116934474</v>
+        <v>5.700625320941632</v>
       </c>
       <c r="E3">
-        <v>9.705410504600094</v>
+        <v>9.425947779387888</v>
       </c>
       <c r="F3">
-        <v>29.07435025765277</v>
+        <v>27.62402172878684</v>
       </c>
       <c r="G3">
-        <v>37.62055564405566</v>
+        <v>34.71779450648459</v>
       </c>
       <c r="H3">
-        <v>1.783728418466397</v>
+        <v>1.758602391810121</v>
       </c>
       <c r="I3">
-        <v>3.104605916914173</v>
+        <v>3.09582218340041</v>
       </c>
       <c r="J3">
-        <v>11.64706186018733</v>
+        <v>11.62872610569291</v>
       </c>
       <c r="K3">
-        <v>21.80447978680944</v>
+        <v>20.26027591021851</v>
       </c>
       <c r="L3">
-        <v>6.815876114745348</v>
+        <v>17.30695840706459</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.0669548380843</v>
       </c>
       <c r="N3">
-        <v>6.261216128172972</v>
+        <v>6.626681593149132</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
+        <v>6.515983178848336</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>24.22561817997339</v>
       </c>
-      <c r="Q3">
-        <v>21.22759645601991</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="S3">
+        <v>20.10158348777118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.60893086181059</v>
+        <v>7.35496748498231</v>
       </c>
       <c r="D4">
-        <v>5.611160623002604</v>
+        <v>5.641426769329972</v>
       </c>
       <c r="E4">
-        <v>9.550345763237058</v>
+        <v>9.29368916466572</v>
       </c>
       <c r="F4">
-        <v>28.25708389977818</v>
+        <v>26.91024334794414</v>
       </c>
       <c r="G4">
-        <v>36.30103060135642</v>
+        <v>33.56021996884638</v>
       </c>
       <c r="H4">
-        <v>1.627054508084163</v>
+        <v>1.617965124916794</v>
       </c>
       <c r="I4">
-        <v>2.971630386748684</v>
+        <v>2.98193912219939</v>
       </c>
       <c r="J4">
-        <v>11.43190580812899</v>
+        <v>11.43566477014681</v>
       </c>
       <c r="K4">
-        <v>21.25833714162484</v>
+        <v>19.81971195797612</v>
       </c>
       <c r="L4">
-        <v>6.742264182341179</v>
+        <v>17.12160222458835</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.56863589555088</v>
       </c>
       <c r="N4">
-        <v>6.209586307617119</v>
+        <v>6.566660312629445</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>6.455467251342392</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>23.33595077662917</v>
       </c>
-      <c r="Q4">
-        <v>20.66945815451436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4">
+        <v>19.62364392384418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.529468006325388</v>
+        <v>7.304941091943756</v>
       </c>
       <c r="D5">
-        <v>5.587369109857568</v>
+        <v>5.617656445578984</v>
       </c>
       <c r="E5">
-        <v>9.484526771298126</v>
+        <v>9.237394564556487</v>
       </c>
       <c r="F5">
-        <v>27.90869602630515</v>
+        <v>26.6050232965565</v>
       </c>
       <c r="G5">
-        <v>35.734282802148</v>
+        <v>33.06167272193737</v>
       </c>
       <c r="H5">
-        <v>1.561215421803267</v>
+        <v>1.562353949416492</v>
       </c>
       <c r="I5">
-        <v>2.916464597326986</v>
+        <v>2.935021012385246</v>
       </c>
       <c r="J5">
-        <v>11.34038371754311</v>
+        <v>11.35290165247701</v>
       </c>
       <c r="K5">
-        <v>21.02226768659125</v>
+        <v>19.62770573638339</v>
       </c>
       <c r="L5">
-        <v>6.710660003250641</v>
+        <v>17.03596948372629</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.35823951627907</v>
       </c>
       <c r="N5">
-        <v>6.189538799770752</v>
+        <v>6.540731020149638</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
+        <v>6.431983409150048</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>22.96331756195408</v>
       </c>
-      <c r="Q5">
-        <v>20.43101808747653</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5">
+        <v>19.41860469320532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.507407781458427</v>
+        <v>7.290175666766813</v>
       </c>
       <c r="D6">
-        <v>5.583723366678229</v>
+        <v>5.614039353712171</v>
       </c>
       <c r="E6">
-        <v>9.471625687277031</v>
+        <v>9.22618838118796</v>
       </c>
       <c r="F6">
-        <v>27.83911824912244</v>
+        <v>26.54299023102703</v>
       </c>
       <c r="G6">
-        <v>35.62004560310348</v>
+        <v>32.95922095838652</v>
       </c>
       <c r="H6">
-        <v>1.571842929210206</v>
+        <v>1.573097526799965</v>
       </c>
       <c r="I6">
-        <v>2.907646790194467</v>
+        <v>2.927985370904038</v>
       </c>
       <c r="J6">
-        <v>11.32140932660643</v>
+        <v>11.33550524119303</v>
       </c>
       <c r="K6">
-        <v>20.97119358264433</v>
+        <v>19.58448183284161</v>
       </c>
       <c r="L6">
-        <v>6.70410127335887</v>
+        <v>17.01287992908295</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.31496537232465</v>
       </c>
       <c r="N6">
-        <v>6.187473366492197</v>
+        <v>6.53522456991647</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
+        <v>6.429470219021424</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>22.90084339962192</v>
       </c>
-      <c r="Q6">
-        <v>20.38238237520297</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6">
+        <v>19.37583106090585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.584178517329665</v>
+        <v>7.338865940743544</v>
       </c>
       <c r="D7">
-        <v>5.611663985087993</v>
+        <v>5.644417267990498</v>
       </c>
       <c r="E7">
-        <v>9.544299730411691</v>
+        <v>9.288863339470963</v>
       </c>
       <c r="F7">
-        <v>28.22177758397271</v>
+        <v>26.85993851057394</v>
       </c>
       <c r="G7">
-        <v>36.2415411305435</v>
+        <v>33.60473368591473</v>
       </c>
       <c r="H7">
-        <v>1.624455166070242</v>
+        <v>1.614954843289998</v>
       </c>
       <c r="I7">
-        <v>2.971658471284235</v>
+        <v>2.982492541798188</v>
       </c>
       <c r="J7">
-        <v>11.42057202049408</v>
+        <v>11.36723332864435</v>
       </c>
       <c r="K7">
-        <v>21.22376250011543</v>
+        <v>19.77600872564182</v>
       </c>
       <c r="L7">
-        <v>6.738378559425319</v>
+        <v>17.08866037299707</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.53478347843215</v>
       </c>
       <c r="N7">
-        <v>6.212757925149434</v>
+        <v>6.562723586224631</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
+        <v>6.458675017334638</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>23.33096569062624</v>
       </c>
-      <c r="Q7">
-        <v>20.64247362979765</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7">
+        <v>19.58382059488939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.928300287270751</v>
+        <v>7.553750863483669</v>
       </c>
       <c r="D8">
-        <v>5.734406317685951</v>
+        <v>5.773190405668506</v>
       </c>
       <c r="E8">
-        <v>9.860506668423263</v>
+        <v>9.56030626278781</v>
       </c>
       <c r="F8">
-        <v>29.88604466079271</v>
+        <v>28.27695925622391</v>
       </c>
       <c r="G8">
-        <v>38.91739647395331</v>
+        <v>36.16878193422761</v>
       </c>
       <c r="H8">
-        <v>1.943758257501599</v>
+        <v>1.900063337034851</v>
       </c>
       <c r="I8">
-        <v>3.243022419132867</v>
+        <v>3.213797718030973</v>
       </c>
       <c r="J8">
-        <v>11.86069753834263</v>
+        <v>11.63316176042699</v>
       </c>
       <c r="K8">
-        <v>22.33305426512536</v>
+        <v>20.64506760624495</v>
       </c>
       <c r="L8">
-        <v>6.888017148264406</v>
+        <v>17.439188492324</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.53840734949079</v>
       </c>
       <c r="N8">
-        <v>6.320655107484285</v>
+        <v>6.68357342467927</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
+        <v>6.584865512626268</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>25.1395913014106</v>
       </c>
-      <c r="Q8">
-        <v>21.77938945451064</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8">
+        <v>20.52593944284517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.577885959303519</v>
+        <v>7.951629853304276</v>
       </c>
       <c r="D9">
-        <v>5.973461006422453</v>
+        <v>6.01656914074291</v>
       </c>
       <c r="E9">
-        <v>10.45282926442377</v>
+        <v>10.0665366082004</v>
       </c>
       <c r="F9">
-        <v>32.98177719510733</v>
+        <v>30.97443458582128</v>
       </c>
       <c r="G9">
-        <v>43.79829253525509</v>
+        <v>40.51539538562011</v>
       </c>
       <c r="H9">
-        <v>2.528040946487636</v>
+        <v>2.422516862082549</v>
       </c>
       <c r="I9">
-        <v>3.739764847085413</v>
+        <v>3.637613932304892</v>
       </c>
       <c r="J9">
-        <v>12.70831397554914</v>
+        <v>12.33998933330184</v>
       </c>
       <c r="K9">
-        <v>24.4161432905519</v>
+        <v>22.32076211423264</v>
       </c>
       <c r="L9">
-        <v>7.169005447229629</v>
+        <v>18.10201052709575</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>15.51110832522185</v>
       </c>
       <c r="N9">
-        <v>6.524569478881226</v>
+        <v>6.910966934316785</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
+        <v>6.827176086614038</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>28.34722074380644</v>
       </c>
-      <c r="Q9">
-        <v>23.90946926094056</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="S9">
+        <v>22.34376774694326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.9565858944936</v>
+        <v>8.191481765113796</v>
       </c>
       <c r="D10">
-        <v>6.116611944278397</v>
+        <v>6.17600762965248</v>
       </c>
       <c r="E10">
-        <v>10.76641234113109</v>
+        <v>10.3304358281613</v>
       </c>
       <c r="F10">
-        <v>34.94107474902825</v>
+        <v>32.59332531747004</v>
       </c>
       <c r="G10">
-        <v>46.87167093549756</v>
+        <v>43.72810856332798</v>
       </c>
       <c r="H10">
-        <v>2.918184022229643</v>
+        <v>2.767593634972634</v>
       </c>
       <c r="I10">
-        <v>4.076665134024768</v>
+        <v>3.922781529271688</v>
       </c>
       <c r="J10">
-        <v>13.25940986492551</v>
+        <v>12.49478375881025</v>
       </c>
       <c r="K10">
-        <v>25.72950359886905</v>
+        <v>23.31245699803718</v>
       </c>
       <c r="L10">
-        <v>7.31659115750825</v>
+        <v>18.41752883919632</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>16.76788088729041</v>
       </c>
       <c r="N10">
-        <v>6.622664366808008</v>
+        <v>7.023955413559026</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
+        <v>6.947003494998856</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>30.48602834203865</v>
       </c>
-      <c r="Q10">
-        <v>25.27243738146052</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="S10">
+        <v>23.43233345337445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.696544849417378</v>
+        <v>8.065337724155363</v>
       </c>
       <c r="D11">
-        <v>5.910021445944325</v>
+        <v>5.988877820945842</v>
       </c>
       <c r="E11">
-        <v>10.10939431457057</v>
+        <v>9.706162761143613</v>
       </c>
       <c r="F11">
-        <v>34.44894576559416</v>
+        <v>31.92478285668809</v>
       </c>
       <c r="G11">
-        <v>46.44158994639919</v>
+        <v>44.32824395959526</v>
       </c>
       <c r="H11">
-        <v>3.601128400342637</v>
+        <v>3.467936282248376</v>
       </c>
       <c r="I11">
-        <v>4.160782063501697</v>
+        <v>3.992494375905136</v>
       </c>
       <c r="J11">
-        <v>13.12562974919976</v>
+        <v>11.74005654449929</v>
       </c>
       <c r="K11">
-        <v>25.37025146200332</v>
+        <v>22.83627739158393</v>
       </c>
       <c r="L11">
-        <v>7.008120281618063</v>
+        <v>17.89142370417293</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>16.60597925603318</v>
       </c>
       <c r="N11">
-        <v>6.250027336201732</v>
+        <v>6.74573245743986</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
+        <v>6.523465791659405</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>31.41016321374476</v>
       </c>
-      <c r="Q11">
-        <v>25.02088873914176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11">
+        <v>23.02743347143812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.436937252880156</v>
+        <v>7.934770393478249</v>
       </c>
       <c r="D12">
-        <v>5.706789804412934</v>
+        <v>5.788298677785289</v>
       </c>
       <c r="E12">
-        <v>9.542200381872052</v>
+        <v>9.176771717703968</v>
       </c>
       <c r="F12">
-        <v>33.64846539824913</v>
+        <v>31.09470730946969</v>
       </c>
       <c r="G12">
-        <v>45.48920209660962</v>
+        <v>43.93073350608034</v>
       </c>
       <c r="H12">
-        <v>4.673721344498668</v>
+        <v>4.572077448402847</v>
       </c>
       <c r="I12">
-        <v>4.164822454442589</v>
+        <v>3.994596070258933</v>
       </c>
       <c r="J12">
-        <v>12.90516504325366</v>
+        <v>11.26561093211381</v>
       </c>
       <c r="K12">
-        <v>24.82372249119592</v>
+        <v>22.29132571397228</v>
       </c>
       <c r="L12">
-        <v>6.757188620062543</v>
+        <v>17.43269893401327</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>16.25533933795081</v>
       </c>
       <c r="N12">
-        <v>5.953186418828118</v>
+        <v>6.531876693623105</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
+        <v>6.172622048726478</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>31.75299711977163</v>
       </c>
-      <c r="Q12">
-        <v>24.54482190602882</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12">
+        <v>22.52096533988798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.127081411385074</v>
+        <v>7.766814959998704</v>
       </c>
       <c r="D13">
-        <v>5.494333542405863</v>
+        <v>5.561263588013038</v>
       </c>
       <c r="E13">
-        <v>9.006981276989476</v>
+        <v>8.686575008775876</v>
       </c>
       <c r="F13">
-        <v>32.50217168614575</v>
+        <v>30.06604276606644</v>
       </c>
       <c r="G13">
-        <v>43.98370478547171</v>
+        <v>42.45165413859795</v>
       </c>
       <c r="H13">
-        <v>5.869951645403634</v>
+        <v>5.795867737638626</v>
       </c>
       <c r="I13">
-        <v>4.108339311458837</v>
+        <v>3.948185333385253</v>
       </c>
       <c r="J13">
-        <v>12.5865694531664</v>
+        <v>11.07091757511613</v>
       </c>
       <c r="K13">
-        <v>24.04640002363744</v>
+        <v>21.63302458189521</v>
       </c>
       <c r="L13">
-        <v>6.53299542196831</v>
+        <v>16.97476349509981</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.71763393507417</v>
       </c>
       <c r="N13">
-        <v>5.70772968421211</v>
+        <v>6.352441660408917</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
+        <v>5.868912168798208</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>31.67947945617575</v>
       </c>
-      <c r="Q13">
-        <v>23.82411306979341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13">
+        <v>21.89382232754061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.882489572244078</v>
+        <v>7.631534147871077</v>
       </c>
       <c r="D14">
-        <v>5.34283992516654</v>
+        <v>5.39294119982253</v>
       </c>
       <c r="E14">
-        <v>8.659558604392794</v>
+        <v>8.376002792205872</v>
       </c>
       <c r="F14">
-        <v>31.5230518208093</v>
+        <v>29.23574307092969</v>
       </c>
       <c r="G14">
-        <v>42.64710072976343</v>
+        <v>40.90299766225349</v>
       </c>
       <c r="H14">
-        <v>6.752801254454581</v>
+        <v>6.694657563425349</v>
       </c>
       <c r="I14">
-        <v>4.041997920174011</v>
+        <v>3.894565027286259</v>
       </c>
       <c r="J14">
-        <v>12.31413605471484</v>
+        <v>11.04732894840536</v>
       </c>
       <c r="K14">
-        <v>23.38247947527714</v>
+        <v>21.10591020255261</v>
       </c>
       <c r="L14">
-        <v>6.395324174657638</v>
+        <v>16.64299240173927</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.24440615938669</v>
       </c>
       <c r="N14">
-        <v>5.570810100881737</v>
+        <v>6.249120327653264</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
+        <v>5.689679921481758</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>31.43851144188476</v>
       </c>
-      <c r="Q14">
-        <v>23.19535462794169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="S14">
+        <v>21.38636507210746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.804581810360787</v>
+        <v>7.586332433105285</v>
       </c>
       <c r="D15">
-        <v>5.30401577406385</v>
+        <v>5.347508842602456</v>
       </c>
       <c r="E15">
-        <v>8.574855751018788</v>
+        <v>8.30203581263906</v>
       </c>
       <c r="F15">
-        <v>31.20024159773573</v>
+        <v>28.97837539650488</v>
       </c>
       <c r="G15">
-        <v>42.18426561973752</v>
+        <v>40.29058557359021</v>
       </c>
       <c r="H15">
-        <v>6.953165699126501</v>
+        <v>6.899334240430862</v>
       </c>
       <c r="I15">
-        <v>4.0128529101708</v>
+        <v>3.871591957238417</v>
       </c>
       <c r="J15">
-        <v>12.22379209130845</v>
+        <v>11.08713086993702</v>
       </c>
       <c r="K15">
-        <v>23.16106219005431</v>
+        <v>20.94149077802199</v>
       </c>
       <c r="L15">
-        <v>6.362233262039328</v>
+        <v>16.5528738097297</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>15.07999416095234</v>
       </c>
       <c r="N15">
-        <v>5.542972467322227</v>
+        <v>6.225411466339578</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>31.28998244549472</v>
+        <v>5.652040969991083</v>
       </c>
       <c r="Q15">
-        <v>22.98194510612839</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>31.28998244549382</v>
+      </c>
+      <c r="S15">
+        <v>21.2269746460877</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.687448106239465</v>
+        <v>7.496163255651952</v>
       </c>
       <c r="D16">
-        <v>5.284100880539347</v>
+        <v>5.307002291784973</v>
       </c>
       <c r="E16">
-        <v>8.537962249702552</v>
+        <v>8.275806001343756</v>
       </c>
       <c r="F16">
-        <v>30.53172009844597</v>
+        <v>28.55768566603613</v>
       </c>
       <c r="G16">
-        <v>41.08091769516739</v>
+        <v>38.38892612895939</v>
       </c>
       <c r="H16">
-        <v>6.670745558284757</v>
+        <v>6.625953784323123</v>
       </c>
       <c r="I16">
-        <v>3.881981673980692</v>
+        <v>3.765414100396105</v>
       </c>
       <c r="J16">
-        <v>12.03786364736047</v>
+        <v>11.4804112090974</v>
       </c>
       <c r="K16">
-        <v>22.71264477471262</v>
+        <v>20.69401605485071</v>
       </c>
       <c r="L16">
-        <v>6.340899516865163</v>
+        <v>16.53232796019554</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.6886081715993</v>
       </c>
       <c r="N16">
-        <v>5.550666786367754</v>
+        <v>6.210806229773754</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>30.42464283346099</v>
+        <v>5.665872166868051</v>
       </c>
       <c r="Q16">
-        <v>22.50533968798553</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>30.424642833461</v>
+      </c>
+      <c r="S16">
+        <v>20.95756451149255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.727046461217402</v>
+        <v>7.498103298661102</v>
       </c>
       <c r="D17">
-        <v>5.349296327492193</v>
+        <v>5.367297668896421</v>
       </c>
       <c r="E17">
-        <v>8.687474142850773</v>
+        <v>8.412539926633611</v>
       </c>
       <c r="F17">
-        <v>30.55380652436293</v>
+        <v>28.66859933427336</v>
       </c>
       <c r="G17">
-        <v>40.96530580632871</v>
+        <v>37.90075046579059</v>
       </c>
       <c r="H17">
-        <v>5.933774372027757</v>
+        <v>5.889051877518606</v>
       </c>
       <c r="I17">
-        <v>3.816546749441677</v>
+        <v>3.71165235499719</v>
       </c>
       <c r="J17">
-        <v>12.04303429749379</v>
+        <v>11.72669916360419</v>
       </c>
       <c r="K17">
-        <v>22.7296712131757</v>
+        <v>20.77703614578673</v>
       </c>
       <c r="L17">
-        <v>6.393250161393642</v>
+        <v>16.68956102936535</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.63392086142095</v>
       </c>
       <c r="N17">
-        <v>5.623863979255089</v>
+        <v>6.250264141680228</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
+        <v>5.765688601970518</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>29.88120505119274</v>
       </c>
-      <c r="Q17">
-        <v>22.48235355318726</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="S17">
+        <v>21.00992088286634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.928106258662218</v>
+        <v>7.593599649377607</v>
       </c>
       <c r="D18">
-        <v>5.497989613688647</v>
+        <v>5.518811249626962</v>
       </c>
       <c r="E18">
-        <v>9.05660471521549</v>
+        <v>8.747991946336969</v>
       </c>
       <c r="F18">
-        <v>31.19557342334285</v>
+        <v>29.30081825429725</v>
       </c>
       <c r="G18">
-        <v>41.73092221959902</v>
+        <v>38.44173248601412</v>
       </c>
       <c r="H18">
-        <v>4.773202973015709</v>
+        <v>4.718462211287303</v>
       </c>
       <c r="I18">
-        <v>3.801063437470122</v>
+        <v>3.69725991035091</v>
       </c>
       <c r="J18">
-        <v>12.21965037936874</v>
+        <v>11.98484578914166</v>
       </c>
       <c r="K18">
-        <v>23.17257079822127</v>
+        <v>21.19635359837606</v>
       </c>
       <c r="L18">
-        <v>6.540583936742476</v>
+        <v>17.050505755935</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.89551115939001</v>
       </c>
       <c r="N18">
-        <v>5.791410688289283</v>
+        <v>6.36728901427188</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>29.5640428768043</v>
+        <v>5.978271760869365</v>
       </c>
       <c r="Q18">
-        <v>22.86476720625153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>29.56404287680425</v>
+      </c>
+      <c r="S18">
+        <v>21.38755418626063</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.217161948953196</v>
+        <v>7.745824944337848</v>
       </c>
       <c r="D19">
-        <v>5.70904888879277</v>
+        <v>5.736861303107823</v>
       </c>
       <c r="E19">
-        <v>9.618518842927823</v>
+        <v>9.265618156182313</v>
       </c>
       <c r="F19">
-        <v>32.22519033735747</v>
+        <v>30.25764685260898</v>
       </c>
       <c r="G19">
-        <v>43.04905948093809</v>
+        <v>39.5979025226638</v>
       </c>
       <c r="H19">
-        <v>3.541013458223444</v>
+        <v>3.461181670562469</v>
       </c>
       <c r="I19">
-        <v>3.833682111905538</v>
+        <v>3.724866858868165</v>
       </c>
       <c r="J19">
-        <v>12.50061905077919</v>
+        <v>12.25953584601717</v>
       </c>
       <c r="K19">
-        <v>23.86619829035063</v>
+        <v>21.80820395654061</v>
       </c>
       <c r="L19">
-        <v>6.782244794796398</v>
+        <v>17.51607125922182</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>15.35370478491035</v>
       </c>
       <c r="N19">
-        <v>6.0672430929506</v>
+        <v>6.568729330637484</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
+        <v>6.308772764619544</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>29.45587200880252</v>
       </c>
-      <c r="Q19">
-        <v>23.49775124790803</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="S19">
+        <v>21.96470139296698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.79276261588009</v>
+        <v>8.078993874207491</v>
       </c>
       <c r="D20">
-        <v>6.080122342163157</v>
+        <v>6.127061471543604</v>
       </c>
       <c r="E20">
-        <v>10.66695437713043</v>
+        <v>10.24195866247423</v>
       </c>
       <c r="F20">
-        <v>34.34937316684505</v>
+        <v>32.14187458942616</v>
       </c>
       <c r="G20">
-        <v>45.94343668472762</v>
+        <v>42.47182186821124</v>
       </c>
       <c r="H20">
-        <v>2.810985131400998</v>
+        <v>2.674493035061875</v>
       </c>
       <c r="I20">
-        <v>3.991860806770128</v>
+        <v>3.856807676328992</v>
       </c>
       <c r="J20">
-        <v>13.08667108358106</v>
+        <v>12.60984301856883</v>
       </c>
       <c r="K20">
-        <v>25.3029122790133</v>
+        <v>23.00682614486391</v>
       </c>
       <c r="L20">
-        <v>7.266751659379899</v>
+        <v>18.30081371075587</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>16.4036332504308</v>
       </c>
       <c r="N20">
-        <v>6.604731570378364</v>
+        <v>6.985499764636721</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
+        <v>6.924821735777171</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>29.93953086719064</v>
       </c>
-      <c r="Q20">
-        <v>24.85385152947428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="S20">
+        <v>23.1298625712613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.15740906691378</v>
+        <v>8.337435834405209</v>
       </c>
       <c r="D21">
-        <v>6.238282256677333</v>
+        <v>6.343723266447257</v>
       </c>
       <c r="E21">
-        <v>11.05059710373353</v>
+        <v>10.59631600248978</v>
       </c>
       <c r="F21">
-        <v>36.05827296443949</v>
+        <v>33.3220007534965</v>
       </c>
       <c r="G21">
-        <v>48.54767283691888</v>
+        <v>46.66812456590898</v>
       </c>
       <c r="H21">
-        <v>3.124288545699035</v>
+        <v>2.941976510252181</v>
       </c>
       <c r="I21">
-        <v>4.256041353256059</v>
+        <v>4.070651895465187</v>
       </c>
       <c r="J21">
-        <v>13.57236510823833</v>
+        <v>11.85056279471321</v>
       </c>
       <c r="K21">
-        <v>26.45816599813738</v>
+        <v>23.72529883144528</v>
       </c>
       <c r="L21">
-        <v>7.449203007416869</v>
+        <v>18.51702098204807</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>17.32858927004726</v>
       </c>
       <c r="N21">
-        <v>6.758146618422378</v>
+        <v>7.127230177417489</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
+        <v>7.101005781561522</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>31.50948335633596</v>
       </c>
-      <c r="Q21">
-        <v>26.02958336396515</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="S21">
+        <v>23.86424268837739</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.38983932985618</v>
+        <v>8.50954509809837</v>
       </c>
       <c r="D22">
-        <v>6.323904355139972</v>
+        <v>6.471060967211363</v>
       </c>
       <c r="E22">
-        <v>11.25337790970239</v>
+        <v>10.78503535277933</v>
       </c>
       <c r="F22">
-        <v>37.09715574950608</v>
+        <v>34.01201520255616</v>
       </c>
       <c r="G22">
-        <v>50.14110622681556</v>
+        <v>49.37934004085578</v>
       </c>
       <c r="H22">
-        <v>3.319556560938929</v>
+        <v>3.108271665613395</v>
       </c>
       <c r="I22">
-        <v>4.420372619203953</v>
+        <v>4.201872581522901</v>
       </c>
       <c r="J22">
-        <v>13.87341752086274</v>
+        <v>11.29879510762207</v>
       </c>
       <c r="K22">
-        <v>27.1717925465983</v>
+        <v>24.15331000637016</v>
       </c>
       <c r="L22">
-        <v>7.546840452736042</v>
+        <v>18.63077538507497</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>17.89599064239031</v>
       </c>
       <c r="N22">
-        <v>6.827193317536024</v>
+        <v>7.200739941339715</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
+        <v>7.181208572706296</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>32.49403281050594</v>
       </c>
-      <c r="Q22">
-        <v>26.7533867059163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22">
+        <v>24.29512734597924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.29033582615573</v>
+        <v>8.430032320007401</v>
       </c>
       <c r="D23">
-        <v>6.277330065899228</v>
+        <v>6.395799153920184</v>
       </c>
       <c r="E23">
-        <v>11.15084091482401</v>
+        <v>10.6872543881986</v>
       </c>
       <c r="F23">
-        <v>36.57445633680505</v>
+        <v>33.70917332814373</v>
       </c>
       <c r="G23">
-        <v>49.34280680257238</v>
+        <v>47.77763754728014</v>
       </c>
       <c r="H23">
-        <v>3.21746319644111</v>
+        <v>3.022514105961684</v>
       </c>
       <c r="I23">
-        <v>4.331944674588449</v>
+        <v>4.130713941594687</v>
       </c>
       <c r="J23">
-        <v>13.72347407396831</v>
+        <v>11.7273717971039</v>
       </c>
       <c r="K23">
-        <v>26.82315229610906</v>
+        <v>23.97957340914414</v>
       </c>
       <c r="L23">
-        <v>7.498567515801119</v>
+        <v>18.60925703370956</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>17.63649408589081</v>
       </c>
       <c r="N23">
-        <v>6.786547094961437</v>
+        <v>7.16577195764674</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
+        <v>7.134711911521322</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>31.97238356075506</v>
       </c>
-      <c r="Q23">
-        <v>26.39167939108165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="S23">
+        <v>24.11902245649186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.861227537732949</v>
+        <v>8.122102929738993</v>
       </c>
       <c r="D24">
-        <v>6.101503357946895</v>
+        <v>6.148664459956396</v>
       </c>
       <c r="E24">
-        <v>10.74480914783184</v>
+        <v>10.31579413650846</v>
       </c>
       <c r="F24">
-        <v>34.48926278586908</v>
+        <v>32.27663606019176</v>
       </c>
       <c r="G24">
-        <v>46.13494101183761</v>
+        <v>42.63567754106919</v>
       </c>
       <c r="H24">
-        <v>2.819648305703414</v>
+        <v>2.6822822812786</v>
       </c>
       <c r="I24">
-        <v>3.991686577311489</v>
+        <v>3.854062695871303</v>
       </c>
       <c r="J24">
-        <v>13.12841879655135</v>
+        <v>12.65796394465054</v>
       </c>
       <c r="K24">
-        <v>25.41509451104194</v>
+        <v>23.11179220636872</v>
       </c>
       <c r="L24">
-        <v>7.305717497147768</v>
+        <v>18.38273766912672</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>16.47995385356291</v>
       </c>
       <c r="N24">
-        <v>6.637890502522348</v>
+        <v>7.020332392539941</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
+        <v>6.96203118542482</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>29.91317649911916</v>
       </c>
-      <c r="Q24">
-        <v>24.94676373832</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="S24">
+        <v>23.21893987487765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.369971014280994</v>
+        <v>7.819099529768936</v>
       </c>
       <c r="D25">
-        <v>5.910361574440071</v>
+        <v>5.948899023197442</v>
       </c>
       <c r="E25">
-        <v>10.28809426232255</v>
+        <v>9.923822110240762</v>
       </c>
       <c r="F25">
-        <v>32.12048943873295</v>
+        <v>30.24007243506555</v>
       </c>
       <c r="G25">
-        <v>42.44724375383343</v>
+        <v>39.17718649318947</v>
       </c>
       <c r="H25">
-        <v>2.371783624869618</v>
+        <v>2.283774917287437</v>
       </c>
       <c r="I25">
-        <v>3.610186700967295</v>
+        <v>3.529962398124038</v>
       </c>
       <c r="J25">
-        <v>12.46622927716403</v>
+        <v>12.2135656288616</v>
       </c>
       <c r="K25">
-        <v>23.81838927556597</v>
+        <v>21.8465508034696</v>
       </c>
       <c r="L25">
-        <v>7.089133832718618</v>
+        <v>17.90698470433119</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.96071518949661</v>
       </c>
       <c r="N25">
-        <v>6.4756487495558</v>
+        <v>6.846444962730931</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
+        <v>6.768586150970101</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>27.51708508088413</v>
       </c>
-      <c r="Q25">
-        <v>23.31105585443108</v>
+      <c r="S25">
+        <v>21.84679178936107</v>
       </c>
     </row>
   </sheetData>
